--- a/CoreRulebook/Data/Feats/Feats.xlsx
+++ b/CoreRulebook/Data/Feats/Feats.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$106</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$94</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$94</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$106</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$D$91</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Armour Piercing</t>
   </si>
   <si>
-    <t xml:space="preserve">When a target attempts to \imp{quickblock} your attacks, their armour takes two levels of \imp{Drain}.</t>
+    <t xml:space="preserve">When a target attempts to block your attacks, their armour takes an additional level of \imp{Drain}: a \imp{full-round block} incurs one level of drain, and \imp{quickblocking} incurs two levels. </t>
   </si>
   <si>
     <t xml:space="preserve">Attuned Attacks</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">First Aid</t>
   </si>
   <si>
-    <t xml:space="preserve">You know the basics of helping others and mainting life. If you are not already, you are considered proficient in the \imp{First Aid Kit} and gain a +2d to all \imp{Medicine} checks to heal humanoids. You may use an action to temporarily remove the \imp{Critical Condition} status effect from a being within contact range, allowing them to move and take actions as normal for one minute, at which point they regain the status. </t>
+    <t xml:space="preserve">You know the basics of helping others and mainting life. Whenever a being falls into the \imp{critical condition} status within 3m of you, you may expend a \imp{Fortitude} point to allow them to perform emergency care. Perform a DV 6 \imp{Insight (Kindness)} check, and heal them by an amount equal to the number of successes. If you have a \imp{First Aid Kit}, you may expend that rather than a \imp{Fortitude} point.</t>
   </si>
   <si>
     <t xml:space="preserve">Helping Hand</t>
@@ -102,7 +102,7 @@
     <t xml:space="preserve">Instinctive Defence</t>
   </si>
   <si>
-    <t xml:space="preserve">Whilst you have a \imp{wand} equipped and are able to cast the \imp{Shield} spell, you can a +1 rating to your \imp{Block} rating.</t>
+    <t xml:space="preserve">Whilst you have a \imp{wand} equipped and are able to cast spells, you gain a +1 bonus to all \imp{base defence bonuses}.</t>
   </si>
   <si>
     <t xml:space="preserve">Jack-of-all-Trades</t>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">Kinship (\twoCape)</t>
   </si>
   <si>
-    <t xml:space="preserve">You have an animal ally which is eternally loyal and devoted to you, and can carry out simple tasks: a `familiar’. The most common animals are owls, ravens, cats, rats and toads, though you may ask your GM for a different choice. </t>
+    <t xml:space="preserve">You have an animal ally which is eternally loyal and devoted to you, and can carry out simple tasks: a `familiar’. This familiar is a well trained pet and will follow simple orders, though they cannot communicate back, though you maintain a weak psychic link allowing you to know their current physical condition. The most common animals are owls, ravens, cats, rats and toads, though you may ask your GM for a different choice. </t>
   </si>
   <si>
     <t xml:space="preserve">Martial Arts</t>
@@ -139,14 +139,13 @@
     <t xml:space="preserve">Brawl (\threeCape)</t>
   </si>
   <si>
-    <t xml:space="preserve">You are a master of unarmed combat, making your hands into lethal weapons. Unarmed strikes now deal an additional level of damage (1 + \# Successes), with a DV of 5. 
-You may expend a Fortitude point to reduce the DV of an unarmed strike to 3 for the rest of your turn. </t>
+    <t xml:space="preserve">You are a master of unarmed combat, making your hands into lethal weapons. Unarmed strikes now deal an additional level of damage (1 + \# Successes), with a reduced DV of 4. </t>
   </si>
   <si>
     <t xml:space="preserve">Moving Target</t>
   </si>
   <si>
-    <t xml:space="preserve">On a turn during which you move more than half your movement (without doubling back), your \imp{quickdodge} checks do not incur \imp{Drain}.</t>
+    <t xml:space="preserve">On any turn during which you move more than half your movement (without doubling back), your \imp{quickdodge} checks do not incur \imp{Drain}.</t>
   </si>
   <si>
     <t xml:space="preserve">Numbed to Pain</t>
@@ -161,7 +160,7 @@
     <t xml:space="preserve">Parry Master</t>
   </si>
   <si>
-    <t xml:space="preserve">Carrying a melee weapon grants a +1 bonus to your base \imp{block} value. </t>
+    <t xml:space="preserve">Carrying a melee weapon grants a +2 to your base \imp{block} bonus. </t>
   </si>
   <si>
     <t xml:space="preserve">Psychic Awareness</t>
@@ -276,7 +275,7 @@
     <t xml:space="preserve">Thick Skin</t>
   </si>
   <si>
-    <t xml:space="preserve">Years of accidents and lab mishaps have left you with a superhuman level of resilience: choose from \imp{Fire} and \imp{Concussive} or \imp{Acid} and \imp{Poison} damage: any rolls to \imp{Resist} damage of the chosen types has a DV that is 2 lower than normal.</t>
+    <t xml:space="preserve">Years of accidents and lab mishaps have left you with a superhuman level of resilience: choose from \imp{Fire} and \imp{Crushing} or \imp{Acid} and \imp{Poison} damage: any rolls to \imp{Resist} damage of the chosen types has a DV that is 2 lower than normal.</t>
   </si>
   <si>
     <t xml:space="preserve">Wandmaker</t>
@@ -449,7 +448,7 @@
     <t xml:space="preserve">Fight Dirty</t>
   </si>
   <si>
-    <t xml:space="preserve">If you use a \imp{Called Shot} to target a foes tender bits, pull hair, or throw sand in their eyes, etc. and the attack is successful, the target takes a dice penalty on all attacks taken next turn, equal to your \imp{Brawl} rating. </t>
+    <t xml:space="preserve">If you use a \imp{Called Shot} to target a foe’s tender bits, pull hair, or throw sand in their eyes, etc. and the attack is successful, the target takes a dice penalty on all attacks taken next turn, equal to your \imp{Brawl} rating. </t>
   </si>
   <si>
     <t xml:space="preserve">Freerunning</t>
@@ -473,7 +472,7 @@
     <t xml:space="preserve">Move in Shadow</t>
   </si>
   <si>
-    <t xml:space="preserve">Whilst outside of bright light, all attempts to percieve you have a DV 2 higher than normal.</t>
+    <t xml:space="preserve">Whilst you are outside of bright light, all \imp{Covert} actions have a DV one lower than normal.</t>
   </si>
   <si>
     <t xml:space="preserve">Naturally Shifty</t>
@@ -491,13 +490,13 @@
     <t xml:space="preserve">Sly Action</t>
   </si>
   <si>
-    <t xml:space="preserve">At the end of a turn cycle, if you have not been directly targeted for an attack, you may take an additional action at the end of the cycle to move, use an item, or otherwise attempt to hide</t>
+    <t xml:space="preserve">At the end of a turn cycle, if you have not been directly targeted for an attack, you may take an additional \imp{minor} action at the end of the cycle to move, use an item, or otherwise attempt to hide</t>
   </si>
   <si>
     <t xml:space="preserve">Surprise Attack</t>
   </si>
   <si>
-    <t xml:space="preserve">Whenever you attack a target from a position where they cannot see you, you deal an additional level of harm</t>
+    <t xml:space="preserve">Whenever you attack a target from a position where they cannot see you, the target is considered \imp{suscpetible} to the attack. </t>
   </si>
   <si>
     <t xml:space="preserve">Unobtrusive</t>
@@ -764,7 +763,7 @@
     <t xml:space="preserve">The way that things have always been done is not always the only (or even the best) way. A number of times per day equal to your \imp{Wisdom} rating, you may use a completely different skill, tool or ingredient for a given task. You may substitute almost any \imp{Ability} for a check, use any \imp{Tool} to complete a task, or use a random \imp{Ingredient} in a potion, confident that alternative methods can get the job done. </t>
   </si>
   <si>
-    <t xml:space="preserve">Melee Magic</t>
+    <t xml:space="preserve">Melee Mage</t>
   </si>
   <si>
     <t xml:space="preserve">When you cast a spell with a range of \imp{Self} which would impact your combat ability, you may immediately take a melee attack on a foe in range. </t>
@@ -917,7 +916,7 @@
   <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A107" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D118" activeCellId="0" sqref="D118"/>
+      <selection pane="topLeft" activeCell="A118" activeCellId="0" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -965,7 +964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
@@ -1177,7 +1176,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>31</v>
       </c>
@@ -1199,7 +1198,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>34</v>
       </c>
@@ -2179,7 +2178,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>152</v>
       </c>
@@ -3068,7 +3067,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D106"/>
+  <autoFilter ref="A1:D94"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CoreRulebook/Data/Feats/Feats.xlsx
+++ b/CoreRulebook/Data/Feats/Feats.xlsx
@@ -11,9 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$94</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$106</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$D$91</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$105</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$D$90</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="250">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -48,7 +48,7 @@
     <t xml:space="preserve">\imp{Alteration} (\fiveCape{})</t>
   </si>
   <si>
-    <t xml:space="preserve">As an exceptionally powerful Thaumaturge, you have learned to shift your shape into that of an animal. By expending a \imp{Fortitude} point, you may instantly assume the physical attributes of your `spirit animal’. This animal is (usually) the same as your \imp{Patronus} and can only be changed if your undergo a profound change on a spiritual level. 
+    <t xml:space="preserve">As an exceptionally powerful Thaumaturge, you have learned to shift your shape into that of an animal. By expending a \imp{Fortitude} point, you may instantly assume the physical attributes of your `spirit animal’. This animal is (usually) the same as your \imp{Patronus} and can only be changed if your undergo a profound change on a spiritual level. Whilst in this form, you retain your mental state, but all your physical statistics and abilities are replaced by those of the form you take. 
 You may choose to revert back to your human form at any time, and you do so automatically if you are reduced to a \imp{Critical Condition} whilst in bestial form. </t>
   </si>
   <si>
@@ -58,16 +58,10 @@
     <t xml:space="preserve">When a target attempts to block your attacks, their armour takes an additional level of \imp{Drain}: a \imp{full-round block} incurs one level of drain, and \imp{quickblocking} incurs two levels. </t>
   </si>
   <si>
-    <t xml:space="preserve">Attuned Attacks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When fighting unarmed, or with a non-magical weapon, you can channel your very life-force into your attacks. Such attacks deal an additional level harm, and bypass any resistance to physical attacks. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Crash Course</t>
   </si>
   <si>
-    <t xml:space="preserve">You study a crash course in a selection of 10 abilities you previously had no skill in, giving you a basic level of knowledge. Choose up to 10 \imp{Abilities} with a \emptyCape{} rating, and gain 1 dot in each of them. If, when you take this ability, it costs more than 9 dots, pay only 9 dots. </t>
+    <t xml:space="preserve">You study a crash course in a selection of 10 abilities you previously had no skill in, giving you a basic level of knowledge. Choose up to 10 \imp{Abilities} with a \emptyCape{} rating, and gain 1 dot in each of them. If, when you take this ability, it would cost more than 9 dots, pay only 9 dots. </t>
   </si>
   <si>
     <t xml:space="preserve">Elemental Attunement</t>
@@ -76,13 +70,13 @@
     <t xml:space="preserve">\imp{Elemental} (\threeCape{})</t>
   </si>
   <si>
-    <t xml:space="preserve">You feel a particular affinity for one of the elements (Fire, Water, Ice, Earth, Air, Lightning, etc.) deep within your bones. When casting a spell to manipulate, create or otherwise effect your chosen element, you gain +1d. You also gain +1d to any check to resist damage caused by your element. </t>
+    <t xml:space="preserve">You feel a particular affinity for one of the elements (Fire, Water, Ice, Earth, Air, Lightning, etc.) deep within your bones. When casting a spell to manipulate, create or otherwise effect your chosen element, you gain +1d. You also gain +1d to any check to \imp{resist }damage caused by your element. </t>
   </si>
   <si>
     <t xml:space="preserve">First Aid</t>
   </si>
   <si>
-    <t xml:space="preserve">You know the basics of helping others and mainting life. Whenever a being falls into the \imp{critical condition} status within 3m of you, you may expend a \imp{Fortitude} point to allow them to perform emergency care. Perform a DV 6 \imp{Insight (Kindness)} check, and heal them by an amount equal to the number of successes. If you have a \imp{First Aid Kit}, you may expend that rather than a \imp{Fortitude} point.</t>
+    <t xml:space="preserve">You know the basics of helping others and mainting life. Whenever a being falls into the \imp{critical condition} status within 3m of you, you may expend a \imp{Fortitude} point to allow them to perform emergency care. Perform a DV 8 \imp{Insight (Kindness)} check, and heal them by an amount equal to the number of successes, removing the \imp{Critical Condition} status. If you have a \imp{First Aid Kit}, you may expend that rather than a \imp{Fortitude} point.</t>
   </si>
   <si>
     <t xml:space="preserve">Helping Hand</t>
@@ -130,7 +124,7 @@
     <t xml:space="preserve">Kinship (\twoCape)</t>
   </si>
   <si>
-    <t xml:space="preserve">You have an animal ally which is eternally loyal and devoted to you, and can carry out simple tasks: a `familiar’. This familiar is a well trained pet and will follow simple orders, though they cannot communicate back, though you maintain a weak psychic link allowing you to know their current physical condition. The most common animals are owls, ravens, cats, rats and toads, though you may ask your GM for a different choice. </t>
+    <t xml:space="preserve">You have an animal ally which is eternally loyal and devoted to you, and can carry out simple tasks: a `familiar’. This familiar is a well trained pet and will follow simple orders, though they cannot communicate back. You maintain a weak psychic link allowing you to know their current physical and emotional condition. The most common animals are owls, ravens, cats, rats and toads, though you may ask your GM for a different choice. </t>
   </si>
   <si>
     <t xml:space="preserve">Martial Arts</t>
@@ -139,7 +133,7 @@
     <t xml:space="preserve">Brawl (\threeCape)</t>
   </si>
   <si>
-    <t xml:space="preserve">You are a master of unarmed combat, making your hands into lethal weapons. Unarmed strikes now deal an additional level of damage (1 + \# Successes), with a reduced DV of 4. </t>
+    <t xml:space="preserve">You are a master of unarmed combat, making your hands into lethal weapons. Unarmed strikes now deal an additional level of damage (1 + \# Successes), with a reduced DV of 4. In addition, before making an attack roll, you may expend a \imp{Fortitude} point to automatically roll all your \imp{Brawl} dice as successes. </t>
   </si>
   <si>
     <t xml:space="preserve">Moving Target</t>
@@ -160,7 +154,7 @@
     <t xml:space="preserve">Parry Master</t>
   </si>
   <si>
-    <t xml:space="preserve">Carrying a melee weapon grants a +2 to your base \imp{block} bonus. </t>
+    <t xml:space="preserve">Carrying a melee weapon grants a +2 to your base \imp{block} bonus, in addition, if you \imp{Block} an incoming melee attack to a power of \imp{zero}, you may expend a \imp{fortitude} point to \imp{disarm} your attacker.</t>
   </si>
   <si>
     <t xml:space="preserve">Psychic Awareness</t>
@@ -169,7 +163,7 @@
     <t xml:space="preserve">\imp{Kindness} (\threeCape{}) </t>
   </si>
   <si>
-    <t xml:space="preserve">Your mind is especially attuned to those of others, and you can naturally sense the shift induced when a psychic power alters or interacts with minds. Whenever a psychic effect such as mind reading, memory modification, or magic which alters emotions and allegiances is used on a target within 5m of you, you are automatically aware of this, though you are not aware of the source. </t>
+    <t xml:space="preserve">Your mind is especially attuned to those of others, and you can naturally sense the shift induced when a psychic power alters or interacts with minds. Whenever a psychic effect such as mind reading, memory modification, or magic which alters emotions and allegiances is used on a target within 5m of you, you are instantly aware of this – you may expend a \imp{fortitude} point to learn the target of the spell, as well as the caster and the intent of the spell. </t>
   </si>
   <si>
     <t xml:space="preserve">Ritualist</t>
@@ -190,13 +184,13 @@
     <t xml:space="preserve">Signature Spell</t>
   </si>
   <si>
-    <t xml:space="preserve">You have a spell which is considered your `signature move’, chosen when you take this feat. When casting this spell, you gain one additional auto-success. You may change your `signature spell’ only with GM consent that your old choice no longer represents your character’s go-to move. </t>
+    <t xml:space="preserve">You have a spell which is considered your `signature move’, chosen when you take this feat. When casting this spell, \imp{catastrophes} are counted as normal failures. You may change your `signature spell’ only with GM consent that your old choice no longer represents your character’s go-to move. </t>
   </si>
   <si>
     <t xml:space="preserve">Silent Casting</t>
   </si>
   <si>
-    <t xml:space="preserve">You do not need to perform the verbal component of a spellcasting action. Efforts to silence you do not impact your spellcasting efforts, and reactions to your spells take a 1d penalty. </t>
+    <t xml:space="preserve">You do not need to perform the verbal component of a spellcasting action. Efforts to silence you do not impact your spellcasting efforts, and the lack of an alerting incantation means efforts to \imp{Resist} your spells take a 1d penalty. </t>
   </si>
   <si>
     <t xml:space="preserve">Wandless Casting</t>
@@ -217,7 +211,7 @@
     <t xml:space="preserve">Defensive Gadgets</t>
   </si>
   <si>
-    <t xml:space="preserve">At the end of every \imp{Long Rest}, you conceal a number of defensive doohickeys on your sleeve equal to your \imp{Danger} rating. You may expend one of these devices as an instantaneous action to ignore all effects of \imp{Drain} on a single \imp{Resist} roll. </t>
+    <t xml:space="preserve">At the end of every \imp{Long Rest}, you conceal a number of defensive doohickeys on your sleeve equal to your \imp{Danger} rating. You may expend one of these devices as an instantaneous action to gain the maximum number of successes on a single \imp{Resist} roll. </t>
   </si>
   <si>
     <t xml:space="preserve">Expert Enchanter</t>
@@ -245,7 +239,7 @@
     <t xml:space="preserve">Discerning Eyes</t>
   </si>
   <si>
-    <t xml:space="preserve">At the end of every \imp{Long Rest}, roll a DV 7 check using only your \imp{Analyse} pool (min 1 success). You may expend one of these successes as an instantaneous action to learn about a target as if you had cast the \imp{Identify} spell at \levelOne{} level (though this does not count as a \imp{spellcasting} effort, and cannot be percieved by others). You may increase the level of the effect by expending additional successes. </t>
+    <t xml:space="preserve">At the end of every \imp{Long Rest}, roll a DV 7 check using only your \imp{Analyse} pool (min 1 success). You may expend one of these successes as an instantaneous action to learn about a target as if you had cast the \imp{Identify} spell at \levelThree{} level (though this does not count as a \imp{spellcasting} effort, and cannot be percieved by others). You may increase the level of the effect by expending additional successes. </t>
   </si>
   <si>
     <t xml:space="preserve">Idiosyncrasies</t>
@@ -316,7 +310,7 @@
     <t xml:space="preserve">Deductive Senses</t>
   </si>
   <si>
-    <t xml:space="preserve">Your logical mind allows you to keep track of hidden foes. Whenever a creature that you can see goes invisible, or otherwise becomes undetectable to normal senses, perform a DV 8 \imp{Insight (Intuition)} check. For every success, you remain aware of the position of that creature for an additional \imp{Combat Cycle}, and do not treat it as invisible. </t>
+    <t xml:space="preserve">Your logical mind allows you to keep track of hidden foes. Whenever a creature that you can see goes invisible, or otherwise becomes undetectable to normal senses, perform a DV 8 \imp{Insight (Intuition)} check as an instantaneous action. For every success, you remain aware of the position of that creature for an additional \imp{Combat Cycle}, and do not treat it as invisible. </t>
   </si>
   <si>
     <t xml:space="preserve">Familiar Terrain</t>
@@ -340,7 +334,7 @@
     <t xml:space="preserve">Lie Detector</t>
   </si>
   <si>
-    <t xml:space="preserve">You can automatically detect when someone is lying to you by telling you deliberate falsehoods</t>
+    <t xml:space="preserve">You can automatically detect when someone is lying to you by telling you deliberate falsehoods. You may expend a \imp{Fortitude} point to get a glimpse at what they are hiding or lying about. </t>
   </si>
   <si>
     <t xml:space="preserve">Mental Training</t>
@@ -754,7 +748,7 @@
     <t xml:space="preserve">Alien Thoughts</t>
   </si>
   <si>
-    <t xml:space="preserve">Through some weird means you have attuned your mind to a different way of thinking, making it harder to infiltrate your mind. You are considered \imp{Resistant} to psychic damage, and effects to alter your mind have a DV two higher than normal. </t>
+    <t xml:space="preserve">Through some weird means, or simply deep meditation, you have attuned your mind to a different way of thinking, making it harder to infiltrate your mind. You are considered \imp{Resistant} to psychic damage, and effects to alter your mind have a DV two higher than normal. </t>
   </si>
   <si>
     <t xml:space="preserve">Open Mind</t>
@@ -913,10 +907,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A107" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A118" activeCellId="0" sqref="A118"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -942,7 +936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -961,7 +955,7 @@
       </c>
       <c r="F2" s="0" t="n">
         <f aca="false">IF(NOT(E2=""),COUNTIF(B:B,E2),"")</f>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -983,7 +977,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -1002,15 +996,18 @@
         <v/>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="0" t="str">
         <f aca="false">IF(NOT(B5=B4),B5,"")</f>
@@ -1021,16 +1018,13 @@
         <v/>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1043,7 +1037,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>17</v>
       </c>
@@ -1062,7 +1056,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>19</v>
       </c>
@@ -1081,7 +1075,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>21</v>
       </c>
@@ -1100,7 +1094,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>23</v>
       </c>
@@ -1119,7 +1113,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>25</v>
       </c>
@@ -1138,7 +1132,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>27</v>
       </c>
@@ -1157,15 +1151,18 @@
         <v/>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="C13" s="0" t="s">
+        <v>30</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="0" t="str">
         <f aca="false">IF(NOT(B13=B12),B13,"")</f>
@@ -1176,18 +1173,18 @@
         <v/>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="0" t="str">
         <f aca="false">IF(NOT(B14=B13),B14,"")</f>
@@ -1200,13 +1197,10 @@
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>36</v>
@@ -1227,8 +1221,11 @@
       <c r="B16" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="C16" s="0" t="s">
+        <v>38</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="0" t="str">
         <f aca="false">IF(NOT(B16=B15),B16,"")</f>
@@ -1239,16 +1236,13 @@
         <v/>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="D17" s="1" t="s">
         <v>41</v>
       </c>
@@ -1261,15 +1255,18 @@
         <v/>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="C18" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="0" t="str">
         <f aca="false">IF(NOT(B18=B17),B18,"")</f>
@@ -1280,18 +1277,18 @@
         <v/>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="0" t="str">
         <f aca="false">IF(NOT(B19=B18),B19,"")</f>
@@ -1302,16 +1299,13 @@
         <v/>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="D20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1324,7 +1318,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>50</v>
       </c>
@@ -1343,7 +1337,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>52</v>
       </c>
@@ -1362,13 +1356,16 @@
         <v/>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="C23" s="0" t="s">
+        <v>52</v>
+      </c>
       <c r="D23" s="1" t="s">
         <v>55</v>
       </c>
@@ -1381,53 +1378,50 @@
         <v/>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24" s="0" t="str">
         <f aca="false">IF(NOT(B24=B23),B24,"")</f>
-        <v/>
-      </c>
-      <c r="F24" s="0" t="str">
+        <v>Artificer</v>
+      </c>
+      <c r="F24" s="0" t="n">
         <f aca="false">IF(NOT(E24=""),COUNTIF(B:B,E24),"")</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="0" t="str">
         <f aca="false">IF(NOT(B25=B24),B25,"")</f>
-        <v>Artificer</v>
-      </c>
-      <c r="F25" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F25" s="0" t="str">
         <f aca="false">IF(NOT(E25=""),COUNTIF(B:B,E25),"")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>61</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>62</v>
@@ -1441,12 +1435,12 @@
         <v/>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>63</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>64</v>
@@ -1460,12 +1454,12 @@
         <v/>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>65</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>66</v>
@@ -1484,7 +1478,7 @@
         <v>67</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>68</v>
@@ -1498,15 +1492,23 @@
         <v/>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>69</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>70</v>
+      </c>
+      <c r="E30" s="0" t="str">
+        <f aca="false">IF(NOT(B30=B29),B30,"")</f>
+        <v/>
+      </c>
+      <c r="F30" s="0" t="str">
+        <f aca="false">IF(NOT(E30=""),COUNTIF(B:B,E30),"")</f>
+        <v/>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1514,13 +1516,13 @@
         <v>71</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E31" s="0" t="str">
-        <f aca="false">IF(NOT(B31=B29),B31,"")</f>
+        <f aca="false">IF(NOT(B31=B30),B31,"")</f>
         <v/>
       </c>
       <c r="F31" s="0" t="str">
@@ -1528,15 +1530,23 @@
         <v/>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>73</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>74</v>
+      </c>
+      <c r="E32" s="0" t="str">
+        <f aca="false">IF(NOT(B32=B31),B32,"")</f>
+        <v/>
+      </c>
+      <c r="F32" s="0" t="str">
+        <f aca="false">IF(NOT(E32=""),COUNTIF(B:B,E32),"")</f>
+        <v/>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1544,13 +1554,13 @@
         <v>75</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E33" s="0" t="str">
-        <f aca="false">IF(NOT(B33=B31),B33,"")</f>
+        <f aca="false">IF(NOT(B33=B32),B33,"")</f>
         <v/>
       </c>
       <c r="F33" s="0" t="str">
@@ -1558,12 +1568,12 @@
         <v/>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>77</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>78</v>
@@ -1577,15 +1587,23 @@
         <v/>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>79</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>80</v>
+      </c>
+      <c r="E35" s="0" t="str">
+        <f aca="false">IF(NOT(B35=B34),B35,"")</f>
+        <v/>
+      </c>
+      <c r="F35" s="0" t="str">
+        <f aca="false">IF(NOT(E35=""),COUNTIF(B:B,E35),"")</f>
+        <v/>
       </c>
     </row>
     <row r="36" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,45 +1611,45 @@
         <v>81</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="0" t="str">
+        <f aca="false">IF(NOT(B36=B35),B36,"")</f>
+        <v>Auror</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <f aca="false">IF(NOT(E36=""),COUNTIF(B:B,E36),"")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="E36" s="0" t="str">
-        <f aca="false">IF(NOT(B36=B34),B36,"")</f>
-        <v/>
-      </c>
-      <c r="F36" s="0" t="str">
-        <f aca="false">IF(NOT(E36=""),COUNTIF(B:B,E36),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>84</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E37" s="0" t="str">
         <f aca="false">IF(NOT(B37=B36),B37,"")</f>
-        <v>Auror</v>
-      </c>
-      <c r="F37" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F37" s="0" t="str">
         <f aca="false">IF(NOT(E37=""),COUNTIF(B:B,E37),"")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>86</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>87</v>
@@ -1645,14 +1663,14 @@
         <v/>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E39" s="0" t="str">
@@ -1664,14 +1682,14 @@
         <v/>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>90</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E40" s="0" t="str">
@@ -1683,14 +1701,14 @@
         <v/>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>92</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E41" s="0" t="str">
@@ -1707,7 +1725,7 @@
         <v>94</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>95</v>
@@ -1721,14 +1739,14 @@
         <v/>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>96</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E43" s="0" t="str">
@@ -1740,14 +1758,14 @@
         <v/>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>98</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E44" s="0" t="str">
@@ -1759,14 +1777,14 @@
         <v/>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>100</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E45" s="0" t="str">
@@ -1778,14 +1796,14 @@
         <v/>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>102</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E46" s="0" t="str">
@@ -1797,12 +1815,12 @@
         <v/>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>104</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>105</v>
@@ -1816,42 +1834,42 @@
         <v/>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E48" s="0" t="str">
         <f aca="false">IF(NOT(B48=B47),B48,"")</f>
-        <v/>
-      </c>
-      <c r="F48" s="0" t="str">
+        <v>Druid</v>
+      </c>
+      <c r="F48" s="0" t="n">
         <f aca="false">IF(NOT(E48=""),COUNTIF(B:B,E48),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E49" s="0" t="str">
         <f aca="false">IF(NOT(B49=B48),B49,"")</f>
-        <v>Druid</v>
-      </c>
-      <c r="F49" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F49" s="0" t="str">
         <f aca="false">IF(NOT(E49=""),COUNTIF(B:B,E49),"")</f>
-        <v>11</v>
+        <v/>
       </c>
     </row>
     <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,7 +1877,7 @@
         <v>111</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>112</v>
@@ -1873,29 +1891,37 @@
         <v/>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>113</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E51" s="0" t="str">
+        <f aca="false">IF(NOT(B51=B50),B51,"")</f>
+        <v/>
+      </c>
+      <c r="F51" s="0" t="str">
+        <f aca="false">IF(NOT(E51=""),COUNTIF(B:B,E51),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>115</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E52" s="0" t="str">
-        <f aca="false">IF(NOT(B52=B50),B52,"")</f>
+        <f aca="false">IF(NOT(B52=B51),B52,"")</f>
         <v/>
       </c>
       <c r="F52" s="0" t="str">
@@ -1903,29 +1929,37 @@
         <v/>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>117</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="0" t="str">
+        <f aca="false">IF(NOT(B53=B52),B53,"")</f>
+        <v/>
+      </c>
+      <c r="F53" s="0" t="str">
+        <f aca="false">IF(NOT(E53=""),COUNTIF(B:B,E53),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>120</v>
       </c>
       <c r="E54" s="0" t="str">
-        <f aca="false">IF(NOT(B54=B52),B54,"")</f>
+        <f aca="false">IF(NOT(B54=B53),B54,"")</f>
         <v/>
       </c>
       <c r="F54" s="0" t="str">
@@ -1933,29 +1967,37 @@
         <v/>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>121</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="0" t="str">
+        <f aca="false">IF(NOT(B55=B54),B55,"")</f>
+        <v/>
+      </c>
+      <c r="F55" s="0" t="str">
+        <f aca="false">IF(NOT(E55=""),COUNTIF(B:B,E55),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>123</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>124</v>
       </c>
       <c r="E56" s="0" t="str">
-        <f aca="false">IF(NOT(B56=B54),B56,"")</f>
+        <f aca="false">IF(NOT(B56=B55),B56,"")</f>
         <v/>
       </c>
       <c r="F56" s="0" t="str">
@@ -1963,29 +2005,37 @@
         <v/>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>125</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="0" t="str">
+        <f aca="false">IF(NOT(B57=B56),B57,"")</f>
+        <v/>
+      </c>
+      <c r="F57" s="0" t="str">
+        <f aca="false">IF(NOT(E57=""),COUNTIF(B:B,E57),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>127</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D58" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E58" s="0" t="str">
-        <f aca="false">IF(NOT(B58=B56),B58,"")</f>
+        <f aca="false">IF(NOT(B58=B57),B58,"")</f>
         <v/>
       </c>
       <c r="F58" s="0" t="str">
@@ -1993,42 +2043,42 @@
         <v/>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>129</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E59" s="0" t="str">
         <f aca="false">IF(NOT(B59=B58),B59,"")</f>
-        <v/>
-      </c>
-      <c r="F59" s="0" t="str">
+        <v>Outlaw</v>
+      </c>
+      <c r="F59" s="0" t="n">
         <f aca="false">IF(NOT(E59=""),COUNTIF(B:B,E59),"")</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E60" s="0" t="str">
         <f aca="false">IF(NOT(B60=B59),B60,"")</f>
-        <v>Outlaw</v>
-      </c>
-      <c r="F60" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F60" s="0" t="str">
         <f aca="false">IF(NOT(E60=""),COUNTIF(B:B,E60),"")</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2036,7 +2086,7 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>135</v>
@@ -2055,7 +2105,7 @@
         <v>136</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>137</v>
@@ -2069,14 +2119,14 @@
         <v/>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>139</v>
       </c>
       <c r="E63" s="0" t="str">
@@ -2088,51 +2138,75 @@
         <v/>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>140</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D64" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="0" t="str">
+        <f aca="false">IF(NOT(B64=B63),B64,"")</f>
+        <v/>
+      </c>
+      <c r="F64" s="0" t="str">
+        <f aca="false">IF(NOT(E64=""),COUNTIF(B:B,E64),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>142</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E65" s="0" t="str">
+        <f aca="false">IF(NOT(B65=B64),B65,"")</f>
+        <v/>
+      </c>
+      <c r="F65" s="0" t="str">
+        <f aca="false">IF(NOT(E65=""),COUNTIF(B:B,E65),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E66" s="0" t="str">
+        <f aca="false">IF(NOT(B66=B65),B66,"")</f>
+        <v/>
+      </c>
+      <c r="F66" s="0" t="str">
+        <f aca="false">IF(NOT(E66=""),COUNTIF(B:B,E66),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>146</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D67" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>147</v>
       </c>
       <c r="E67" s="0" t="str">
-        <f aca="false">IF(NOT(B67=B62),B67,"")</f>
+        <f aca="false">IF(NOT(B67=B66),B67,"")</f>
         <v/>
       </c>
       <c r="F67" s="0" t="str">
@@ -2140,14 +2214,14 @@
         <v/>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>148</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D68" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>149</v>
       </c>
       <c r="E68" s="0" t="str">
@@ -2164,7 +2238,7 @@
         <v>150</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>151</v>
@@ -2178,14 +2252,14 @@
         <v/>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>152</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D70" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E70" s="0" t="str">
@@ -2197,52 +2271,52 @@
         <v/>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>154</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D71" s="1" t="s">
         <v>155</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="E71" s="0" t="str">
         <f aca="false">IF(NOT(B71=B70),B71,"")</f>
-        <v/>
-      </c>
-      <c r="F71" s="0" t="str">
+        <v>Scholar</v>
+      </c>
+      <c r="F71" s="0" t="n">
         <f aca="false">IF(NOT(E71=""),COUNTIF(B:B,E71),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>158</v>
       </c>
       <c r="E72" s="0" t="str">
         <f aca="false">IF(NOT(B72=B71),B72,"")</f>
-        <v>Scholar</v>
-      </c>
-      <c r="F72" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F72" s="0" t="str">
         <f aca="false">IF(NOT(E72=""),COUNTIF(B:B,E72),"")</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>159</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D73" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>160</v>
       </c>
       <c r="E73" s="0" t="str">
@@ -2254,12 +2328,12 @@
         <v/>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>161</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>162</v>
@@ -2278,7 +2352,7 @@
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>164</v>
@@ -2292,14 +2366,14 @@
         <v/>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>165</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D76" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>166</v>
       </c>
       <c r="E76" s="0" t="str">
@@ -2311,14 +2385,14 @@
         <v/>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>167</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D77" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>168</v>
       </c>
       <c r="E77" s="0" t="str">
@@ -2330,12 +2404,12 @@
         <v/>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>169</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>170</v>
@@ -2349,29 +2423,37 @@
         <v/>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>171</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D79" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="0" t="str">
+        <f aca="false">IF(NOT(B79=B78),B79,"")</f>
+        <v/>
+      </c>
+      <c r="F79" s="0" t="str">
+        <f aca="false">IF(NOT(E79=""),COUNTIF(B:B,E79),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>173</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>174</v>
       </c>
       <c r="E80" s="0" t="str">
-        <f aca="false">IF(NOT(B80=B78),B80,"")</f>
+        <f aca="false">IF(NOT(B80=B79),B80,"")</f>
         <v/>
       </c>
       <c r="F80" s="0" t="str">
@@ -2379,14 +2461,14 @@
         <v/>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>175</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D81" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>176</v>
       </c>
       <c r="E81" s="0" t="str">
@@ -2398,52 +2480,52 @@
         <v/>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E82" s="0" t="str">
         <f aca="false">IF(NOT(B82=B81),B82,"")</f>
-        <v/>
-      </c>
-      <c r="F82" s="0" t="str">
+        <v>Sophisticate</v>
+      </c>
+      <c r="F82" s="0" t="n">
         <f aca="false">IF(NOT(E82=""),COUNTIF(B:B,E82),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D83" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>181</v>
       </c>
       <c r="E83" s="0" t="str">
         <f aca="false">IF(NOT(B83=B82),B83,"")</f>
-        <v>Sophisticate</v>
-      </c>
-      <c r="F83" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F83" s="0" t="str">
         <f aca="false">IF(NOT(E83=""),COUNTIF(B:B,E83),"")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>182</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D84" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>183</v>
       </c>
       <c r="E84" s="0" t="str">
@@ -2455,14 +2537,14 @@
         <v/>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>184</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D85" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>185</v>
       </c>
       <c r="E85" s="0" t="str">
@@ -2474,12 +2556,12 @@
         <v/>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>186</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>187</v>
@@ -2493,14 +2575,14 @@
         <v/>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>188</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D87" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>189</v>
       </c>
       <c r="E87" s="0" t="str">
@@ -2512,12 +2594,12 @@
         <v/>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>190</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>191</v>
@@ -2531,12 +2613,12 @@
         <v/>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>192</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>193</v>
@@ -2550,12 +2632,12 @@
         <v/>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>194</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>195</v>
@@ -2569,12 +2651,12 @@
         <v/>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>196</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>197</v>
@@ -2593,7 +2675,7 @@
         <v>198</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>199</v>
@@ -2607,14 +2689,14 @@
         <v/>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>200</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D93" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>201</v>
       </c>
       <c r="E93" s="0" t="str">
@@ -2626,52 +2708,52 @@
         <v/>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>202</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D94" s="4" t="s">
         <v>203</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="E94" s="0" t="str">
         <f aca="false">IF(NOT(B94=B93),B94,"")</f>
-        <v/>
-      </c>
-      <c r="F94" s="0" t="str">
+        <v>Warrior</v>
+      </c>
+      <c r="F94" s="0" t="n">
         <f aca="false">IF(NOT(E94=""),COUNTIF(B:B,E94),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>206</v>
       </c>
       <c r="E95" s="0" t="str">
         <f aca="false">IF(NOT(B95=B94),B95,"")</f>
-        <v>Warrior</v>
-      </c>
-      <c r="F95" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F95" s="0" t="str">
         <f aca="false">IF(NOT(E95=""),COUNTIF(B:B,E95),"")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>207</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D96" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>208</v>
       </c>
       <c r="E96" s="0" t="str">
@@ -2683,14 +2765,14 @@
         <v/>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>209</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D97" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E97" s="0" t="str">
@@ -2702,12 +2784,12 @@
         <v/>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>211</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>212</v>
@@ -2721,14 +2803,14 @@
         <v/>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>213</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D99" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>214</v>
       </c>
       <c r="E99" s="0" t="str">
@@ -2745,7 +2827,7 @@
         <v>215</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>216</v>
@@ -2759,14 +2841,14 @@
         <v/>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>217</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D101" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>218</v>
       </c>
       <c r="E101" s="0" t="str">
@@ -2778,12 +2860,12 @@
         <v/>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>219</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>220</v>
@@ -2797,12 +2879,12 @@
         <v/>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>221</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>222</v>
@@ -2821,7 +2903,7 @@
         <v>223</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>224</v>
@@ -2835,14 +2917,14 @@
         <v/>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>225</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D105" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>226</v>
       </c>
       <c r="E105" s="0" t="str">
@@ -2854,50 +2936,50 @@
         <v/>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>227</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D106" s="4" t="s">
         <v>228</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="E106" s="0" t="str">
         <f aca="false">IF(NOT(B106=B105),B106,"")</f>
-        <v/>
-      </c>
-      <c r="F106" s="0" t="str">
+        <v>Guru</v>
+      </c>
+      <c r="F106" s="0" t="n">
         <f aca="false">IF(NOT(E106=""),COUNTIF(B:B,E106),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>231</v>
       </c>
       <c r="E107" s="0" t="str">
         <f aca="false">IF(NOT(B107=B106),B107,"")</f>
-        <v>Guru</v>
-      </c>
-      <c r="F107" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F107" s="0" t="str">
         <f aca="false">IF(NOT(E107=""),COUNTIF(B:B,E107),"")</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>232</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>233</v>
@@ -2911,12 +2993,12 @@
         <v/>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>234</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>235</v>
@@ -2930,12 +3012,12 @@
         <v/>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>236</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>237</v>
@@ -2949,12 +3031,12 @@
         <v/>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>238</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>239</v>
@@ -2968,12 +3050,12 @@
         <v/>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>240</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>241</v>
@@ -2987,12 +3069,12 @@
         <v/>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>242</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>243</v>
@@ -3006,12 +3088,12 @@
         <v/>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>244</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>245</v>
@@ -3025,12 +3107,12 @@
         <v/>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>246</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>247</v>
@@ -3049,25 +3131,22 @@
         <v>248</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>251</v>
+      <c r="E116" s="0" t="str">
+        <f aca="false">IF(NOT(B116=B115),B116,"")</f>
+        <v/>
+      </c>
+      <c r="F116" s="0" t="str">
+        <f aca="false">IF(NOT(E116=""),COUNTIF(B:B,E116),"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D94"/>
+  <autoFilter ref="A1:D105"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CoreRulebook/Data/Feats/Feats.xlsx
+++ b/CoreRulebook/Data/Feats/Feats.xlsx
@@ -11,9 +11,10 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$105</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$93</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$D$90</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$125</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$113</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$D$101</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$D$98</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="269">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -212,6 +213,12 @@
   </si>
   <si>
     <t xml:space="preserve">At the end of every \imp{Long Rest}, you conceal a number of defensive doohickeys on your sleeve equal to your \imp{Danger} rating. You may expend one of these devices as an instantaneous action to gain the maximum number of successes on a single \imp{Resist} roll. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discerning Eyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the end of every \imp{Long Rest}, roll a DV 7 check using only your \imp{Analyse} pool (min 1 success). You may expend one of these successes as an instantaneous action to learn about a target as if you had cast the \imp{Identify} spell at \levelThree{} level (though this does not count as a \imp{spellcasting} effort, and cannot be percieved by others). You may increase the level of the effect by expending additional successes. </t>
   </si>
   <si>
     <t xml:space="preserve">Expert Enchanter</t>
@@ -236,12 +243,6 @@
 nature be divined.</t>
   </si>
   <si>
-    <t xml:space="preserve">Discerning Eyes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the end of every \imp{Long Rest}, roll a DV 7 check using only your \imp{Analyse} pool (min 1 success). You may expend one of these successes as an instantaneous action to learn about a target as if you had cast the \imp{Identify} spell at \levelThree{} level (though this does not count as a \imp{spellcasting} effort, and cannot be percieved by others). You may increase the level of the effect by expending additional successes. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Idiosyncrasies</t>
   </si>
   <si>
@@ -370,36 +371,36 @@
     <t xml:space="preserve">At the beginning of every dawn, you perform a small ritual underneath the fading stars to divine the future. Over the next day, you use this knowledge to gain a +1d bonus, or impose a 1d penalty, on any roll performed by a creature you can see. You may use this ability a number of times equal to your highest \imp{Affinity} rating in the \imp{Divination} school</t>
   </si>
   <si>
+    <t xml:space="preserve">Barkskin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Until your \imp{Block} skill becomes \imp{Fully-drained}, additional levels of \imp{Drain} do not reduce the number of dice rolled on \imp{Block} checks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloak of Seasons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are magically protected from the effects of the weather and the natural environment. You are perfectly comfortable in winter's chill, summer's blazing heat or the insect-ridden swamp regardless of your clothing (or lack thereof). At the end of each \imp{Long Rest}, you may focus this aura further to gain resistance to \imp{Fire}, \imp{Electric} or \imp{Cold} damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dryad’s Embrace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you cast a spell on or attempt to \imp{Commune} with plant-based beings, or attempt to use a \imp{Knowledge} check to learn about such an entity, you gain one additional auto-success. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exuding Aura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may expend a \imp{Fortitude} point to attune yourself to your favoured aspect of nature, exuding an aura which influences the minds of others – perhaps a sweet pine smell calms them, or animal pheremones send them into a frenzy. You gain +2d on all \imp{Social} checks made against people within 2m of you for the next hour.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Freedom of the Wild</t>
   </si>
   <si>
     <t xml:space="preserve">You are able to move freely within natural environments – your climb speed and swim speed are equal to your normal movement speed, and you are not slowed down by difficult terrain. If a creature attempts to use natural features to gain \imp{Cover}, you consider it as one level less than normal. </t>
   </si>
   <si>
-    <t xml:space="preserve">Barkskin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Until your \imp{Block} skill becomes \imp{Fully-drained}, additional levels of \imp{Drain} do not reduce the number of dice rolled on \imp{Block} checks. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloak of Seasons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are magically protected from the effects of the weather and the natural environment. You are perfectly comfortable in winter's chill, summer's blazing heat or the insect-ridden swamp regardless of your clothing (or lack thereof). At the end of each \imp{Long Rest}, you may focus this aura further to gain resistance to \imp{Fire}, \imp{Electric} or \imp{Cold} damage. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dryad’s Embrace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you cast a spell on or attempt to \imp{Commune} with plant-based beings, or attempt to use a \imp{Knowledge} check to learn about such an entity, you gain one additional auto-success. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exuding Aura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You may expend a \imp{Fortitude} point to attune yourself to your favoured aspect of nature, exuding an aura which influences the minds of others – perhaps a sweet pine smell calms them, or animal pheremones send them into a frenzy. You gain +2d on all \imp{Social} checks made against people within 2m of you for the next hour.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fungal Spore</t>
   </si>
   <si>
@@ -424,6 +425,75 @@
     <t xml:space="preserve">When casting a spell or attempt to \imp{Commune} with a \imp{Beast}, or attempt to use a \imp{Knowledge} check to learn about such a creature, you gain one additional auto-success. </t>
   </si>
   <si>
+    <t xml:space="preserve">Alien Thoughts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Through some weird means, or simply deep meditation, you have attuned your mind to a different way of thinking, making it harder to infiltrate your mind. You are considered \imp{Resistant} to psychic damage, and effects to alter your mind have a DV two higher than normal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi Siphon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever you deal damage to a being using a \imp{Brawl} action (or a melee spell attack), you heal yourself by 1 level of harm. You may also allocate a number of your successes to increasing this effect by 1 level each (thereby reducing the damage dealt). If the attack damage is reduced to zero by a successful \imp{Resist}, the healing effect is negated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like the Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform a DV 6 \imp{Fitness (Glide)} check. For every success, you can run, leap or parkour 2m across a body of water, a gaping chasm, or up a vertical surface. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melee Mage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you cast a spell with a range of \imp{Self} which would impact your combat ability, you may immediately take a melee attack on a foe in range. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The way that things have always been done is not always the only (or even the best) way. A number of times per day equal to your \imp{Wisdom} rating, you may use a completely different skill, tool or ingredient for a given task. You may substitute almost any \imp{Ability} for a check, use any \imp{Tool} to complete a task, or use a random \imp{Ingredient} in a potion, confident that alternative methods can get the job done. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out of Body Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whilst unconscious or asleep, your spirit remains awake and aware of your surroundings even as you gain the benefits of rest. Your spectral self can move up to 10m away from your body, and can see and hear as well as you normally can. You can expend a \imp{Fortitude} point to instantly end the \imp{asleep} status and take an action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piercing Insight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have the ability to see through people’s facade to the person beneath. When you gain at least one success on a \imp{Insight} check against a person, you learn enough hidden information about them that all further checks against them have a DV 1 lower than normal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever you cast a spell with a range of \imp{Self}, gain one additional auto-success.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silent Step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you know the \imp{Teleport} spell, you may cast it as a silent, wandless action using your \imp{movement}, rather than a \imp{major action}. You may appear in an unnocupied space that you can see within a distance equal to 5$\times$ the power of the spell (in metres). You can do this a number of times per day equal to your \imp{Glide} ability. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stillness of Mind and Body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may expend a \imp{Fortitude} point as an instantaneous action to enter a meditative state, ending all ongoing status effects on your body: \imp{Poisons} are purged, \imp{Fear} is banished, and \imp{Paralysis} wears off. This does not effect status effects imposed by physical phenomena (i.e. you cannot untie ropes giving the \imp{Trapped} status), and you must be conscious to use this ability. You can do this a number of times per day equal to your \imp{Self} rating. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wise Teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are always on the lookout to help others. As a minor action, you take a second to talk to and inspire your ally: donating your \imp{Widsom} pool to another character within 2m. They may add this pool to any check they make next turn cycle. You may use this action multiple times per cycle, but each character can only benefit from the effect once. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Cover Identity</t>
   </si>
   <si>
@@ -499,81 +569,175 @@
     <t xml:space="preserve">You don’t stand out in a crowd, and can make yourself, if not invisible, just socially {\it absent}. People don’t necessarily remember your face or your name (if they remember you at all), as you make very little impression on people – until you are stealing their wallet, or knifing them in the back, that is. All checks made by enemies to notice you in a crowd, or remember details about you have a DV 3 higher than normal. </t>
   </si>
   <si>
+    <t xml:space="preserve">Healer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever you restore Health to a being, or remove a negative status effect, gain one additional auto-success. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Cross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By expending a \imp{Fortitude} point, you may use a \imp{Minor Action} to designate a target within \imp{Wandtip} range as a non-combatant. Any being which attempts to harm the designated target (either with a targeted attack, or an Area-of-Effect attack) must first perform a \imp{Willpower (Conviction)} check (or similar) with a DV equal to 5 + your \imp{Willpower} rating. On a failure, the attack falters and the attacker’s turn ends. This effect lasts until the target re-enters combat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever a being which you have successfully cast a \imp{Hermetics} spell on takes damage (but before they \imp{Resist}), you may elect to transfer the damage to yourself, performing the \imp{Resist} yourself. The list of targets for this ability resets whenever you take a \imp{short} or \imp{long} rest. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beacon of Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your \imp{Hermetics} spells now channel so much positive energy that they deal \imp{harm} to unliving and evil creatures such as \imp{Demons}, \imp{Abominations}, \imp{Phantasms} and \imp{Undead}. When you deal harm using this ability, you restore health to yourself equal to half the damage dealt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stabilising Presence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a target within 10m falls into the \imp{Critical Condition} status, you may expend a \imp{Fortitude} point to instead place them into \imp{Critical But Stable}. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plague Doctor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You release a virulent pathogen around you, infecting all those within 5m of your current position (you may expend a \imp{Fortitude} point to exclude any number of allies). You may choose the effect of the pathogen:
+\begin{itemize}
+\item \key{Poisoned}: 2 damage per turn, power = your \imp{Pathology} rating
+\item \key{Blinded}: power = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">your \imp{Willpower} rating
+\item \key{Enraged}: power = your \imp{Deception} rating
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\end{itemize}
+Targets make a check to \imp{Resist} at the onset of this effect, and then again at the end of every subsequent cycle. You can use this ability a number of times equal to your \imp{Pathology} rating before requiring a \imp{Long Rest}. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Apothecary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever you take a \imp{Short Rest} whilst in possession of a \imp{First Aid Kit} or a \imp{Alchemy Set}, you can brew a quick healing potion, gaining a base-level \imp{Wiggenweld Potion} (see page \pageref{P:Wiggenweld}). You cannot store more than 5 such potions using this ability. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When performing a \imp{Healing} check, or a \imp{Defensive} check you may choose to automatically roll the maximum number of successes. If an enemy reduces the power of this action to zero, you (or your patient, as appropriate), fall into the \imp{Critical Condition} status. You cannot use this ability again until you take a \imp{Long Rest}. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preventative Treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You gain +2d to any \imp{Defensive} actions used to reduce the effectiveness of an incoming attack. If you reduce the \imp{Power} of an attack to zero, the target(s) of the attack gain 1 point of healing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever you use a \imp{Major Action} to restore \imp{Health} to a being, or remove a negative  status effect, you may use an \imp{instantaneous} reaction to cast a defensive spell from the \imp{Warding} discipline. You can do this a number of times equal to your \imp{Triage} rating, before needing a \imp{Long Rest}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flexible Knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scholar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may spend a day completely immersing yourself in a new set of knowledge and expertise. Convert a number of your \imp{Knowledge} dots back into experience points. You must then reassign at least this number of experience points back into your \imp{Knowledge} abilities in any new combination you wish. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn From Failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When performing a check of any kind, for every consectutive previous roll which failed, you gain +2d (up to a maximum of your \imp{Stubbornness} rating).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library Lover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you perform an intelligence-based check whilst in a library, or similar repository of knowledge, the dice associated with your \imp{Intelligence} are all counted as successes. You need only roll your \imp{Ability} dice. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magical Prodigy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When initiating a \imp{Spellcasting} action, you may automatically reduce the DV required to cast it by 2. You may do this a number of times equal to your \imp{Intelligence} rating before you require a \imp{Long Rest}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master of the Mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When an action would interrupt you casting a spell requiring continuing concentration, the DV to remain focussed is 2 lower than normal. You also gain +1d on all \imp{Resist} checks against mind-altering effects. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigator’s Knack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are able to perfectly keep track of time even whilst asleep, cannot get lost except by magical means and can always pinpoint your location anywhere on the globe given reasonable information i.e. access to the stars. In addition, if any magical effect removes you from your normal plane of existence, you are able to feel and notice this happening. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novel Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever you use a spell in a new or novel fashion, you gain +2d for the spellcasting effort.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick Learner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You need to spend half the usual time in order to learn a new spell, or memorise an enchanting rune, and automatically succeed on the final memorisation roll for spells. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Subject Expertise</t>
   </si>
   <si>
-    <t xml:space="preserve">Scholar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Choose a spell discipline, or a viable target of a spell, which is associated with your area of research or specialty. When casting a spell of this school, or a spell on your chosen target, you gain one additional auto-success. </t>
   </si>
   <si>
-    <t xml:space="preserve">Flexible Knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You may spend a day completely immersing yourself in a new set of knowledge and expertise. Convert a number of your \imp{Knowledge} dots back into experience points. You must then reassign at least this number of experience points back into your \imp{Knowledge} abilities in any new combination you wish. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Healer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whenever you restore Health to a being, heal an additional level of \imp{Harm} to all allies within 10m.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library Lover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you perform an intelligence-based check whilst in a library, or similar repository of knowledge, the dice associated with your \imp{Intelligence} are all counted as successes. You need only roll your \imp{Ability} dice. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magical Prodigy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When initiating a \imp{Spellcasting} action, you may automatically reduce the DV required to cast it by 2. You may do this a number of times equal to your \imp{Intelligence} rating before you require a \imp{Long Rest}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master of the Mind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When an action would interrupt you casting a spell requiring continuing concentration, the DV to remain focussed is 2 lower than normal. You also gain +1d on all \imp{Resist} checks against mind-altering effects. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigator’s Knack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are able to perfectly keep track of time even whilst asleep, cannot get lost except by magical means and can always pinpoint your location anywhere on the globe given reasonable information i.e. access to the stars. In addition, if any magical effect removes you from your normal plane of existence, you are able to feel and notice this happening. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learn From Failure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When performing a check of any kind, for every consectutive previous roll which failed, you gain +2d (up to a maximum of your \imp{Stubbornness} rating).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novel Technique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whenever you use a spell in a new or novel fashion, you gain +2d for the spellcasting effort.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick Learner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You need to spend half the usual time in order to learn a new spell, or memorise an enchanting rune, and automatically succeed on the final memorisation roll for spells. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Well Read</t>
   </si>
   <si>
     <t xml:space="preserve">You hold in your brain a simply incredible amount of information, you may use some of this vast knowledge to gain +3d on one \imp{Knowledge} check. You can use this ability a number of times equal to your \imp{General Knowledge} rating before needing a long rest. </t>
   </si>
   <si>
+    <t xml:space="preserve">A Little Bird Told Me….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sophisticate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whilst in conversation with someone, provided that you have met, or have heard of them in the past, you may recall an embarrassing bit of information, or incriminating secret about them. You may choose to reveal this information, or keep it secret for later. You may use this ability a number of times per day equal to your \imp{Society} rating. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Brazen</t>
   </si>
   <si>
-    <t xml:space="preserve">Sophisticate</t>
-  </si>
-  <si>
     <t xml:space="preserve">You are so brash and bold in your approach that you can simply breeze past an error, playing it for laughs, or simply ignoring it altogether. Whenever you perform a \imp{Social} check, you may treat one \imp{Catastrophe} as a normal, benign failure. By expending a \imp{Fortitude} point, you may extend this to all \imp{Catastrophes} rolled. </t>
   </si>
   <si>
@@ -631,12 +795,6 @@
     <t xml:space="preserve">You are able to automatically spot people with a similar skillset to your own, and are aware when someone attempts to \imp{Bamboozle} or otherwise manipulate you or your allies in a social situation. Your additional scrutiny means that attempts to do so have a DV 2 higher than normal. </t>
   </si>
   <si>
-    <t xml:space="preserve">A Little Bird Told Me….</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whilst in conversation with someone, provided that you have met, or have heard of them in the past, you may recall an embarrassing bit of information, or incriminating secret about them. You may choose to reveal this information, or keep it secret for later. You may use this ability a number of times per day equal to your \imp{Society} rating. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Unbreakable Vow</t>
   </si>
   <si>
@@ -716,75 +874,6 @@
   </si>
   <si>
     <t xml:space="preserve">If you study, read up on and otherwise prepare for a target before engaging them in combat, the DV of all attacks you make against them is reduced by 1. If you use a \imp{Command} action this turn, then this bonus is shared amongst all allies within 20m of you until the end of the next \imp{turn cycle}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self Improvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whenever you cast a spell with a range of \imp{Self}, gain one additional auto-success.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stillness of Mind and Body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You may expend a \imp{Fortitude} point as an instantaneous action to enter a meditative state, ending all ongoing status effects on your body: \imp{Poisons} are purged, \imp{Fear} is banished, and \imp{Paralysis} wears off. This does not effect status effects imposed by physical phenomena (i.e. you cannot untie ropes giving the \imp{Trapped} status), and you must be conscious to use this ability. You can do this a number of times per day equal to your \imp{Self} rating. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chi Siphon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whenever you deal damage to a being using a \imp{Brawl} action (or a melee spell attack), you heal yourself by 1 level of harm. You may also allocate a number of your successes to increasing this effect by 1 level each (thereby reducing the damage dealt). If the attack damage is reduced to zero by a successful \imp{Resist}, the healing effect is negated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Like the Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perform a DV 6 \imp{Fitness (Glide)} check. For every success, you can run, leap or parkour 2m across a body of water, a gaping chasm, or up a vertical surface. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alien Thoughts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Through some weird means, or simply deep meditation, you have attuned your mind to a different way of thinking, making it harder to infiltrate your mind. You are considered \imp{Resistant} to psychic damage, and effects to alter your mind have a DV two higher than normal. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Mind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The way that things have always been done is not always the only (or even the best) way. A number of times per day equal to your \imp{Wisdom} rating, you may use a completely different skill, tool or ingredient for a given task. You may substitute almost any \imp{Ability} for a check, use any \imp{Tool} to complete a task, or use a random \imp{Ingredient} in a potion, confident that alternative methods can get the job done. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melee Mage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you cast a spell with a range of \imp{Self} which would impact your combat ability, you may immediately take a melee attack on a foe in range. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wise Teacher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are always on the lookout to help others. As a minor action, you take a second to talk to and inspire your ally: donating your \imp{Widsom} pool to another character within 2m. They may add this pool to any check they make next turn cycle. You may use this action multiple times per cycle, but each character can only benefit from the effect once. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piercing Insight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have the ability to see through people’s facade to the person beneath. When you gain at least one success on a \imp{Insight} check against a person, you learn enough hidden information about them that all further checks against them have a DV 1 lower than normal. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out of Body Experience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whilst unconscious or asleep, your spirit remains awake and aware of your surroundings even as you gain the benefits of rest. Your spectral self can move up to 10m away from your body, and can see and hear as well as you normally can. You can expend a \imp{Fortitude} point to instantly end the \imp{asleep} status and take an action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silent Step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you know the \imp{Teleport} spell, you may cast it as a silent, wandless action using your \imp{movement}, rather than a \imp{major action}. You may appear in an unnocupied space that you can see within a distance equal to 5$\times$ the power of the spell (in metres). You can do this a number of times per day equal to your \imp{Glide} ability. </t>
   </si>
 </sst>
 </file>
@@ -794,7 +883,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -821,6 +910,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -907,10 +1001,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D90" activeCellId="0" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1416,7 +1510,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>61</v>
       </c>
@@ -1435,7 +1529,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>63</v>
       </c>
@@ -1454,7 +1548,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>65</v>
       </c>
@@ -1872,7 +1966,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>111</v>
       </c>
@@ -1891,7 +1985,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>113</v>
       </c>
@@ -1910,7 +2004,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>115</v>
       </c>
@@ -1929,7 +2023,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>117</v>
       </c>
@@ -2043,7 +2137,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>129</v>
       </c>
@@ -2055,14 +2149,14 @@
       </c>
       <c r="E59" s="0" t="str">
         <f aca="false">IF(NOT(B59=B58),B59,"")</f>
-        <v>Outlaw</v>
+        <v>Guru</v>
       </c>
       <c r="F59" s="0" t="n">
         <f aca="false">IF(NOT(E59=""),COUNTIF(B:B,E59),"")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>132</v>
       </c>
@@ -2081,7 +2175,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>134</v>
       </c>
@@ -2100,7 +2194,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>136</v>
       </c>
@@ -2119,14 +2213,14 @@
         <v/>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E63" s="0" t="str">
@@ -2157,14 +2251,14 @@
         <v/>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>142</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="1" t="s">
         <v>143</v>
       </c>
       <c r="E65" s="0" t="str">
@@ -2176,14 +2270,14 @@
         <v/>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E66" s="0" t="str">
@@ -2195,7 +2289,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>146</v>
       </c>
@@ -2214,14 +2308,14 @@
         <v/>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>148</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E68" s="0" t="str">
@@ -2233,14 +2327,14 @@
         <v/>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>150</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E69" s="0" t="str">
@@ -2252,52 +2346,52 @@
         <v/>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>152</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E70" s="0" t="str">
         <f aca="false">IF(NOT(B70=B69),B70,"")</f>
-        <v/>
-      </c>
-      <c r="F70" s="0" t="str">
+        <v>Outlaw</v>
+      </c>
+      <c r="F70" s="0" t="n">
         <f aca="false">IF(NOT(E70=""),COUNTIF(B:B,E70),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="D71" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>156</v>
       </c>
       <c r="E71" s="0" t="str">
         <f aca="false">IF(NOT(B71=B70),B71,"")</f>
-        <v>Scholar</v>
-      </c>
-      <c r="F71" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F71" s="0" t="str">
         <f aca="false">IF(NOT(E71=""),COUNTIF(B:B,E71),"")</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="D72" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E72" s="0" t="str">
@@ -2309,12 +2403,12 @@
         <v/>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>159</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>160</v>
@@ -2328,14 +2422,14 @@
         <v/>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>161</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="D74" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>162</v>
       </c>
       <c r="E74" s="0" t="str">
@@ -2347,12 +2441,12 @@
         <v/>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>164</v>
@@ -2366,12 +2460,12 @@
         <v/>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>165</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>166</v>
@@ -2385,14 +2479,14 @@
         <v/>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>167</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="D77" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>168</v>
       </c>
       <c r="E77" s="0" t="str">
@@ -2404,12 +2498,12 @@
         <v/>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>169</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>170</v>
@@ -2423,12 +2517,12 @@
         <v/>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>171</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>172</v>
@@ -2447,7 +2541,7 @@
         <v>173</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>174</v>
@@ -2461,12 +2555,12 @@
         <v/>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>175</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>176</v>
@@ -2480,7 +2574,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>177</v>
       </c>
@@ -2492,21 +2586,21 @@
       </c>
       <c r="E82" s="0" t="str">
         <f aca="false">IF(NOT(B82=B81),B82,"")</f>
-        <v>Sophisticate</v>
+        <v>Responder</v>
       </c>
       <c r="F82" s="0" t="n">
         <f aca="false">IF(NOT(E82=""),COUNTIF(B:B,E82),"")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>180</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E83" s="0" t="str">
@@ -2528,54 +2622,30 @@
       <c r="D84" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E84" s="0" t="str">
-        <f aca="false">IF(NOT(B84=B83),B84,"")</f>
-        <v/>
-      </c>
-      <c r="F84" s="0" t="str">
-        <f aca="false">IF(NOT(E84=""),COUNTIF(B:B,E84),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>184</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E85" s="0" t="str">
-        <f aca="false">IF(NOT(B85=B84),B85,"")</f>
-        <v/>
-      </c>
-      <c r="F85" s="0" t="str">
-        <f aca="false">IF(NOT(E85=""),COUNTIF(B:B,E85),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>186</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E86" s="0" t="str">
-        <f aca="false">IF(NOT(B86=B85),B86,"")</f>
-        <v/>
-      </c>
-      <c r="F86" s="0" t="str">
-        <f aca="false">IF(NOT(E86=""),COUNTIF(B:B,E86),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="87" customFormat="false" ht="125.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>188</v>
       </c>
@@ -2585,16 +2655,8 @@
       <c r="D87" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E87" s="0" t="str">
-        <f aca="false">IF(NOT(B87=B86),B87,"")</f>
-        <v/>
-      </c>
-      <c r="F87" s="0" t="str">
-        <f aca="false">IF(NOT(E87=""),COUNTIF(B:B,E87),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>190</v>
       </c>
@@ -2603,14 +2665,6 @@
       </c>
       <c r="D88" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E88" s="0" t="str">
-        <f aca="false">IF(NOT(B88=B87),B88,"")</f>
-        <v/>
-      </c>
-      <c r="F88" s="0" t="str">
-        <f aca="false">IF(NOT(E88=""),COUNTIF(B:B,E88),"")</f>
-        <v/>
       </c>
     </row>
     <row r="89" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2623,14 +2677,6 @@
       <c r="D89" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E89" s="0" t="str">
-        <f aca="false">IF(NOT(B89=B88),B89,"")</f>
-        <v/>
-      </c>
-      <c r="F89" s="0" t="str">
-        <f aca="false">IF(NOT(E89=""),COUNTIF(B:B,E89),"")</f>
-        <v/>
-      </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
@@ -2642,14 +2688,6 @@
       <c r="D90" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E90" s="0" t="str">
-        <f aca="false">IF(NOT(B90=B89),B90,"")</f>
-        <v/>
-      </c>
-      <c r="F90" s="0" t="str">
-        <f aca="false">IF(NOT(E90=""),COUNTIF(B:B,E90),"")</f>
-        <v/>
-      </c>
     </row>
     <row r="91" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
@@ -2661,43 +2699,35 @@
       <c r="D91" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E91" s="0" t="str">
-        <f aca="false">IF(NOT(B91=B90),B91,"")</f>
-        <v/>
-      </c>
-      <c r="F91" s="0" t="str">
-        <f aca="false">IF(NOT(E91=""),COUNTIF(B:B,E91),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>198</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="D92" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="D92" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="E92" s="0" t="str">
-        <f aca="false">IF(NOT(B92=B91),B92,"")</f>
-        <v/>
-      </c>
-      <c r="F92" s="0" t="str">
+        <f aca="false">IF(NOT(B92=B83),B92,"")</f>
+        <v>Scholar</v>
+      </c>
+      <c r="F92" s="0" t="n">
         <f aca="false">IF(NOT(E92=""),COUNTIF(B:B,E92),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="E93" s="0" t="str">
         <f aca="false">IF(NOT(B93=B92),B93,"")</f>
@@ -2708,31 +2738,31 @@
         <v/>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>204</v>
       </c>
       <c r="E94" s="0" t="str">
         <f aca="false">IF(NOT(B94=B93),B94,"")</f>
-        <v>Warrior</v>
-      </c>
-      <c r="F94" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F94" s="0" t="str">
         <f aca="false">IF(NOT(E94=""),COUNTIF(B:B,E94),"")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>205</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>206</v>
@@ -2751,7 +2781,7 @@
         <v>207</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>208</v>
@@ -2770,7 +2800,7 @@
         <v>209</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>210</v>
@@ -2784,14 +2814,14 @@
         <v/>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>211</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="D98" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>212</v>
       </c>
       <c r="E98" s="0" t="str">
@@ -2808,7 +2838,7 @@
         <v>213</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>214</v>
@@ -2827,7 +2857,7 @@
         <v>215</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>216</v>
@@ -2846,7 +2876,7 @@
         <v>217</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>218</v>
@@ -2860,34 +2890,34 @@
         <v/>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>219</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E102" s="0" t="str">
         <f aca="false">IF(NOT(B102=B101),B102,"")</f>
-        <v/>
-      </c>
-      <c r="F102" s="0" t="str">
+        <v>Sophisticate</v>
+      </c>
+      <c r="F102" s="0" t="n">
         <f aca="false">IF(NOT(E102=""),COUNTIF(B:B,E102),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E103" s="0" t="str">
         <f aca="false">IF(NOT(B103=B102),B103,"")</f>
@@ -2898,15 +2928,15 @@
         <v/>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="E104" s="0" t="str">
         <f aca="false">IF(NOT(B104=B103),B104,"")</f>
@@ -2917,15 +2947,15 @@
         <v/>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="E105" s="0" t="str">
         <f aca="false">IF(NOT(B105=B104),B105,"")</f>
@@ -2936,33 +2966,33 @@
         <v/>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="D106" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>229</v>
       </c>
       <c r="E106" s="0" t="str">
         <f aca="false">IF(NOT(B106=B105),B106,"")</f>
-        <v>Guru</v>
-      </c>
-      <c r="F106" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F106" s="0" t="str">
         <f aca="false">IF(NOT(E106=""),COUNTIF(B:B,E106),"")</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>230</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="D107" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>231</v>
       </c>
       <c r="E107" s="0" t="str">
@@ -2974,12 +3004,12 @@
         <v/>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>232</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>233</v>
@@ -2993,12 +3023,12 @@
         <v/>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>234</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>235</v>
@@ -3017,7 +3047,7 @@
         <v>236</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>237</v>
@@ -3031,12 +3061,12 @@
         <v/>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>238</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>239</v>
@@ -3050,12 +3080,12 @@
         <v/>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>240</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>241</v>
@@ -3069,14 +3099,14 @@
         <v/>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>242</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="D113" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>243</v>
       </c>
       <c r="E113" s="0" t="str">
@@ -3088,34 +3118,34 @@
         <v/>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>244</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E114" s="0" t="str">
         <f aca="false">IF(NOT(B114=B113),B114,"")</f>
-        <v/>
-      </c>
-      <c r="F114" s="0" t="str">
+        <v>Warrior</v>
+      </c>
+      <c r="F114" s="0" t="n">
         <f aca="false">IF(NOT(E114=""),COUNTIF(B:B,E114),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E115" s="0" t="str">
         <f aca="false">IF(NOT(B115=B114),B115,"")</f>
@@ -3126,15 +3156,15 @@
         <v/>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="E116" s="0" t="str">
         <f aca="false">IF(NOT(B116=B115),B116,"")</f>
@@ -3145,8 +3175,199 @@
         <v/>
       </c>
     </row>
+    <row r="117" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E117" s="0" t="str">
+        <f aca="false">IF(NOT(B117=B116),B117,"")</f>
+        <v/>
+      </c>
+      <c r="F117" s="0" t="str">
+        <f aca="false">IF(NOT(E117=""),COUNTIF(B:B,E117),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E118" s="0" t="str">
+        <f aca="false">IF(NOT(B118=B117),B118,"")</f>
+        <v/>
+      </c>
+      <c r="F118" s="0" t="str">
+        <f aca="false">IF(NOT(E118=""),COUNTIF(B:B,E118),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E119" s="0" t="str">
+        <f aca="false">IF(NOT(B119=B118),B119,"")</f>
+        <v/>
+      </c>
+      <c r="F119" s="0" t="str">
+        <f aca="false">IF(NOT(E119=""),COUNTIF(B:B,E119),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E120" s="0" t="str">
+        <f aca="false">IF(NOT(B120=B119),B120,"")</f>
+        <v/>
+      </c>
+      <c r="F120" s="0" t="str">
+        <f aca="false">IF(NOT(E120=""),COUNTIF(B:B,E120),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E121" s="0" t="str">
+        <f aca="false">IF(NOT(B121=B120),B121,"")</f>
+        <v/>
+      </c>
+      <c r="F121" s="0" t="str">
+        <f aca="false">IF(NOT(E121=""),COUNTIF(B:B,E121),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E122" s="0" t="str">
+        <f aca="false">IF(NOT(B122=B121),B122,"")</f>
+        <v/>
+      </c>
+      <c r="F122" s="0" t="str">
+        <f aca="false">IF(NOT(E122=""),COUNTIF(B:B,E122),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E123" s="0" t="str">
+        <f aca="false">IF(NOT(B123=B122),B123,"")</f>
+        <v/>
+      </c>
+      <c r="F123" s="0" t="str">
+        <f aca="false">IF(NOT(E123=""),COUNTIF(B:B,E123),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E124" s="0" t="str">
+        <f aca="false">IF(NOT(B124=B123),B124,"")</f>
+        <v/>
+      </c>
+      <c r="F124" s="0" t="str">
+        <f aca="false">IF(NOT(E124=""),COUNTIF(B:B,E124),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E125" s="0" t="str">
+        <f aca="false">IF(NOT(B125=B124),B125,"")</f>
+        <v/>
+      </c>
+      <c r="F125" s="0" t="str">
+        <f aca="false">IF(NOT(E125=""),COUNTIF(B:B,E125),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E126" s="0" t="n">
+        <f aca="false">IF(NOT(B126=B125),B126,"")</f>
+        <v>0</v>
+      </c>
+      <c r="F126" s="0" t="str">
+        <f aca="false">IF(NOT(E126=""),COUNTIF(B:B,E126),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E127" s="0" t="str">
+        <f aca="false">IF(NOT(B127=B126),B127,"")</f>
+        <v/>
+      </c>
+      <c r="F127" s="0" t="str">
+        <f aca="false">IF(NOT(E127=""),COUNTIF(B:B,E127),"")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D105"/>
+  <autoFilter ref="A1:D125"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CoreRulebook/Data/Feats/Feats.xlsx
+++ b/CoreRulebook/Data/Feats/Feats.xlsx
@@ -11,10 +11,10 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$125</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$113</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$D$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$D$98</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$113</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$125</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$D$101</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$D$98</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -292,7 +292,7 @@
     <t xml:space="preserve">Arcane Detective</t>
   </si>
   <si>
-    <t xml:space="preserve">When performing an investigation, you notice if a spell has been cast nearby in the last week and may determine which spell school it belonged to. You may also determine if the effect was from a human spellcaster, or from another kind of magical being. </t>
+    <t xml:space="preserve">When performing an investigation, you notice if a spell has been cast nearby in the last week and may determine which spell school it belonged to. By expending a \imp{Detective’s Toolset}, you may learn exactly what spell, and how long ago it was cast. </t>
   </si>
   <si>
     <t xml:space="preserve">Cold Cases</t>
@@ -305,13 +305,13 @@
     <t xml:space="preserve">De-escalation Training</t>
   </si>
   <si>
-    <t xml:space="preserve">You are trained specifically to capture and contain, not to kill. When you take an action to contain, constrain, bind, trap or disarm a foe, rather than inflict pain or damage upon them, you gain +1d to the effort. </t>
+    <t xml:space="preserve">Having been trained to capture and contain, when you take an action to contain, constrain, bind, trap or disarm a foe, rather than inflict damage, you gain +1d to the effort. </t>
   </si>
   <si>
     <t xml:space="preserve">Deductive Senses</t>
   </si>
   <si>
-    <t xml:space="preserve">Your logical mind allows you to keep track of hidden foes. Whenever a creature that you can see goes invisible, or otherwise becomes undetectable to normal senses, perform a DV 8 \imp{Insight (Intuition)} check as an instantaneous action. For every success, you remain aware of the position of that creature for an additional \imp{Combat Cycle}, and do not treat it as invisible. </t>
+    <t xml:space="preserve">Your logical mind allows you to keep track of hidden foes. Whenever a creature that you can see goes invisible, or otherwise becomes undetectable, perform a DV 8 \imp{Insight (Intuition)} check as an instantaneous action. For every success, you remain aware of the position of that creature for an additional \imp{Combat Cycle}, and do not treat it as invisible. </t>
   </si>
   <si>
     <t xml:space="preserve">Familiar Terrain</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">Heightened Senses</t>
   </si>
   <si>
-    <t xml:space="preserve">For 5 minutes after performing an investigation, your senses remain heightened such that you do not incur \imp{Drain} on your \imp{Dodge} ability. </t>
+    <t xml:space="preserve">For 5 minutes after performing an investigation check, your senses remain heightened such that you do not incur \imp{Drain} on your \imp{Dodge} ability. </t>
   </si>
   <si>
     <t xml:space="preserve">Lie Detector</t>
@@ -605,38 +605,13 @@
     <t xml:space="preserve">Plague Doctor</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">You release a virulent pathogen around you, infecting all those within 5m of your current position (you may expend a \imp{Fortitude} point to exclude any number of allies). You may choose the effect of the pathogen:
+    <t xml:space="preserve">You release a virulent pathogen around you, infecting all those within 5m of your current position (you may expend a \imp{Fortitude} point to exclude any number of allies). You may choose the effect of the pathogen:
 \begin{itemize}
 \item \key{Poisoned}: 2 damage per turn, power = your \imp{Pathology} rating
-\item \key{Blinded}: power = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">your \imp{Willpower} rating
+\item \key{Blinded}: power = your \imp{Willpower} rating
 \item \key{Enraged}: power = your \imp{Deception} rating
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\end{itemize}
+\end{itemize}
 Targets make a check to \imp{Resist} at the onset of this effect, and then again at the end of every subsequent cycle. You can use this ability a number of times equal to your \imp{Pathology} rating before requiring a \imp{Long Rest}. </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Apothecary</t>
@@ -883,7 +858,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -910,11 +885,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1003,8 +973,8 @@
   </sheetPr>
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D90" activeCellId="0" sqref="D90"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1776,7 +1746,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>90</v>
       </c>
@@ -3351,9 +3321,9 @@
         <f aca="false">IF(NOT(B126=B125),B126,"")</f>
         <v>0</v>
       </c>
-      <c r="F126" s="0" t="str">
+      <c r="F126" s="0" t="n">
         <f aca="false">IF(NOT(E126=""),COUNTIF(B:B,E126),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,7 +3337,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D125"/>
+  <autoFilter ref="A1:D113"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CoreRulebook/Data/Feats/Feats.xlsx
+++ b/CoreRulebook/Data/Feats/Feats.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$113</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$125</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$125</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$113</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$D$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$D$98</definedName>
   </definedNames>
@@ -286,7 +286,7 @@
   </si>
   <si>
     <t xml:space="preserve">When you attack from hiding, spring a trap or successfully orchestrate
-an ambush, your first attack is particularly powerful: when you complete your first attack roll, if the total number of successes is below  half the number of dice rolled, you may instead use that number. </t>
+an ambush, if the total number of successes on your first roll is less than half the number of dice rolled, you may instead use that number. </t>
   </si>
   <si>
     <t xml:space="preserve">Arcane Detective</t>
@@ -317,7 +317,7 @@
     <t xml:space="preserve">Familiar Terrain</t>
   </si>
   <si>
-    <t xml:space="preserve">Choose a favoured terrain such as \imp{Grasslands}, \imp{Forests}, \imp{Urban Areas}, \imp{Caverns}, or name a specific region, such as \imp{Hogwarts}. Whilst in your favoured terrain you gain +1d on every action which utilises the surroundings such as a \imp{Tracking} or \imp{Covert} check.</t>
+    <t xml:space="preserve">Choose a favoured terrain such as \imp{Grasslands}, \imp{Forests}, or \imp{Urban Areas} or name a specific region, such as \imp{Hogwarts}. Whilst in your favoured terrain you gain +1d on every action which utilises the surroundings such as a \imp{Tracking} or \imp{Covert} check.</t>
   </si>
   <si>
     <t xml:space="preserve">Fancy Footwork</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">Mental Training</t>
   </si>
   <si>
-    <t xml:space="preserve">You have trained your mind to resist the effects of external manipulation. You gain +3d against all checks to resist unnatural mental manipulation, and may expend a \imp{Fortitude} point to end an ongoing mental effect such as \imp{Charmed}. </t>
+    <t xml:space="preserve">You gain +3d against all checks to resist unnatural mental manipulation, and may expend a \imp{Fortitude} point to end an ongoing mental effect such as \imp{Charmed}. </t>
   </si>
   <si>
     <t xml:space="preserve">Rapid Reflexes</t>
@@ -973,8 +973,8 @@
   </sheetPr>
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1670,7 +1670,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>81</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>100</v>
       </c>
@@ -3337,7 +3337,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D113"/>
+  <autoFilter ref="A1:D125"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CoreRulebook/Data/Feats/Feats.xlsx
+++ b/CoreRulebook/Data/Feats/Feats.xlsx
@@ -11,10 +11,10 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$125</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$113</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$D$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$D$98</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$112</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$124</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$D$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$D$97</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="267">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">Crash Course</t>
   </si>
   <si>
-    <t xml:space="preserve">You study a crash course in a selection of 10 abilities you previously had no skill in, giving you a basic level of knowledge. Choose up to 10 \imp{Abilities} with a \emptyCape{} rating, and gain 1 dot in each of them. If, when you take this ability, it would cost more than 9 dots, pay only 9 dots. </t>
+    <t xml:space="preserve">You study a crash course in a selection of 10 abilities you previously had no skill in, giving you a basic level of knowledge. Choose up to 10 \imp{Abilities} with a \emptyCape{} rating, and gain 1 dot in each of them. </t>
   </si>
   <si>
     <t xml:space="preserve">Elemental Attunement</t>
@@ -91,7 +91,7 @@
   <si>
     <t xml:space="preserve">As a witch or wizard, the chaotic force of magic flows within your veins. You have learned to harness this magic in some innate way beyond the usual spellcasting. This effect is usually minor (something a Muggle could put down to an act of trickery or showmanship), and often forms the basis of a parlour trick. 
 You might be able to summon a small flame from your finger, make your eyes into burning coals or deep black voids, play a stirring soundtrack whenever they engage in a fight, know the name of every individual you meet, or some other marvellous but ultimately slightly inconsequential feat that you could imagine being the focus of conversation at a party. 
-No rolls are needed to use this ability, and the GM has a veto if this tool is being used in an inappropriate fashion. {\bf This ability costs half the usual amount for a feat.}</t>
+No rolls are needed to use this ability, and the GM has a veto if this tool is being used in an inappropriate fashion. {\bf This ability costs only 4 \imp{EXP}.}</t>
   </si>
   <si>
     <t xml:space="preserve">Instinctive Defence</t>
@@ -111,12 +111,6 @@
   </si>
   <si>
     <t xml:space="preserve">You need much less sleep than others, and can go from asleep to awake in a blink of an eye. You gain the benefits of a \imp{Long Rest} after only 4 hours, and may ignore the effects of \imp{Level One Exhaustion}. Any \imp{Alertness} checks called for whilst asleep have the DV reduced by 3.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linguist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have studied another language enough to be considered fluent in it. When conversing in this language, gain +2d to all social checks. You may take this ability multiple times, learning a new language each time. </t>
   </si>
   <si>
     <t xml:space="preserve">Loyal Companion</t>
@@ -971,10 +965,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1019,7 +1013,7 @@
       </c>
       <c r="F2" s="0" t="n">
         <f aca="false">IF(NOT(E2=""),COUNTIF(B:B,E2),"")</f>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1041,7 +1035,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -1120,7 +1114,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="136.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>19</v>
       </c>
@@ -1196,37 +1190,40 @@
         <v/>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="C12" s="0" t="s">
+        <v>28</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="0" t="str">
-        <f aca="false">IF(NOT(B12=B11),B12,"")</f>
-        <v/>
-      </c>
-      <c r="F12" s="0" t="str">
+        <v>29</v>
+      </c>
+      <c r="E12" s="0" t="e">
+        <f aca="false">IF(NOT(B12=#REF!),B12,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F12" s="0" t="e">
         <f aca="false">IF(NOT(E12=""),COUNTIF(B:B,E12),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="0" t="str">
         <f aca="false">IF(NOT(B13=B12),B13,"")</f>
@@ -1237,15 +1234,12 @@
         <v/>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>34</v>
@@ -1266,8 +1260,11 @@
       <c r="B15" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="C15" s="0" t="s">
+        <v>36</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="0" t="str">
         <f aca="false">IF(NOT(B15=B14),B15,"")</f>
@@ -1278,16 +1275,13 @@
         <v/>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
@@ -1300,15 +1294,18 @@
         <v/>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="C17" s="0" t="s">
+        <v>41</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" s="0" t="str">
         <f aca="false">IF(NOT(B17=B16),B17,"")</f>
@@ -1319,18 +1316,18 @@
         <v/>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="0" t="str">
         <f aca="false">IF(NOT(B18=B17),B18,"")</f>
@@ -1341,16 +1338,13 @@
         <v/>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1363,7 +1357,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>48</v>
       </c>
@@ -1382,7 +1376,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>50</v>
       </c>
@@ -1401,13 +1395,16 @@
         <v/>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="C22" s="0" t="s">
+        <v>50</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>53</v>
       </c>
@@ -1420,53 +1417,50 @@
         <v/>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" s="0" t="str">
         <f aca="false">IF(NOT(B23=B22),B23,"")</f>
-        <v/>
-      </c>
-      <c r="F23" s="0" t="str">
+        <v>Artificer</v>
+      </c>
+      <c r="F23" s="0" t="n">
         <f aca="false">IF(NOT(E23=""),COUNTIF(B:B,E23),"")</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E24" s="0" t="str">
         <f aca="false">IF(NOT(B24=B23),B24,"")</f>
-        <v>Artificer</v>
-      </c>
-      <c r="F24" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F24" s="0" t="str">
         <f aca="false">IF(NOT(E24=""),COUNTIF(B:B,E24),"")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>59</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>60</v>
@@ -1480,12 +1474,12 @@
         <v/>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>61</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>62</v>
@@ -1499,12 +1493,12 @@
         <v/>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>63</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>64</v>
@@ -1518,12 +1512,12 @@
         <v/>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>65</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>66</v>
@@ -1537,12 +1531,12 @@
         <v/>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>67</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>68</v>
@@ -1561,7 +1555,7 @@
         <v>69</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>70</v>
@@ -1575,12 +1569,12 @@
         <v/>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>71</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>72</v>
@@ -1599,7 +1593,7 @@
         <v>73</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>74</v>
@@ -1613,12 +1607,12 @@
         <v/>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>75</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>76</v>
@@ -1632,12 +1626,12 @@
         <v/>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>77</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>78</v>
@@ -1651,50 +1645,50 @@
         <v/>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>79</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E35" s="0" t="str">
         <f aca="false">IF(NOT(B35=B34),B35,"")</f>
-        <v/>
-      </c>
-      <c r="F35" s="0" t="str">
+        <v>Auror</v>
+      </c>
+      <c r="F35" s="0" t="n">
         <f aca="false">IF(NOT(E35=""),COUNTIF(B:B,E35),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E36" s="0" t="str">
         <f aca="false">IF(NOT(B36=B35),B36,"")</f>
-        <v>Auror</v>
-      </c>
-      <c r="F36" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F36" s="0" t="str">
         <f aca="false">IF(NOT(E36=""),COUNTIF(B:B,E36),"")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>84</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>85</v>
@@ -1708,14 +1702,14 @@
         <v/>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>86</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E38" s="0" t="str">
@@ -1727,14 +1721,14 @@
         <v/>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E39" s="0" t="str">
@@ -1746,14 +1740,14 @@
         <v/>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>90</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E40" s="0" t="str">
@@ -1770,7 +1764,7 @@
         <v>92</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>93</v>
@@ -1784,14 +1778,14 @@
         <v/>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>94</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E42" s="0" t="str">
@@ -1803,14 +1797,14 @@
         <v/>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>96</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>97</v>
       </c>
       <c r="E43" s="0" t="str">
@@ -1822,14 +1816,14 @@
         <v/>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>98</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E44" s="0" t="str">
@@ -1841,14 +1835,14 @@
         <v/>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>100</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E45" s="0" t="str">
@@ -1860,12 +1854,12 @@
         <v/>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>102</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>103</v>
@@ -1879,50 +1873,50 @@
         <v/>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>104</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E47" s="0" t="str">
         <f aca="false">IF(NOT(B47=B46),B47,"")</f>
-        <v/>
-      </c>
-      <c r="F47" s="0" t="str">
+        <v>Druid</v>
+      </c>
+      <c r="F47" s="0" t="n">
         <f aca="false">IF(NOT(E47=""),COUNTIF(B:B,E47),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E48" s="0" t="str">
         <f aca="false">IF(NOT(B48=B47),B48,"")</f>
-        <v>Druid</v>
-      </c>
-      <c r="F48" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F48" s="0" t="str">
         <f aca="false">IF(NOT(E48=""),COUNTIF(B:B,E48),"")</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>109</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>110</v>
@@ -1936,12 +1930,12 @@
         <v/>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>111</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>112</v>
@@ -1955,12 +1949,12 @@
         <v/>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>113</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>114</v>
@@ -1974,12 +1968,12 @@
         <v/>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>115</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>116</v>
@@ -1998,7 +1992,7 @@
         <v>117</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>118</v>
@@ -2012,12 +2006,12 @@
         <v/>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>120</v>
@@ -2031,14 +2025,14 @@
         <v/>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>121</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>122</v>
       </c>
       <c r="E55" s="0" t="str">
@@ -2050,12 +2044,12 @@
         <v/>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>123</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>124</v>
@@ -2069,14 +2063,14 @@
         <v/>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>125</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="D57" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>126</v>
       </c>
       <c r="E57" s="0" t="str">
@@ -2088,50 +2082,50 @@
         <v/>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>127</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E58" s="0" t="str">
         <f aca="false">IF(NOT(B58=B57),B58,"")</f>
-        <v/>
-      </c>
-      <c r="F58" s="0" t="str">
+        <v>Guru</v>
+      </c>
+      <c r="F58" s="0" t="n">
         <f aca="false">IF(NOT(E58=""),COUNTIF(B:B,E58),"")</f>
-        <v/>
+        <v>11</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>131</v>
       </c>
       <c r="E59" s="0" t="str">
         <f aca="false">IF(NOT(B59=B58),B59,"")</f>
-        <v>Guru</v>
-      </c>
-      <c r="F59" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F59" s="0" t="str">
         <f aca="false">IF(NOT(E59=""),COUNTIF(B:B,E59),"")</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>132</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>133</v>
@@ -2150,7 +2144,7 @@
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>135</v>
@@ -2164,12 +2158,12 @@
         <v/>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>136</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>137</v>
@@ -2183,12 +2177,12 @@
         <v/>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>139</v>
@@ -2202,12 +2196,12 @@
         <v/>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>140</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>141</v>
@@ -2221,12 +2215,12 @@
         <v/>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>142</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>143</v>
@@ -2240,12 +2234,12 @@
         <v/>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>145</v>
@@ -2259,12 +2253,12 @@
         <v/>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>146</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>147</v>
@@ -2278,12 +2272,12 @@
         <v/>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>148</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>149</v>
@@ -2297,42 +2291,42 @@
         <v/>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>150</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E69" s="0" t="str">
         <f aca="false">IF(NOT(B69=B68),B69,"")</f>
-        <v/>
-      </c>
-      <c r="F69" s="0" t="str">
+        <v>Outlaw</v>
+      </c>
+      <c r="F69" s="0" t="n">
         <f aca="false">IF(NOT(E69=""),COUNTIF(B:B,E69),"")</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>154</v>
       </c>
       <c r="E70" s="0" t="str">
         <f aca="false">IF(NOT(B70=B69),B70,"")</f>
-        <v>Outlaw</v>
-      </c>
-      <c r="F70" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F70" s="0" t="str">
         <f aca="false">IF(NOT(E70=""),COUNTIF(B:B,E70),"")</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2340,7 +2334,7 @@
         <v>155</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>156</v>
@@ -2359,7 +2353,7 @@
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>158</v>
@@ -2373,14 +2367,14 @@
         <v/>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>159</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="D73" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>160</v>
       </c>
       <c r="E73" s="0" t="str">
@@ -2392,14 +2386,14 @@
         <v/>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>161</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="D74" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>162</v>
       </c>
       <c r="E74" s="0" t="str">
@@ -2411,14 +2405,14 @@
         <v/>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="D75" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E75" s="0" t="str">
@@ -2430,12 +2424,12 @@
         <v/>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>165</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>166</v>
@@ -2449,14 +2443,14 @@
         <v/>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>167</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="D77" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>168</v>
       </c>
       <c r="E77" s="0" t="str">
@@ -2468,14 +2462,14 @@
         <v/>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>169</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="D78" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>170</v>
       </c>
       <c r="E78" s="0" t="str">
@@ -2492,7 +2486,7 @@
         <v>171</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>172</v>
@@ -2506,14 +2500,14 @@
         <v/>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>173</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="D80" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>174</v>
       </c>
       <c r="E80" s="0" t="str">
@@ -2525,61 +2519,53 @@
         <v/>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>175</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E81" s="0" t="str">
         <f aca="false">IF(NOT(B81=B80),B81,"")</f>
-        <v/>
-      </c>
-      <c r="F81" s="0" t="str">
+        <v>Responder</v>
+      </c>
+      <c r="F81" s="0" t="n">
         <f aca="false">IF(NOT(E81=""),COUNTIF(B:B,E81),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>179</v>
       </c>
       <c r="E82" s="0" t="str">
         <f aca="false">IF(NOT(B82=B81),B82,"")</f>
-        <v>Responder</v>
-      </c>
-      <c r="F82" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F82" s="0" t="str">
         <f aca="false">IF(NOT(E82=""),COUNTIF(B:B,E82),"")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>180</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="E83" s="0" t="str">
-        <f aca="false">IF(NOT(B83=B82),B83,"")</f>
-        <v/>
-      </c>
-      <c r="F83" s="0" t="str">
-        <f aca="false">IF(NOT(E83=""),COUNTIF(B:B,E83),"")</f>
-        <v/>
       </c>
     </row>
     <row r="84" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2587,40 +2573,40 @@
         <v>182</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>184</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="125.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>186</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="125.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>188</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>189</v>
@@ -2631,70 +2617,78 @@
         <v>190</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>192</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>194</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>196</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="D91" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D91" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E91" s="0" t="str">
+        <f aca="false">IF(NOT(B91=B82),B91,"")</f>
+        <v>Scholar</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <f aca="false">IF(NOT(E91=""),COUNTIF(B:B,E91),"")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="D92" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>200</v>
       </c>
       <c r="E92" s="0" t="str">
-        <f aca="false">IF(NOT(B92=B83),B92,"")</f>
-        <v>Scholar</v>
-      </c>
-      <c r="F92" s="0" t="n">
+        <f aca="false">IF(NOT(B92=B91),B92,"")</f>
+        <v/>
+      </c>
+      <c r="F92" s="0" t="str">
         <f aca="false">IF(NOT(E92=""),COUNTIF(B:B,E92),"")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>201</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>202</v>
@@ -2713,7 +2707,7 @@
         <v>203</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>204</v>
@@ -2727,14 +2721,14 @@
         <v/>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>205</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="D95" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>206</v>
       </c>
       <c r="E95" s="0" t="str">
@@ -2746,14 +2740,14 @@
         <v/>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>207</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="D96" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E96" s="0" t="str">
@@ -2765,14 +2759,14 @@
         <v/>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>209</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="D97" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>210</v>
       </c>
       <c r="E97" s="0" t="str">
@@ -2784,12 +2778,12 @@
         <v/>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>211</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>212</v>
@@ -2808,7 +2802,7 @@
         <v>213</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>214</v>
@@ -2822,14 +2816,14 @@
         <v/>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>215</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="D100" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>216</v>
       </c>
       <c r="E100" s="0" t="str">
@@ -2841,52 +2835,52 @@
         <v/>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>217</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E101" s="0" t="str">
         <f aca="false">IF(NOT(B101=B100),B101,"")</f>
-        <v/>
-      </c>
-      <c r="F101" s="0" t="str">
+        <v>Sophisticate</v>
+      </c>
+      <c r="F101" s="0" t="n">
         <f aca="false">IF(NOT(E101=""),COUNTIF(B:B,E101),"")</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E102" s="0" t="str">
         <f aca="false">IF(NOT(B102=B101),B102,"")</f>
-        <v>Sophisticate</v>
-      </c>
-      <c r="F102" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F102" s="0" t="str">
         <f aca="false">IF(NOT(E102=""),COUNTIF(B:B,E102),"")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>222</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="D103" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>223</v>
       </c>
       <c r="E103" s="0" t="str">
@@ -2898,14 +2892,14 @@
         <v/>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>224</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="D104" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E104" s="0" t="str">
@@ -2917,14 +2911,14 @@
         <v/>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>226</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="D105" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>227</v>
       </c>
       <c r="E105" s="0" t="str">
@@ -2936,12 +2930,12 @@
         <v/>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>228</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>229</v>
@@ -2955,14 +2949,14 @@
         <v/>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>230</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="D107" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>231</v>
       </c>
       <c r="E107" s="0" t="str">
@@ -2974,12 +2968,12 @@
         <v/>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>232</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>233</v>
@@ -2993,12 +2987,12 @@
         <v/>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>234</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>235</v>
@@ -3012,12 +3006,12 @@
         <v/>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>236</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>237</v>
@@ -3031,12 +3025,12 @@
         <v/>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>238</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>239</v>
@@ -3050,14 +3044,14 @@
         <v/>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>240</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="D112" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>241</v>
       </c>
       <c r="E112" s="0" t="str">
@@ -3069,52 +3063,52 @@
         <v/>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>242</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="D113" s="4" t="s">
         <v>243</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="E113" s="0" t="str">
         <f aca="false">IF(NOT(B113=B112),B113,"")</f>
-        <v/>
-      </c>
-      <c r="F113" s="0" t="str">
+        <v>Warrior</v>
+      </c>
+      <c r="F113" s="0" t="n">
         <f aca="false">IF(NOT(E113=""),COUNTIF(B:B,E113),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>246</v>
       </c>
       <c r="E114" s="0" t="str">
         <f aca="false">IF(NOT(B114=B113),B114,"")</f>
-        <v>Warrior</v>
-      </c>
-      <c r="F114" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F114" s="0" t="str">
         <f aca="false">IF(NOT(E114=""),COUNTIF(B:B,E114),"")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>247</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="D115" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>248</v>
       </c>
       <c r="E115" s="0" t="str">
@@ -3126,14 +3120,14 @@
         <v/>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>249</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="D116" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>250</v>
       </c>
       <c r="E116" s="0" t="str">
@@ -3145,12 +3139,12 @@
         <v/>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>251</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>252</v>
@@ -3164,14 +3158,14 @@
         <v/>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>253</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="D118" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>254</v>
       </c>
       <c r="E118" s="0" t="str">
@@ -3188,7 +3182,7 @@
         <v>255</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>256</v>
@@ -3202,14 +3196,14 @@
         <v/>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>257</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="D120" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>258</v>
       </c>
       <c r="E120" s="0" t="str">
@@ -3221,12 +3215,12 @@
         <v/>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>259</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>260</v>
@@ -3240,12 +3234,12 @@
         <v/>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>261</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>262</v>
@@ -3264,7 +3258,7 @@
         <v>263</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>264</v>
@@ -3278,14 +3272,14 @@
         <v/>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>265</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="D124" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D124" s="4" t="s">
         <v>266</v>
       </c>
       <c r="E124" s="0" t="str">
@@ -3297,47 +3291,28 @@
         <v/>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E125" s="0" t="str">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E125" s="0" t="n">
         <f aca="false">IF(NOT(B125=B124),B125,"")</f>
-        <v/>
-      </c>
-      <c r="F125" s="0" t="str">
+        <v>0</v>
+      </c>
+      <c r="F125" s="0" t="n">
         <f aca="false">IF(NOT(E125=""),COUNTIF(B:B,E125),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="0" t="n">
+      <c r="E126" s="0" t="str">
         <f aca="false">IF(NOT(B126=B125),B126,"")</f>
-        <v>0</v>
-      </c>
-      <c r="F126" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F126" s="0" t="str">
         <f aca="false">IF(NOT(E126=""),COUNTIF(B:B,E126),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="0" t="str">
-        <f aca="false">IF(NOT(B127=B126),B127,"")</f>
-        <v/>
-      </c>
-      <c r="F127" s="0" t="str">
-        <f aca="false">IF(NOT(E127=""),COUNTIF(B:B,E127),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D125"/>
+  <autoFilter ref="A1:D112"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CoreRulebook/Data/Feats/Feats.xlsx
+++ b/CoreRulebook/Data/Feats/Feats.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$112</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$124</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$124</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$112</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$D$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$D$97</definedName>
   </definedNames>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">You feel a particular affinity for one of the elements (Fire, Water, Ice, Earth, Air, Lightning, etc.) deep within your bones. When casting a spell to manipulate, create or otherwise effect your chosen element, you gain +1d. You also gain +1d to any check to \imp{resist }damage caused by your element. </t>
   </si>
   <si>
-    <t xml:space="preserve">First Aid</t>
+    <t xml:space="preserve">Emergency Care</t>
   </si>
   <si>
     <t xml:space="preserve">You know the basics of helping others and mainting life. Whenever a being falls into the \imp{critical condition} status within 3m of you, you may expend a \imp{Fortitude} point to allow them to perform emergency care. Perform a DV 8 \imp{Insight (Kindness)} check, and heal them by an amount equal to the number of successes, removing the \imp{Critical Condition} status. If you have a \imp{First Aid Kit}, you may expend that rather than a \imp{Fortitude} point.</t>
@@ -967,8 +967,8 @@
   </sheetPr>
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3312,7 +3312,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D112"/>
+  <autoFilter ref="A1:D124"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CoreRulebook/Data/Feats/Feats.xlsx
+++ b/CoreRulebook/Data/Feats/Feats.xlsx
@@ -11,10 +11,10 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$124</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$112</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$D$100</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$D$97</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$121</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$D$109</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$D$98</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$D$95</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="261">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -72,12 +72,6 @@
   </si>
   <si>
     <t xml:space="preserve">You feel a particular affinity for one of the elements (Fire, Water, Ice, Earth, Air, Lightning, etc.) deep within your bones. When casting a spell to manipulate, create or otherwise effect your chosen element, you gain +1d. You also gain +1d to any check to \imp{resist }damage caused by your element. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency Care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You know the basics of helping others and mainting life. Whenever a being falls into the \imp{critical condition} status within 3m of you, you may expend a \imp{Fortitude} point to allow them to perform emergency care. Perform a DV 8 \imp{Insight (Kindness)} check, and heal them by an amount equal to the number of successes, removing the \imp{Critical Condition} status. If you have a \imp{First Aid Kit}, you may expend that rather than a \imp{Fortitude} point.</t>
   </si>
   <si>
     <t xml:space="preserve">Helping Hand</t>
@@ -203,6 +197,12 @@
     <t xml:space="preserve">Whenever you undertake a potion-mixing effort, you gain one additional auto-success. You may also `discover’ one common ingredient which has up to three properties of your choosing, discussing this with the GM. </t>
   </si>
   <si>
+    <t xml:space="preserve">Apothecary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever you take a \imp{Short Rest} whilst in possession of a \imp{First Aid Kit} or an \imp{Alchemy Set}, you can brew a quick healing potion, gaining a base-level \imp{Wiggenweld Potion} (see page \pageref{P:Wiggenweld}). You cannot store more than 5 such potions using this ability. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Defensive Gadgets</t>
   </si>
   <si>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">Expert Enchanter</t>
   </si>
   <si>
-    <t xml:space="preserve">Whenever you undertake an enchanting effort, you gain one additional auto-success. You may also learn new \imp{Runes} with only 1 hour of study.</t>
+    <t xml:space="preserve">Whenever you undertake an enchanting effort, you gain one additional auto-success. You may also choose 5 new runes to learn instantly. </t>
   </si>
   <si>
     <t xml:space="preserve">Fireworks Guru</t>
@@ -237,10 +237,10 @@
 nature be divined.</t>
   </si>
   <si>
-    <t xml:space="preserve">Idiosyncrasies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You know every oddity and quirk of your own creations: when using them, you gain one additional auto-success. When completing an artificing project, you may also choose to make it impossible for anyone other than you to use the item.</t>
+    <t xml:space="preserve">Idiosyncratic Inventions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You know every oddity and quirk of your own creations: when using them, you gain one additional auto-success on any rolls required. When completing an artificing project, you may also choose to make it impossible for anyone other than you to use the item.</t>
   </si>
   <si>
     <t xml:space="preserve">Master Mechanist</t>
@@ -264,13 +264,7 @@
     <t xml:space="preserve">Thick Skin</t>
   </si>
   <si>
-    <t xml:space="preserve">Years of accidents and lab mishaps have left you with a superhuman level of resilience: choose from \imp{Fire} and \imp{Crushing} or \imp{Acid} and \imp{Poison} damage: any rolls to \imp{Resist} damage of the chosen types has a DV that is 2 lower than normal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wandmaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have perfected the art of crafting magical focusses, and can create a new wand for yourself or others. This takes up to 3 days, but you can craft the new `wand’ into any form you like – a mighty oaken staff, or a bejewelled necklace, anything conceivable as a magical focus (\imp{GM} veto)</t>
+    <t xml:space="preserve">Years of accidents and lab mishaps have left you with a superhuman level of resilience. When you are afflicted by \imp{Fire}, \imp{Crushin}, \imp{Acid} or \imp{Poison} damage you may declare yourself to be \imp{Resistant} to the damage for the remainder of the turn. You may do this a number of times per day equal to your \imp{Danger} rating. </t>
   </si>
   <si>
     <t xml:space="preserve">Ambush</t>
@@ -280,7 +274,7 @@
   </si>
   <si>
     <t xml:space="preserve">When you attack from hiding, spring a trap or successfully orchestrate
-an ambush, if the total number of successes on your first roll is less than half the number of dice rolled, you may instead use that number. </t>
+an ambush (either combative or social), if the total number of successes on your first roll is less than half the number of dice rolled, you may instead use that number. </t>
   </si>
   <si>
     <t xml:space="preserve">Arcane Detective</t>
@@ -289,59 +283,52 @@
     <t xml:space="preserve">When performing an investigation, you notice if a spell has been cast nearby in the last week and may determine which spell school it belonged to. By expending a \imp{Detective’s Toolset}, you may learn exactly what spell, and how long ago it was cast. </t>
   </si>
   <si>
-    <t xml:space="preserve">Cold Cases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When performing a Knowledge check, if you can relate the information
-you seek to a historical or past case you reduce the DV by 3.</t>
-  </si>
-  <si>
     <t xml:space="preserve">De-escalation Training</t>
   </si>
   <si>
-    <t xml:space="preserve">Having been trained to capture and contain, when you take an action to contain, constrain, bind, trap or disarm a foe, rather than inflict damage, you gain +1d to the effort. </t>
+    <t xml:space="preserve">Having been trained to capture and contain, when you take an action to contain, constrain, bind, trap or disarm a foe, rather than inflict damage, you gain +1d to the effort. When a target within range attempts to escape from their bindings, you may expend a \imp{Fortitude} point as an instantaneous action, before the check is made, to cause the attempt to fail. </t>
   </si>
   <si>
     <t xml:space="preserve">Deductive Senses</t>
   </si>
   <si>
-    <t xml:space="preserve">Your logical mind allows you to keep track of hidden foes. Whenever a creature that you can see goes invisible, or otherwise becomes undetectable, perform a DV 8 \imp{Insight (Intuition)} check as an instantaneous action. For every success, you remain aware of the position of that creature for an additional \imp{Combat Cycle}, and do not treat it as invisible. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Familiar Terrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a favoured terrain such as \imp{Grasslands}, \imp{Forests}, or \imp{Urban Areas} or name a specific region, such as \imp{Hogwarts}. Whilst in your favoured terrain you gain +1d on every action which utilises the surroundings such as a \imp{Tracking} or \imp{Covert} check.</t>
+    <t xml:space="preserve">Whenever a creature that you can see goes invisible, or hides, perform a DV 8 \imp{Insight (Tracking)} check as an instantaneous action. For every success, you remain aware of the target’s position (as if it were not hidden) for an additional \imp{Combat Cycle}. </t>
   </si>
   <si>
     <t xml:space="preserve">Fancy Footwork</t>
   </si>
   <si>
-    <t xml:space="preserve">When fighting more than one foe, you may use an action to expend a \imp{Fortitude} point to confuse your foes with some feat of athletics and maneouvering, causing them to attack each other. Nominate two enemies within range – next turn cycle, the first of these two to take an action will attack the other, instead of their intended target. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heightened Senses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For 5 minutes after performing an investigation check, your senses remain heightened such that you do not incur \imp{Drain} on your \imp{Dodge} ability. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lie Detector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can automatically detect when someone is lying to you by telling you deliberate falsehoods. You may expend a \imp{Fortitude} point to get a glimpse at what they are hiding or lying about. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mental Training</t>
+    <t xml:space="preserve">You may use an \imp{Minor action} to expend a \imp{Fortitude} point to confuse your foes with some feat of athletics and maneouvering, causing them to attack each other. Nominate two enemies within range – next turn cycle, the first of these two to take an action will attack the other, instead of their intended target. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insightful Gaze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can automatically detect when someone is lying to you by telling you deliberate falsehoods. A number of times per day equal to your \imp{Interrogate} ability, you may use a \imp{Minor Action} to learn a hidden secret or a weakness of a target you can see. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forensic Hunter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You gain one automatic success on any check to survey a room, check for traps or clues and otherwise investigate physical locations. You may \imp{Expend} a \imp{Detective’s Toolkit} to roll the maximum number of successes on an \imp{Investigation} check. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental Conditioning</t>
   </si>
   <si>
     <t xml:space="preserve">You gain +3d against all checks to resist unnatural mental manipulation, and may expend a \imp{Fortitude} point to end an ongoing mental effect such as \imp{Charmed}. </t>
   </si>
   <si>
+    <t xml:space="preserve">Lucid Reality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A number of times per day equal to your \imp{Intuition} ability, you can use a \imp{Minor Action} to become instantly aware of the presence of any illusions and other reality or memory altering effects around you – though not their nature or precise location. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Rapid Reflexes</t>
   </si>
   <si>
-    <t xml:space="preserve">When performing a \key{Reflex} roll, you may roll the dice twice and take the largest value.</t>
+    <t xml:space="preserve">You may choose to use either your \imp{Speed}, \imp{Intuition} or \imp{Alertness} abilities to contribute to your \imp{Reflex Roll}. When performing a \key{Reflex} roll, you may roll the dice twice and take the largest value.</t>
   </si>
   <si>
     <t xml:space="preserve">Unwavering Focus</t>
@@ -356,19 +343,19 @@
     <t xml:space="preserve">Druid</t>
   </si>
   <si>
-    <t xml:space="preserve">Whenever a magical effect  or spell specifies that it works on \imp{Beasts}, you may also use this ability on all \imp{non-sapient} creatures, including \imp{Monsters} and \imp{Elementals}. Such creatures are also much less likely to attack you on sight, but will retaliate if provoked.  </t>
+    <t xml:space="preserve">Whenever an ability, spell or other effect specifies that it works on \imp{Beasts}, you may also use this ability on all \imp{non-sapient} creatures, including \imp{Monsters} and \imp{Elementals}. Such creatures will also be more inclined to treat you as an ally, with only the most savage attacking you without first being provoked.  </t>
   </si>
   <si>
     <t xml:space="preserve">Asteria’s Eyes</t>
   </si>
   <si>
-    <t xml:space="preserve">At the beginning of every dawn, you perform a small ritual underneath the fading stars to divine the future. Over the next day, you use this knowledge to gain a +1d bonus, or impose a 1d penalty, on any roll performed by a creature you can see. You may use this ability a number of times equal to your highest \imp{Affinity} rating in the \imp{Divination} school</t>
+    <t xml:space="preserve">At the beginning of every dawn, you perform a small ritual underneath the fading stars to divine the future. Over the next day, you use this knowledge to grant one automatic success, or impose on automatic failure, on any roll performed by a creature you can see. You may use this ability a number of times equal to your highest \imp{Affinity} rating of \imp{Cerebral} or \imp{Divination}.</t>
   </si>
   <si>
     <t xml:space="preserve">Barkskin</t>
   </si>
   <si>
-    <t xml:space="preserve">Until your \imp{Block} skill becomes \imp{Fully-drained}, additional levels of \imp{Drain} do not reduce the number of dice rolled on \imp{Block} checks. </t>
+    <t xml:space="preserve">Gain a +2 bonus to your \imp{Base Block Bonus}. You may expend this bonus as a \imp{Resist} action, automatically nullifying up to \imp{Level Seven} harm. You lose your bonus, and this ability, until you complete a \imp{Long Rest}. </t>
   </si>
   <si>
     <t xml:space="preserve">Cloak of Seasons</t>
@@ -380,31 +367,25 @@
     <t xml:space="preserve">Dryad’s Embrace</t>
   </si>
   <si>
-    <t xml:space="preserve">When you cast a spell on or attempt to \imp{Commune} with plant-based beings, or attempt to use a \imp{Knowledge} check to learn about such an entity, you gain one additional auto-success. </t>
+    <t xml:space="preserve">When you perform any check (including \imp{spellcasting}) which targets a plant-based entity, or which seeks to learn about such an entity, you gain one additional auto-success. </t>
   </si>
   <si>
     <t xml:space="preserve">Exuding Aura</t>
   </si>
   <si>
-    <t xml:space="preserve">You may expend a \imp{Fortitude} point to attune yourself to your favoured aspect of nature, exuding an aura which influences the minds of others – perhaps a sweet pine smell calms them, or animal pheremones send them into a frenzy. You gain +2d on all \imp{Social} checks made against people within 2m of you for the next hour.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freedom of the Wild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are able to move freely within natural environments – your climb speed and swim speed are equal to your normal movement speed, and you are not slowed down by difficult terrain. If a creature attempts to use natural features to gain \imp{Cover}, you consider it as one level less than normal. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fungal Spore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You know the secrets of a magical fungal spore, and can call it forth when you need it. As an action, you may summon these spore to either inflict the \imp{Poison} status effect (1 damage, requires 10 successes) on a target you can see in range, or to perform a DV 8 \imp{Insight (Commune)} check, healing the target equal to the number of successes. You may do this a number of times per day equal to your \imp{Commune} rating. </t>
+    <t xml:space="preserve">You may attune yourself to your favoured aspect of nature, exuding an aura which influences the minds of others – perhaps a sweet pine smell calms them, or animal pheremones send them into a frenzy. A number of times per day equal to your \imp{Nurture} rating, you gain +2d on all \imp{Social} checks made against people within 2m of you for the next hour. You may expend a \imp{Fortitude} point to impose the \imp{Confused} or \imp{Enraged} status onto a target you can touch as a \imp{Major Action}, with a \imp{Power} equal to twice your \imp{Nuture} rating. </t>
   </si>
   <si>
     <t xml:space="preserve">Nymph’s Fury</t>
   </si>
   <si>
-    <t xml:space="preserve">Channeling the power of primal, elemental spirits grants you additional power. When casting a spell from the \imp{Elemental} discipline, you gain one additional auto-success. </t>
+    <t xml:space="preserve">Channeling the power of primal, elemental spirits grants you additional power. When casting a spell from the \imp{Elemental} discipline, you gain one additional auto-success. Learning spells from the \imp{Elemental} discipline takes half the usual amount of time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watchful Guardian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A number of times per day equal to your \imp{Commune} rating, you may expand your senses to the area up to 50m around you. For 30 seconds, you may choose to see through the eyes of all the nearby \imp{Beasts}, listen through their ears, or to feel the sensation of footsteps upon the web of roots and plants – you lose your ability to see, hear, or feel through your own senses respectively. You can choose to focus on the sensations transmitted by a single plant or animal, or expand your focus to search over the entire area. </t>
   </si>
   <si>
     <t xml:space="preserve">Organic Repose</t>
@@ -419,13 +400,13 @@
     <t xml:space="preserve">When casting a spell or attempt to \imp{Commune} with a \imp{Beast}, or attempt to use a \imp{Knowledge} check to learn about such a creature, you gain one additional auto-success. </t>
   </si>
   <si>
-    <t xml:space="preserve">Alien Thoughts</t>
+    <t xml:space="preserve">Altered Consciousness</t>
   </si>
   <si>
     <t xml:space="preserve">Guru</t>
   </si>
   <si>
-    <t xml:space="preserve">Through some weird means, or simply deep meditation, you have attuned your mind to a different way of thinking, making it harder to infiltrate your mind. You are considered \imp{Resistant} to psychic damage, and effects to alter your mind have a DV two higher than normal. </t>
+    <t xml:space="preserve">You have attuned your mind to a different way of thinking, making it harder to infiltrate your mind. You are considered \imp{Resistant} to psychic damage, and effects to alter your mind have a DV two higher than normal. </t>
   </si>
   <si>
     <t xml:space="preserve">Chi Siphon</t>
@@ -437,13 +418,7 @@
     <t xml:space="preserve">Like the Wind</t>
   </si>
   <si>
-    <t xml:space="preserve">Perform a DV 6 \imp{Fitness (Glide)} check. For every success, you can run, leap or parkour 2m across a body of water, a gaping chasm, or up a vertical surface. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melee Mage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you cast a spell with a range of \imp{Self} which would impact your combat ability, you may immediately take a melee attack on a foe in range. </t>
+    <t xml:space="preserve">Perform a DV 6 \imp{Fitness (Glide)} check. For every success, you can run, leap or parkour 2m across a body of water, a gaping chasm, or up a vertical surface. This uses your entire \imp{Movement} for the round. </t>
   </si>
   <si>
     <t xml:space="preserve">Open Mind</t>
@@ -467,7 +442,23 @@
     <t xml:space="preserve">Self Improvement</t>
   </si>
   <si>
-    <t xml:space="preserve">Whenever you cast a spell with a range of \imp{Self}, gain one additional auto-success.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Whenever you cast a spell with a range of \imp{Self}, gain one additional auto-success. In addition, a number of times per day equal to your \imp{Self} rating, w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">hen you cast a spell with a range of \imp{Self} which would impact your combat ability, you may immediately take a melee attack on a foe in range. </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Silent Step</t>
@@ -479,7 +470,7 @@
     <t xml:space="preserve">Stillness of Mind and Body</t>
   </si>
   <si>
-    <t xml:space="preserve">You may expend a \imp{Fortitude} point as an instantaneous action to enter a meditative state, ending all ongoing status effects on your body: \imp{Poisons} are purged, \imp{Fear} is banished, and \imp{Paralysis} wears off. This does not effect status effects imposed by physical phenomena (i.e. you cannot untie ropes giving the \imp{Trapped} status), and you must be conscious to use this ability. You can do this a number of times per day equal to your \imp{Self} rating. </t>
+    <t xml:space="preserve">You may expend a \imp{Fortitude} point as an instantaneous action to enter a meditative state, ending all ongoing status effects on your body: \imp{Poisons} are purged, \imp{Fear} is banished, and \imp{Paralysis} wears off. This does not effect status effects imposed by physical phenomena (i.e. you cannot untie ropes giving the \imp{Trapped} status), and you must be conscious to use this ability.</t>
   </si>
   <si>
     <t xml:space="preserve">Wise Teacher</t>
@@ -488,6 +479,12 @@
     <t xml:space="preserve">You are always on the lookout to help others. As a minor action, you take a second to talk to and inspire your ally: donating your \imp{Widsom} pool to another character within 2m. They may add this pool to any check they make next turn cycle. You may use this action multiple times per cycle, but each character can only benefit from the effect once. </t>
   </si>
   <si>
+    <t xml:space="preserve">Metamorphmagus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have imbued some magic deep into your body, and are able to alter your appearance at will. A number of times per day equal to your \imp{Self} ability you can alter your hair, the shape of your face, the colour of your eyes – and even change your height and weight to a degree. This ability is not precise enough to truly mimic a real person, and after an hour you begin to shift back to your normal form. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Cover Identity</t>
   </si>
   <si>
@@ -500,7 +497,7 @@
     <t xml:space="preserve">Eyes of Greed</t>
   </si>
   <si>
-    <t xml:space="preserve">You have a knack for spotting things of value. You gain +2d on any checks to look for valuable items and can automatically know the value of non-magical items, and some \imp{Common} magical items. </t>
+    <t xml:space="preserve">You have a knack for spotting things of value. You gain +2d on any checks to look for valuable items. A number of times per day equal to your \imp{Pickpocket} rating, you may automatically determine the value of a given item that you can see. </t>
   </si>
   <si>
     <t xml:space="preserve">Fight Dirty</t>
@@ -509,6 +506,12 @@
     <t xml:space="preserve">If you use a \imp{Called Shot} to target a foe’s tender bits, pull hair, or throw sand in their eyes, etc. and the attack is successful, the target takes a dice penalty on all attacks taken next turn, equal to your \imp{Brawl} rating. </t>
   </si>
   <si>
+    <t xml:space="preserve">Turning Tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A number of times per day equal to your \imp{Underworld} rating, you can learn of any hidden passages or escape routes that you may have heard about – or at least recall if any might exist nearby. You gain +2d on any rolls required to escape or otherwise flee from a foe. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Freerunning</t>
   </si>
   <si>
@@ -527,16 +530,26 @@
     <t xml:space="preserve">You are always thought of as an honest and good soul. If you do something wrong which isn’t immediately attributed to you, it will most likely be blamed on something else. As long as you’re not caught red-handed killing puppies, people will try to excuse your actions and move on from your misdeeds. </t>
   </si>
   <si>
-    <t xml:space="preserve">Move in Shadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whilst you are outside of bright light, all \imp{Covert} actions have a DV one lower than normal.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Naturally Shifty</t>
   </si>
   <si>
-    <t xml:space="preserve">Doing unscrupulous deeds comes as naturally to you as breathing – gain one additional auto-success on any \imp{Covert} action.</t>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Doing unscrupulous deeds comes as naturally to you as breathing – gain one additional auto-success on any \imp{Covert} action. In addition, w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">hilst you are outside of bright light, all \imp{Covert} actions have a DV one lower than normal.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Play the System</t>
@@ -545,16 +558,10 @@
     <t xml:space="preserve">You know every trick and loophole in the rules and regulations. Whenever you perform a \imp{Social} check against a figure of authority, you may gain a +2d bonus. You can use this ability a number of times equal to your \imp{Savvy} rating before you need a long rest. </t>
   </si>
   <si>
-    <t xml:space="preserve">Sly Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the end of a turn cycle, if you have not been directly targeted for an attack, you may take an additional \imp{minor} action at the end of the cycle to move, use an item, or otherwise attempt to hide</t>
-  </si>
-  <si>
     <t xml:space="preserve">Surprise Attack</t>
   </si>
   <si>
-    <t xml:space="preserve">Whenever you attack a target from a position where they cannot see you, the target is considered \imp{suscpetible} to the attack. </t>
+    <t xml:space="preserve">Whenever you attack a target from a position where they cannot see you, or if they are distracted or \imp{incapacitated} in some way, the target is considered \imp{suscpetible} to the attack. </t>
   </si>
   <si>
     <t xml:space="preserve">Unobtrusive</t>
@@ -563,67 +570,69 @@
     <t xml:space="preserve">You don’t stand out in a crowd, and can make yourself, if not invisible, just socially {\it absent}. People don’t necessarily remember your face or your name (if they remember you at all), as you make very little impression on people – until you are stealing their wallet, or knifing them in the back, that is. All checks made by enemies to notice you in a crowd, or remember details about you have a DV 3 higher than normal. </t>
   </si>
   <si>
+    <t xml:space="preserve">Beacon of Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your \imp{Hermetics} spells now channel so much positive energy that they deal \imp{harm} to unliving and evil creatures such as \imp{Demons}, \imp{Abominations}, \imp{Phantasms} and \imp{Undead}. When you deal harm using this ability, you restore health to yourself equal to half the damage dealt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Shoulder to Cry On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People innately trust you more than they would most others. If you help \imp{Heal} or otherwise care for a person, they are likely to share their secrets with you – attempts to glean informaiton from your patients have a DV 3 lower than usual. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You know the basics of helping others and mainting life – even whilst under heavy time pressure. Using a \imp{First Aid Kit} no longer takes a \imp{Short Rest} for you – instead you may do so as a \imp{Minor Action}. 
+In addition, using a \imp{First Aid Kit} during a \imp{Short Rest} does not expend the kit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When performing a \imp{Healing} check, or a \imp{Defensive} check you may choose to automatically roll the maximum number of successes. If an enemy reduces the power of this action to zero, you (or your patient, as appropriate), fall into the \imp{Critical Condition} status. You cannot use this ability again until you take a \imp{Long Rest}. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Healer</t>
   </si>
   <si>
-    <t xml:space="preserve">Responder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whenever you restore Health to a being, or remove a negative status effect, gain one additional auto-success. </t>
+    <t xml:space="preserve">Whenever you restore Health to a being, or remove a negative status effect, gain one additional auto-success. A number of times per day equal to your \imp{Steady Hand} rating, you may reroll any \imp{Catastrophe} dice rolled during such a check. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever an ally within 3m would take damage, you may use an instantaneous action to move towards them and transfer the damage to yourself, performing the \imp{Resist} yourself with a +1d bonus. You may use this ability a number of times per day equal to your \imp{Triage} rating. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plague Doctor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a \imp{Major Action}, you release a virulent pathogen around you, infecting all those within 5m of your current position (you may expend a \imp{Fortitude} point to exclude any number of allies). You may choose the effect of the pathogen (i.e. \imp{Blinded}, \imp{Confused}, \imp{Poisoned}, \imp{Enraged}, \imp{Exhausted} or \imp{Immobilised}), which has a \imp{power} equal to 3 + your \imp{Pathology} rating. Targets make a check to \imp{Resist} at the onset of this effect, and then again at the end of every subsequent cycle. 
+You can use this ability a number of times equal to your \imp{Pathology} rating before requiring a \imp{Long Rest}. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preventative Treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You gain +2d to any \imp{Defensive} actions used to reduce the effectiveness of an incoming attack. If you reduce the \imp{Power} of an attack to zero, the target(s) of the attack gain 1 point of healing. </t>
   </si>
   <si>
     <t xml:space="preserve">Red Cross</t>
   </si>
   <si>
-    <t xml:space="preserve">By expending a \imp{Fortitude} point, you may use a \imp{Minor Action} to designate a target within \imp{Wandtip} range as a non-combatant. Any being which attempts to harm the designated target (either with a targeted attack, or an Area-of-Effect attack) must first perform a \imp{Willpower (Conviction)} check (or similar) with a DV equal to 5 + your \imp{Willpower} rating. On a failure, the attack falters and the attacker’s turn ends. This effect lasts until the target re-enters combat. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whenever a being which you have successfully cast a \imp{Hermetics} spell on takes damage (but before they \imp{Resist}), you may elect to transfer the damage to yourself, performing the \imp{Resist} yourself. The list of targets for this ability resets whenever you take a \imp{short} or \imp{long} rest. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beacon of Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your \imp{Hermetics} spells now channel so much positive energy that they deal \imp{harm} to unliving and evil creatures such as \imp{Demons}, \imp{Abominations}, \imp{Phantasms} and \imp{Undead}. When you deal harm using this ability, you restore health to yourself equal to half the damage dealt. </t>
+    <t xml:space="preserve">By expending a \imp{Fortitude} point, you may use a \imp{Minor Action} to designate a target within \imp{Wandtip} range as a non-combatant. Any being which attempts to harm the designated target (either with a targeted attack, or an Area-of-Effect attack) must first perform a \imp{Willpower (Conviction)} check (or similar) with a DV equal to 5 + your \imp{First Aid} rating. On a failure, the attack falters and the attacker’s turn ends. This effect lasts until the target re-enters combat. </t>
   </si>
   <si>
     <t xml:space="preserve">Stabilising Presence</t>
   </si>
   <si>
-    <t xml:space="preserve">When a target within 10m falls into the \imp{Critical Condition} status, you may expend a \imp{Fortitude} point to instead place them into \imp{Critical But Stable}. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plague Doctor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You release a virulent pathogen around you, infecting all those within 5m of your current position (you may expend a \imp{Fortitude} point to exclude any number of allies). You may choose the effect of the pathogen:
-\begin{itemize}
-\item \key{Poisoned}: 2 damage per turn, power = your \imp{Pathology} rating
-\item \key{Blinded}: power = your \imp{Willpower} rating
-\item \key{Enraged}: power = your \imp{Deception} rating
-\end{itemize}
-Targets make a check to \imp{Resist} at the onset of this effect, and then again at the end of every subsequent cycle. You can use this ability a number of times equal to your \imp{Pathology} rating before requiring a \imp{Long Rest}. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apothecary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whenever you take a \imp{Short Rest} whilst in possession of a \imp{First Aid Kit} or a \imp{Alchemy Set}, you can brew a quick healing potion, gaining a base-level \imp{Wiggenweld Potion} (see page \pageref{P:Wiggenweld}). You cannot store more than 5 such potions using this ability. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When performing a \imp{Healing} check, or a \imp{Defensive} check you may choose to automatically roll the maximum number of successes. If an enemy reduces the power of this action to zero, you (or your patient, as appropriate), fall into the \imp{Critical Condition} status. You cannot use this ability again until you take a \imp{Long Rest}. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preventative Treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You gain +2d to any \imp{Defensive} actions used to reduce the effectiveness of an incoming attack. If you reduce the \imp{Power} of an attack to zero, the target(s) of the attack gain 1 point of healing. </t>
+    <t xml:space="preserve">When a target within 10m falls into the \imp{Critical Condition} status, you may instead place them into \imp{Critical But Stable}, gaining a level of \imp{Exhaustion} each time you do so. </t>
   </si>
   <si>
     <t xml:space="preserve">Warden</t>
@@ -641,10 +650,16 @@
     <t xml:space="preserve">You may spend a day completely immersing yourself in a new set of knowledge and expertise. Convert a number of your \imp{Knowledge} dots back into experience points. You must then reassign at least this number of experience points back into your \imp{Knowledge} abilities in any new combination you wish. </t>
   </si>
   <si>
+    <t xml:space="preserve">Adapt and Adjust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever you target an ally’s spell in order to alter its effects, you gain one additional auto-success. A number of times per day equal to your \imp{Collaboration} rating, you may cast such a `modifying spell’ as a \imp{Minor Action}. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Learn From Failure</t>
   </si>
   <si>
-    <t xml:space="preserve">When performing a check of any kind, for every consectutive previous roll which failed, you gain +2d (up to a maximum of your \imp{Stubbornness} rating).</t>
+    <t xml:space="preserve">When performing a check of any kind, for every consectutive previous roll (of any kind) failed by you or your allies, you gain +1d (up to a maximum of your \imp{Stubbornness} rating).</t>
   </si>
   <si>
     <t xml:space="preserve">Library Lover</t>
@@ -662,40 +677,57 @@
     <t xml:space="preserve">Master of the Mind</t>
   </si>
   <si>
-    <t xml:space="preserve">When an action would interrupt you casting a spell requiring continuing concentration, the DV to remain focussed is 2 lower than normal. You also gain +1d on all \imp{Resist} checks against mind-altering effects. </t>
+    <t xml:space="preserve">When an action would interrupt you casting a spell requiring continuing concentration, the DV to remain focussed is 2 lower than normal. You also gain +2 to your \imp{Base Endure Bonus}.</t>
   </si>
   <si>
     <t xml:space="preserve">Navigator’s Knack</t>
   </si>
   <si>
-    <t xml:space="preserve">You are able to perfectly keep track of time even whilst asleep, cannot get lost except by magical means and can always pinpoint your location anywhere on the globe given reasonable information i.e. access to the stars. In addition, if any magical effect removes you from your normal plane of existence, you are able to feel and notice this happening. </t>
+    <t xml:space="preserve">You are able to perfectly keep track of time even whilst asleep, cannot get lost except by magical means, can reproduce a map of anywhere you have been, and can always pinpoint your location anywhere on the globe given reasonable information i.e. access to the stars. In addition, if any magical effect alters your position in space, or removes you from your normal plane of existence, you are able to feel and notice this happening. </t>
   </si>
   <si>
     <t xml:space="preserve">Novel Technique</t>
   </si>
   <si>
-    <t xml:space="preserve">Whenever you use a spell in a new or novel fashion, you gain +2d for the spellcasting effort.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick Learner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You need to spend half the usual time in order to learn a new spell, or memorise an enchanting rune, and automatically succeed on the final memorisation roll for spells. </t>
+    <t xml:space="preserve">Whenever you use a spell in a new or novel fashion, you gain +2d for the spellcasting effort. If you use this technique multiple times, you gain only +1d for as long as it remains `novel’ to the outside world. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absorb Information</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">You have a near-eidetic memory, and can accurately recall any information you have seen, read, or heard about in the past 24 hours. In addition, y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ou need to spend half the usual time in order to learn a new spell, or memorise an enchanting rune, and automatically succeed on the final memorisation roll for spells.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Subject Expertise</t>
   </si>
   <si>
-    <t xml:space="preserve">Choose a spell discipline, or a viable target of a spell, which is associated with your area of research or specialty. When casting a spell of this school, or a spell on your chosen target, you gain one additional auto-success. </t>
+    <t xml:space="preserve">Choose a spell discipline, a type of creature, or another kind of action or area of knowledge: you are considered an up-and-coming expert in this field. When performing a check of any kind to target the subjetc of your knowledge, use the associated skills (such as a spellcasting check) or to research more information about the subject of your expertise, you gain one additional auto-success. 
+During a prolonged period of \imp{Downtime}, you may shift your choice of expertise to any other field. </t>
   </si>
   <si>
     <t xml:space="preserve">Well Read</t>
   </si>
   <si>
-    <t xml:space="preserve">You hold in your brain a simply incredible amount of information, you may use some of this vast knowledge to gain +3d on one \imp{Knowledge} check. You can use this ability a number of times equal to your \imp{General Knowledge} rating before needing a long rest. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Little Bird Told Me….</t>
+    <t xml:space="preserve">You hold in your brain a simply incredible amount of information, you may use some of this vast knowledge to gain +3d on one \imp{Knowledge} check. You can use this ability a number of times equal to your \imp{Speculation} rating before needing a long rest. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Little Bird Told Me</t>
   </si>
   <si>
     <t xml:space="preserve">Sophisticate</t>
@@ -710,10 +742,10 @@
     <t xml:space="preserve">You are so brash and bold in your approach that you can simply breeze past an error, playing it for laughs, or simply ignoring it altogether. Whenever you perform a \imp{Social} check, you may treat one \imp{Catastrophe} as a normal, benign failure. By expending a \imp{Fortitude} point, you may extend this to all \imp{Catastrophes} rolled. </t>
   </si>
   <si>
-    <t xml:space="preserve">Burn Book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When using your skills to spread rumours, misinformation or gossip, or when trying to discredit an individual, gain +3 dice</t>
+    <t xml:space="preserve">Charmed Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A number of times per day equal to your \imp{Wealth} rating, you can negate the negative consequences of a \imp{Catastrophic} failure suffered by you or your allies, or grant a +1d bonus on any check that you can see occuring. </t>
   </si>
   <si>
     <t xml:space="preserve">Distracting Shout</t>
@@ -731,25 +763,25 @@
     <t xml:space="preserve">Mesmerising Presence</t>
   </si>
   <si>
-    <t xml:space="preserve">You may use your alluring charm to slightly hypnotise a person, gaining +1d to social checks with them. They remember talking to you,  but are slightly starstruck and overpowered by your personality, such that they cannot recall what you talked about. You may use this ability a number of times equal to your \imp{Bamboozle} rating, before requiring a \imp{Long Rest}. </t>
+    <t xml:space="preserve">You may use your alluring charm to slightly hypnotise a person, gaining +1d to social checks with them and imposing the \imp{Confused} status upon your target. They remember talking to you, but they cannot recall what you talked about or why they said what they did. You may use this ability a number of times equal to your \imp{Bamboozle} rating, before requiring a \imp{Long Rest}. </t>
   </si>
   <si>
     <t xml:space="preserve">Natural Leader</t>
   </si>
   <si>
-    <t xml:space="preserve">You're a natural born leader. While not everyone will simply surrender authority to you, they'll consent to "follow your lead." Reduce the DV of any check directly related to leadership by 2.</t>
+    <t xml:space="preserve">You're a natural born leader. While not everyone will simply surrender authority to you, they'll consent to "follow your lead." Reduce the DV of any check related to leadership or commanding others by 2.</t>
   </si>
   <si>
     <t xml:space="preserve">One for you, two for me</t>
   </si>
   <si>
-    <t xml:space="preserve">Whenever your or your allies gain an amount of \imp{Galleons}, you gain one additional coin. </t>
+    <t xml:space="preserve">Whenever you or your allies gain an amount of \imp{Galleons}, you gain one additional coin. </t>
   </si>
   <si>
     <t xml:space="preserve">Poker Face</t>
   </si>
   <si>
-    <t xml:space="preserve">You are an expert at hiding your true feelings – beings cannot rely on the usual cues to read your demeanour or true motivation. Any \imp{Insight} attempts against you have a DV 2 higher than normal, and the \imp{Auror} `lie detector’ ability does not work on you (though they are aware that they cannot read you). </t>
+    <t xml:space="preserve">You are an expert at hiding your true feelings – beings cannot rely on the usual cues to read your demeanour or true motivation. Any \imp{Insight} attempts against you have a DV 2 higher than normal, and effects which would automatically detect lies or deception do not work on you. </t>
   </si>
   <si>
     <t xml:space="preserve">Sue For Peace</t>
@@ -758,12 +790,6 @@
     <t xml:space="preserve">You excel at halting violence when it breaks out. Whenever you \imp{Surrender}, it is automatically accepted. When you request a foe surrender or flee, your DV is 2 lower than normal. </t>
   </si>
   <si>
-    <t xml:space="preserve">Takes One to Know One</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are able to automatically spot people with a similar skillset to your own, and are aware when someone attempts to \imp{Bamboozle} or otherwise manipulate you or your allies in a social situation. Your additional scrutiny means that attempts to do so have a DV 2 higher than normal. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Unbreakable Vow</t>
   </si>
   <si>
@@ -782,13 +808,7 @@
     <t xml:space="preserve">Blind Rage</t>
   </si>
   <si>
-    <t xml:space="preserve">When using a \imp{Rage} action to attack, you ignore all dice penalities due to injuries. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloodlust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On any turn in which you successfully incapacitate (lethally or not) a foe, you may take an additional free action to perform another attack, with a 2-dice penalty on the check.</t>
+    <t xml:space="preserve">When using a \imp{Rage} action to attack, you ignore all dice penalities due to injuries, and you deal an additional level of \imp{Harm}. However, you take a 1d penalty on all \imp{Resist} checks made next \imp{Combat Cycle}. </t>
   </si>
   <si>
     <t xml:space="preserve">Chivalrous Defence</t>
@@ -803,10 +823,16 @@
     <t xml:space="preserve">When fighting against a single foe, you gain one auto-success on all attack rolls and Resist actions. </t>
   </si>
   <si>
+    <t xml:space="preserve">Know Your Enemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upon seeing a person, you can size them up and see what they’re capable of. You may learn their preferred {\it modus operandi} – their favoured weapons or spells, any notable weaknesses, if they prefer manipulation to fighting, and any other information the GM feels is relevant. You may use this ability a number of times per day equal to your \imp{Insight} rating. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Furious Spellcaster</t>
   </si>
   <si>
-    <t xml:space="preserve">Up to three times a day, you may elect to use a \imp{Rage} check, rather than the associated \imp{Affinity} to perform a spellcasting check. The maximum spell level is still determined by your \imp{Affinity}.</t>
+    <t xml:space="preserve">A number of times per day equal to your \imp{Rage} rating, you may elect to use a \imp{Rage} check, rather than the associated \imp{Affinity} to perform a spellcasting check. The maximum spell level is still determined by your \imp{Affinity}.</t>
   </si>
   <si>
     <t xml:space="preserve">Holistic Tactics</t>
@@ -815,16 +841,16 @@
     <t xml:space="preserve">Whenever a \imp{Tactics} check is successful in determining the tactics of a foe, you may use this knowledge to infer any Resistances, Immunities or Susceptabilities the target has.</t>
   </si>
   <si>
-    <t xml:space="preserve">Lightning Strikes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the end of each long rest, perform a DV 6 check using just your \imp{Speed} pool. For each success gained (min 1) you may perform one additional attack at some point over the next day without expending a \imp{Fortitude} point. </t>
+    <t xml:space="preserve">Calculated Strikes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A number of times per day equal to your \imp{Tactics} rating, you may perform one additional attack without expending a \imp{Fortitude} point. You cannot use this ability more than once on a single \imp{Combat Cycle}. </t>
   </si>
   <si>
     <t xml:space="preserve">Mind over Matter</t>
   </si>
   <si>
-    <t xml:space="preserve">You may \imp{Endure} the harm caused by physical attacks. Whilst your \imp{Endure} rating remains above zero, penalties due to \imp{Harm} are one level less serious.</t>
+    <t xml:space="preserve">You may \imp{Endure} the harm caused by physical \imp{harm}. Whilst your \imp{Endure} rating remains above zero, dice penalties due to \imp{Harm} are one level less serious.</t>
   </si>
   <si>
     <t xml:space="preserve">Never Give In</t>
@@ -852,7 +878,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -879,6 +905,16 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -923,7 +959,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -941,6 +977,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -965,10 +1005,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A115" activeCellId="0" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1013,7 +1053,7 @@
       </c>
       <c r="F2" s="0" t="n">
         <f aca="false">IF(NOT(E2=""),COUNTIF(B:B,E2),"")</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,7 +1116,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>15</v>
       </c>
@@ -1095,7 +1135,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>17</v>
       </c>
@@ -1114,7 +1154,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="136.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>19</v>
       </c>
@@ -1133,7 +1173,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>21</v>
       </c>
@@ -1152,7 +1192,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>23</v>
       </c>
@@ -1171,15 +1211,18 @@
         <v/>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="C11" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="0" t="str">
         <f aca="false">IF(NOT(B11=B10),B11,"")</f>
@@ -1190,37 +1233,34 @@
         <v/>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="0" t="e">
-        <f aca="false">IF(NOT(B12=#REF!),B12,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F12" s="0" t="e">
+        <v>30</v>
+      </c>
+      <c r="E12" s="0" t="str">
+        <f aca="false">IF(NOT(B12=B11),B12,"")</f>
+        <v/>
+      </c>
+      <c r="F12" s="0" t="str">
         <f aca="false">IF(NOT(E12=""),COUNTIF(B:B,E12),"")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>32</v>
@@ -1241,8 +1281,11 @@
       <c r="B14" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="C14" s="0" t="s">
+        <v>34</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="0" t="str">
         <f aca="false">IF(NOT(B14=B13),B14,"")</f>
@@ -1253,16 +1296,13 @@
         <v/>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
@@ -1275,15 +1315,18 @@
         <v/>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="C16" s="0" t="s">
+        <v>39</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="0" t="str">
         <f aca="false">IF(NOT(B16=B15),B16,"")</f>
@@ -1294,18 +1337,18 @@
         <v/>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="0" t="str">
         <f aca="false">IF(NOT(B17=B16),B17,"")</f>
@@ -1316,16 +1359,13 @@
         <v/>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
@@ -1338,7 +1378,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>46</v>
       </c>
@@ -1357,7 +1397,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>48</v>
       </c>
@@ -1376,13 +1416,16 @@
         <v/>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>50</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="C21" s="0" t="s">
+        <v>48</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>51</v>
       </c>
@@ -1395,45 +1438,42 @@
         <v/>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E22" s="0" t="str">
         <f aca="false">IF(NOT(B22=B21),B22,"")</f>
-        <v/>
-      </c>
-      <c r="F22" s="0" t="str">
+        <v>Artificer</v>
+      </c>
+      <c r="F22" s="0" t="n">
         <f aca="false">IF(NOT(E22=""),COUNTIF(B:B,E22),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E23" s="0" t="str">
         <f aca="false">IF(NOT(B23=B22),B23,"")</f>
-        <v>Artificer</v>
-      </c>
-      <c r="F23" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F23" s="0" t="str">
         <f aca="false">IF(NOT(E23=""),COUNTIF(B:B,E23),"")</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,7 +1481,7 @@
         <v>57</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>58</v>
@@ -1460,7 +1500,7 @@
         <v>59</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>60</v>
@@ -1479,7 +1519,7 @@
         <v>61</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>62</v>
@@ -1498,7 +1538,7 @@
         <v>63</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>64</v>
@@ -1517,7 +1557,7 @@
         <v>65</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>66</v>
@@ -1536,7 +1576,7 @@
         <v>67</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>68</v>
@@ -1555,7 +1595,7 @@
         <v>69</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>70</v>
@@ -1574,7 +1614,7 @@
         <v>71</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>72</v>
@@ -1593,7 +1633,7 @@
         <v>73</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>74</v>
@@ -1607,12 +1647,12 @@
         <v/>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>75</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>76</v>
@@ -1626,52 +1666,52 @@
         <v/>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>77</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E34" s="0" t="str">
         <f aca="false">IF(NOT(B34=B33),B34,"")</f>
-        <v/>
-      </c>
-      <c r="F34" s="0" t="str">
+        <v>Auror</v>
+      </c>
+      <c r="F34" s="0" t="n">
         <f aca="false">IF(NOT(E34=""),COUNTIF(B:B,E34),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E35" s="0" t="str">
         <f aca="false">IF(NOT(B35=B34),B35,"")</f>
-        <v>Auror</v>
-      </c>
-      <c r="F35" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F35" s="0" t="str">
         <f aca="false">IF(NOT(E35=""),COUNTIF(B:B,E35),"")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>82</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>83</v>
       </c>
       <c r="E36" s="0" t="str">
@@ -1683,12 +1723,12 @@
         <v/>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>84</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>85</v>
@@ -1702,12 +1742,12 @@
         <v/>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>86</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>87</v>
@@ -1721,14 +1761,14 @@
         <v/>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E39" s="0" t="str">
@@ -1745,32 +1785,24 @@
         <v>90</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="0" t="str">
-        <f aca="false">IF(NOT(B40=B39),B40,"")</f>
-        <v/>
-      </c>
-      <c r="F40" s="0" t="str">
-        <f aca="false">IF(NOT(E40=""),COUNTIF(B:B,E40),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>92</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E41" s="0" t="str">
-        <f aca="false">IF(NOT(B41=B40),B41,"")</f>
+        <f aca="false">IF(NOT(B41=B39),B41,"")</f>
         <v/>
       </c>
       <c r="F41" s="0" t="str">
@@ -1778,23 +1810,15 @@
         <v/>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>94</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E42" s="0" t="str">
-        <f aca="false">IF(NOT(B42=B41),B42,"")</f>
-        <v/>
-      </c>
-      <c r="F42" s="0" t="str">
-        <f aca="false">IF(NOT(E42=""),COUNTIF(B:B,E42),"")</f>
-        <v/>
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1802,13 +1826,13 @@
         <v>96</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>97</v>
       </c>
       <c r="E43" s="0" t="str">
-        <f aca="false">IF(NOT(B43=B42),B43,"")</f>
+        <f aca="false">IF(NOT(B43=B41),B43,"")</f>
         <v/>
       </c>
       <c r="F43" s="0" t="str">
@@ -1816,14 +1840,14 @@
         <v/>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>98</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E44" s="0" t="str">
@@ -1835,34 +1859,34 @@
         <v/>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>100</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E45" s="0" t="str">
         <f aca="false">IF(NOT(B45=B44),B45,"")</f>
-        <v/>
-      </c>
-      <c r="F45" s="0" t="str">
+        <v>Druid</v>
+      </c>
+      <c r="F45" s="0" t="n">
         <f aca="false">IF(NOT(E45=""),COUNTIF(B:B,E45),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="E46" s="0" t="str">
         <f aca="false">IF(NOT(B46=B45),B46,"")</f>
@@ -1873,23 +1897,23 @@
         <v/>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E47" s="0" t="str">
         <f aca="false">IF(NOT(B47=B46),B47,"")</f>
-        <v>Druid</v>
-      </c>
-      <c r="F47" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F47" s="0" t="str">
         <f aca="false">IF(NOT(E47=""),COUNTIF(B:B,E47),"")</f>
-        <v>11</v>
+        <v/>
       </c>
     </row>
     <row r="48" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1897,7 +1921,7 @@
         <v>107</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>108</v>
@@ -1916,7 +1940,7 @@
         <v>109</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>110</v>
@@ -1930,12 +1954,12 @@
         <v/>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>111</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>112</v>
@@ -1949,14 +1973,14 @@
         <v/>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>113</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>114</v>
       </c>
       <c r="E51" s="0" t="str">
@@ -1973,32 +1997,24 @@
         <v>115</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E52" s="0" t="str">
-        <f aca="false">IF(NOT(B52=B51),B52,"")</f>
-        <v/>
-      </c>
-      <c r="F52" s="0" t="str">
-        <f aca="false">IF(NOT(E52=""),COUNTIF(B:B,E52),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>117</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>118</v>
       </c>
       <c r="E53" s="0" t="str">
-        <f aca="false">IF(NOT(B53=B52),B53,"")</f>
+        <f aca="false">IF(NOT(B53=B51),B53,"")</f>
         <v/>
       </c>
       <c r="F53" s="0" t="str">
@@ -2006,12 +2022,12 @@
         <v/>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>120</v>
@@ -2025,34 +2041,34 @@
         <v/>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>121</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D55" s="4" t="s">
         <v>122</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E55" s="0" t="str">
         <f aca="false">IF(NOT(B55=B54),B55,"")</f>
-        <v/>
-      </c>
-      <c r="F55" s="0" t="str">
+        <v>Guru</v>
+      </c>
+      <c r="F55" s="0" t="n">
         <f aca="false">IF(NOT(E55=""),COUNTIF(B:B,E55),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="E56" s="0" t="str">
         <f aca="false">IF(NOT(B56=B55),B56,"")</f>
@@ -2063,15 +2079,15 @@
         <v/>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E57" s="0" t="str">
         <f aca="false">IF(NOT(B57=B56),B57,"")</f>
@@ -2082,23 +2098,23 @@
         <v/>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E58" s="0" t="str">
         <f aca="false">IF(NOT(B58=B57),B58,"")</f>
-        <v>Guru</v>
-      </c>
-      <c r="F58" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F58" s="0" t="str">
         <f aca="false">IF(NOT(E58=""),COUNTIF(B:B,E58),"")</f>
-        <v>11</v>
+        <v/>
       </c>
     </row>
     <row r="59" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2106,7 +2122,7 @@
         <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>131</v>
@@ -2120,12 +2136,12 @@
         <v/>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>132</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>133</v>
@@ -2139,12 +2155,12 @@
         <v/>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="46.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>135</v>
@@ -2158,12 +2174,12 @@
         <v/>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>136</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>137</v>
@@ -2177,12 +2193,12 @@
         <v/>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>139</v>
@@ -2196,12 +2212,12 @@
         <v/>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>140</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>141</v>
@@ -2215,53 +2231,45 @@
         <v/>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>142</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E65" s="0" t="str">
-        <f aca="false">IF(NOT(B65=B64),B65,"")</f>
-        <v/>
-      </c>
-      <c r="F65" s="0" t="str">
-        <f aca="false">IF(NOT(E65=""),COUNTIF(B:B,E65),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" s="0" t="str">
+        <f aca="false">IF(NOT(B66=B64),B66,"")</f>
+        <v>Outlaw</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <f aca="false">IF(NOT(E66=""),COUNTIF(B:B,E66),"")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="0" t="str">
-        <f aca="false">IF(NOT(B66=B65),B66,"")</f>
-        <v/>
-      </c>
-      <c r="F66" s="0" t="str">
-        <f aca="false">IF(NOT(E66=""),COUNTIF(B:B,E66),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E67" s="0" t="str">
         <f aca="false">IF(NOT(B67=B66),B67,"")</f>
@@ -2272,15 +2280,15 @@
         <v/>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E68" s="0" t="str">
         <f aca="false">IF(NOT(B68=B67),B68,"")</f>
@@ -2293,21 +2301,13 @@
     </row>
     <row r="69" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="E69" s="0" t="str">
-        <f aca="false">IF(NOT(B69=B68),B69,"")</f>
-        <v>Outlaw</v>
-      </c>
-      <c r="F69" s="0" t="n">
-        <f aca="false">IF(NOT(E69=""),COUNTIF(B:B,E69),"")</f>
-        <v>12</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2315,13 +2315,13 @@
         <v>153</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>154</v>
       </c>
       <c r="E70" s="0" t="str">
-        <f aca="false">IF(NOT(B70=B69),B70,"")</f>
+        <f aca="false">IF(NOT(B70=B68),B70,"")</f>
         <v/>
       </c>
       <c r="F70" s="0" t="str">
@@ -2329,14 +2329,14 @@
         <v/>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>155</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D71" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>156</v>
       </c>
       <c r="E71" s="0" t="str">
@@ -2348,12 +2348,12 @@
         <v/>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>158</v>
@@ -2367,12 +2367,12 @@
         <v/>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>159</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>160</v>
@@ -2386,12 +2386,12 @@
         <v/>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>161</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>162</v>
@@ -2405,12 +2405,12 @@
         <v/>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>164</v>
@@ -2424,14 +2424,14 @@
         <v/>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>165</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D76" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>166</v>
       </c>
       <c r="E76" s="0" t="str">
@@ -2443,56 +2443,48 @@
         <v/>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>167</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E77" s="0" t="str">
         <f aca="false">IF(NOT(B77=B76),B77,"")</f>
-        <v/>
-      </c>
-      <c r="F77" s="0" t="str">
+        <v>Responder</v>
+      </c>
+      <c r="F77" s="0" t="n">
         <f aca="false">IF(NOT(E77=""),COUNTIF(B:B,E77),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E78" s="0" t="str">
-        <f aca="false">IF(NOT(B78=B77),B78,"")</f>
-        <v/>
-      </c>
-      <c r="F78" s="0" t="str">
-        <f aca="false">IF(NOT(E78=""),COUNTIF(B:B,E78),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="E79" s="0" t="str">
-        <f aca="false">IF(NOT(B79=B78),B79,"")</f>
+        <f aca="false">IF(NOT(B79=B77),B79,"")</f>
         <v/>
       </c>
       <c r="F79" s="0" t="str">
@@ -2500,15 +2492,15 @@
         <v/>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E80" s="0" t="str">
         <f aca="false">IF(NOT(B80=B79),B80,"")</f>
@@ -2519,31 +2511,31 @@
         <v/>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E81" s="0" t="str">
         <f aca="false">IF(NOT(B81=B80),B81,"")</f>
-        <v>Responder</v>
-      </c>
-      <c r="F81" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F81" s="0" t="str">
         <f aca="false">IF(NOT(E81=""),COUNTIF(B:B,E81),"")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>178</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>179</v>
@@ -2557,48 +2549,80 @@
         <v/>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>180</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E83" s="0" t="str">
+        <f aca="false">IF(NOT(B83=B82),B83,"")</f>
+        <v/>
+      </c>
+      <c r="F83" s="0" t="str">
+        <f aca="false">IF(NOT(E83=""),COUNTIF(B:B,E83),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>182</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="0" t="str">
+        <f aca="false">IF(NOT(B84=B83),B84,"")</f>
+        <v/>
+      </c>
+      <c r="F84" s="0" t="str">
+        <f aca="false">IF(NOT(E84=""),COUNTIF(B:B,E84),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>184</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="125.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="0" t="str">
+        <f aca="false">IF(NOT(B85=B84),B85,"")</f>
+        <v/>
+      </c>
+      <c r="F85" s="0" t="str">
+        <f aca="false">IF(NOT(E85=""),COUNTIF(B:B,E85),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>186</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>187</v>
+      </c>
+      <c r="E86" s="0" t="str">
+        <f aca="false">IF(NOT(B86=B85),B86,"")</f>
+        <v/>
+      </c>
+      <c r="F86" s="0" t="str">
+        <f aca="false">IF(NOT(E86=""),COUNTIF(B:B,E86),"")</f>
+        <v/>
       </c>
     </row>
     <row r="87" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,70 +2630,94 @@
         <v>188</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="0" t="str">
+        <f aca="false">IF(NOT(B87=B86),B87,"")</f>
+        <v/>
+      </c>
+      <c r="F87" s="0" t="str">
+        <f aca="false">IF(NOT(E87=""),COUNTIF(B:B,E87),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>190</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="D88" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D88" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E88" s="0" t="str">
+        <f aca="false">IF(NOT(B88=B87),B88,"")</f>
+        <v>Scholar</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <f aca="false">IF(NOT(E88=""),COUNTIF(B:B,E88),"")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>191</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>196</v>
+      </c>
+      <c r="E90" s="0" t="str">
+        <f aca="false">IF(NOT(B90=B88),B90,"")</f>
+        <v/>
+      </c>
+      <c r="F90" s="0" t="str">
+        <f aca="false">IF(NOT(E90=""),COUNTIF(B:B,E90),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="D91" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>198</v>
       </c>
       <c r="E91" s="0" t="str">
-        <f aca="false">IF(NOT(B91=B82),B91,"")</f>
-        <v>Scholar</v>
-      </c>
-      <c r="F91" s="0" t="n">
+        <f aca="false">IF(NOT(B91=B90),B91,"")</f>
+        <v/>
+      </c>
+      <c r="F91" s="0" t="str">
         <f aca="false">IF(NOT(E91=""),COUNTIF(B:B,E91),"")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>199</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>200</v>
@@ -2683,14 +2731,14 @@
         <v/>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>201</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="D93" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>202</v>
       </c>
       <c r="E93" s="0" t="str">
@@ -2702,12 +2750,12 @@
         <v/>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>203</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>204</v>
@@ -2726,7 +2774,7 @@
         <v>205</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>206</v>
@@ -2740,14 +2788,14 @@
         <v/>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>207</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="D96" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>208</v>
       </c>
       <c r="E96" s="0" t="str">
@@ -2759,12 +2807,12 @@
         <v/>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="56.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>209</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>210</v>
@@ -2778,14 +2826,14 @@
         <v/>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>211</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="D98" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>212</v>
       </c>
       <c r="E98" s="0" t="str">
@@ -2797,34 +2845,34 @@
         <v/>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>213</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="D99" s="4" t="s">
         <v>214</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="E99" s="0" t="str">
         <f aca="false">IF(NOT(B99=B98),B99,"")</f>
-        <v/>
-      </c>
-      <c r="F99" s="0" t="str">
+        <v>Sophisticate</v>
+      </c>
+      <c r="F99" s="0" t="n">
         <f aca="false">IF(NOT(E99=""),COUNTIF(B:B,E99),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E100" s="0" t="str">
         <f aca="false">IF(NOT(B100=B99),B100,"")</f>
@@ -2835,23 +2883,15 @@
         <v/>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="E101" s="0" t="str">
-        <f aca="false">IF(NOT(B101=B100),B101,"")</f>
-        <v>Sophisticate</v>
-      </c>
-      <c r="F101" s="0" t="n">
-        <f aca="false">IF(NOT(E101=""),COUNTIF(B:B,E101),"")</f>
-        <v>12</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2859,13 +2899,13 @@
         <v>220</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E102" s="0" t="str">
-        <f aca="false">IF(NOT(B102=B101),B102,"")</f>
+        <f aca="false">IF(NOT(B102=B100),B102,"")</f>
         <v/>
       </c>
       <c r="F102" s="0" t="str">
@@ -2873,12 +2913,12 @@
         <v/>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>222</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>223</v>
@@ -2892,14 +2932,14 @@
         <v/>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>224</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="D104" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>225</v>
       </c>
       <c r="E104" s="0" t="str">
@@ -2911,14 +2951,14 @@
         <v/>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>226</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="D105" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>227</v>
       </c>
       <c r="E105" s="0" t="str">
@@ -2930,14 +2970,14 @@
         <v/>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>228</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="D106" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E106" s="0" t="str">
@@ -2949,12 +2989,12 @@
         <v/>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>230</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>231</v>
@@ -2968,12 +3008,12 @@
         <v/>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>232</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>233</v>
@@ -2987,14 +3027,14 @@
         <v/>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>234</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="D109" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>235</v>
       </c>
       <c r="E109" s="0" t="str">
@@ -3006,34 +3046,34 @@
         <v/>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>236</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E110" s="0" t="str">
         <f aca="false">IF(NOT(B110=B109),B110,"")</f>
-        <v/>
-      </c>
-      <c r="F110" s="0" t="str">
+        <v>Warrior</v>
+      </c>
+      <c r="F110" s="0" t="n">
         <f aca="false">IF(NOT(E110=""),COUNTIF(B:B,E110),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E111" s="0" t="str">
         <f aca="false">IF(NOT(B111=B110),B111,"")</f>
@@ -3044,15 +3084,15 @@
         <v/>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="E112" s="0" t="str">
         <f aca="false">IF(NOT(B112=B111),B112,"")</f>
@@ -3063,56 +3103,48 @@
         <v/>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>244</v>
       </c>
       <c r="E113" s="0" t="str">
         <f aca="false">IF(NOT(B113=B112),B113,"")</f>
-        <v>Warrior</v>
-      </c>
-      <c r="F113" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F113" s="0" t="str">
         <f aca="false">IF(NOT(E113=""),COUNTIF(B:B,E113),"")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>245</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E114" s="0" t="str">
-        <f aca="false">IF(NOT(B114=B113),B114,"")</f>
-        <v/>
-      </c>
-      <c r="F114" s="0" t="str">
-        <f aca="false">IF(NOT(E114=""),COUNTIF(B:B,E114),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>247</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>248</v>
       </c>
       <c r="E115" s="0" t="str">
-        <f aca="false">IF(NOT(B115=B114),B115,"")</f>
+        <f aca="false">IF(NOT(B115=B113),B115,"")</f>
         <v/>
       </c>
       <c r="F115" s="0" t="str">
@@ -3120,14 +3152,14 @@
         <v/>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>249</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="D116" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>250</v>
       </c>
       <c r="E116" s="0" t="str">
@@ -3139,12 +3171,12 @@
         <v/>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>251</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>252</v>
@@ -3158,14 +3190,14 @@
         <v/>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>253</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="D118" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>254</v>
       </c>
       <c r="E118" s="0" t="str">
@@ -3177,14 +3209,14 @@
         <v/>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>255</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="D119" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="0" t="str">
@@ -3201,7 +3233,7 @@
         <v>257</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>258</v>
@@ -3215,14 +3247,14 @@
         <v/>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>259</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="D121" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>260</v>
       </c>
       <c r="E121" s="0" t="str">
@@ -3234,35 +3266,17 @@
         <v/>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E122" s="0" t="str">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E122" s="0" t="n">
         <f aca="false">IF(NOT(B122=B121),B122,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F122" s="0" t="str">
         <f aca="false">IF(NOT(E122=""),COUNTIF(B:B,E122),"")</f>
         <v/>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>264</v>
-      </c>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E123" s="0" t="str">
         <f aca="false">IF(NOT(B123=B122),B123,"")</f>
         <v/>
@@ -3272,16 +3286,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>266</v>
-      </c>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E124" s="0" t="str">
         <f aca="false">IF(NOT(B124=B123),B124,"")</f>
         <v/>
@@ -3291,28 +3296,8 @@
         <v/>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E125" s="0" t="n">
-        <f aca="false">IF(NOT(B125=B124),B125,"")</f>
-        <v>0</v>
-      </c>
-      <c r="F125" s="0" t="n">
-        <f aca="false">IF(NOT(E125=""),COUNTIF(B:B,E125),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="0" t="str">
-        <f aca="false">IF(NOT(B126=B125),B126,"")</f>
-        <v/>
-      </c>
-      <c r="F126" s="0" t="str">
-        <f aca="false">IF(NOT(E126=""),COUNTIF(B:B,E126),"")</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D124"/>
+  <autoFilter ref="A1:D121"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CoreRulebook/Data/Feats/Feats.xlsx
+++ b/CoreRulebook/Data/Feats/Feats.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$121</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$D$109</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$122</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$D$110</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$D$98</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$D$95</definedName>
   </definedNames>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="263">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -442,23 +442,7 @@
     <t xml:space="preserve">Self Improvement</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Whenever you cast a spell with a range of \imp{Self}, gain one additional auto-success. In addition, a number of times per day equal to your \imp{Self} rating, w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">hen you cast a spell with a range of \imp{Self} which would impact your combat ability, you may immediately take a melee attack on a foe in range. </t>
-    </r>
+    <t xml:space="preserve">Whenever you cast a spell with a range of \imp{Self}, gain one additional auto-success. In addition, a number of times per day equal to your \imp{Self} rating, when you cast a spell with a range of \imp{Self} which would impact your combat ability, you may immediately take a melee attack on a foe in range. </t>
   </si>
   <si>
     <t xml:space="preserve">Silent Step</t>
@@ -533,23 +517,7 @@
     <t xml:space="preserve">Naturally Shifty</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Doing unscrupulous deeds comes as naturally to you as breathing – gain one additional auto-success on any \imp{Covert} action. In addition, w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">hilst you are outside of bright light, all \imp{Covert} actions have a DV one lower than normal.</t>
-    </r>
+    <t xml:space="preserve">Doing unscrupulous deeds comes as naturally to you as breathing – gain one additional auto-success on any \imp{Covert} action. In addition, whilst you are outside of bright light, all \imp{Covert} actions have a DV one lower than normal.</t>
   </si>
   <si>
     <t xml:space="preserve">Play the System</t>
@@ -659,7 +627,7 @@
     <t xml:space="preserve">Learn From Failure</t>
   </si>
   <si>
-    <t xml:space="preserve">When performing a check of any kind, for every consectutive previous roll (of any kind) failed by you or your allies, you gain +1d (up to a maximum of your \imp{Stubbornness} rating).</t>
+    <t xml:space="preserve">When performing a check of any kind, for every consecutive previous roll (of any kind) failed by you or your allies, you gain +1d (up to a maximum of your \imp{Stubbornness} rating).</t>
   </si>
   <si>
     <t xml:space="preserve">Library Lover</t>
@@ -695,29 +663,13 @@
     <t xml:space="preserve">Absorb Information</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">You have a near-eidetic memory, and can accurately recall any information you have seen, read, or heard about in the past 24 hours. In addition, y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ou need to spend half the usual time in order to learn a new spell, or memorise an enchanting rune, and automatically succeed on the final memorisation roll for spells.</t>
-    </r>
+    <t xml:space="preserve">You have a near-eidetic memory, and can accurately recall any information you have seen, read, or heard about in the past 24 hours. In addition, you need to spend half the usual time in order to learn a new spell, or memorise an enchanting rune, and automatically succeed on the final memorisation roll for spells.</t>
   </si>
   <si>
     <t xml:space="preserve">Subject Expertise</t>
   </si>
   <si>
-    <t xml:space="preserve">Choose a spell discipline, a type of creature, or another kind of action or area of knowledge: you are considered an up-and-coming expert in this field. When performing a check of any kind to target the subjetc of your knowledge, use the associated skills (such as a spellcasting check) or to research more information about the subject of your expertise, you gain one additional auto-success. 
+    <t xml:space="preserve">Choose a spell discipline, a type of creature, or another kind of action or area of knowledge: you are considered an up-and-coming expert in this field. When performing a check of any kind to target the subject of your knowledge, use the associated skills (such as a spellcasting check) or to research more information about the subject of your expertise, you gain one additional auto-success. 
 During a prolonged period of \imp{Downtime}, you may shift your choice of expertise to any other field. </t>
   </si>
   <si>
@@ -745,7 +697,7 @@
     <t xml:space="preserve">Charmed Life</t>
   </si>
   <si>
-    <t xml:space="preserve">A number of times per day equal to your \imp{Wealth} rating, you can negate the negative consequences of a \imp{Catastrophic} failure suffered by you or your allies, or grant a +1d bonus on any check that you can see occuring. </t>
+    <t xml:space="preserve">A number of times per day equal to your \imp{Wealth} rating, you can negate the negative consequences of a \imp{Catastrophic} failure suffered by you or your allies, or grant a +1d bonus on any check that you can see occurring. </t>
   </si>
   <si>
     <t xml:space="preserve">Distracting Shout</t>
@@ -754,6 +706,12 @@
     <t xml:space="preserve">Your forceful presence extends onto the battlefield – whilst in combat you can use a \imp{minor action} to select a target which has not yet declared their action within 10m and perform some action to get their attention. You may either force them to focus all attacks on you this turn, {\bf or} distract them, imposing a 1d penalty on any action they take. </t>
   </si>
   <si>
+    <t xml:space="preserve">Eyes on the Prize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever you perform a \imp{Major Action} which requires a roll, you may take a 1d penalty to \imp{Take Stock} as an instantaneous action. You also gain +1d to counteract acts of sleight-of-hand and other such chicanery. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Magical Conversation</t>
   </si>
   <si>
@@ -850,7 +808,7 @@
     <t xml:space="preserve">Mind over Matter</t>
   </si>
   <si>
-    <t xml:space="preserve">You may \imp{Endure} the harm caused by physical \imp{harm}. Whilst your \imp{Endure} rating remains above zero, dice penalties due to \imp{Harm} are one level less serious.</t>
+    <t xml:space="preserve">You may \imp{Endure} the damage caused by physical \imp{harm}. Whilst your \imp{Endure} rating remains above zero, dice penalties due to \imp{Harm} are one level less serious.</t>
   </si>
   <si>
     <t xml:space="preserve">Never Give In</t>
@@ -878,7 +836,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -905,16 +863,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -959,7 +907,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -980,18 +928,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1001,23 +945,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A115" activeCellId="0" sqref="A115"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D120" activeCellId="0" sqref="D120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="77.59"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2795,7 +2738,7 @@
       <c r="B96" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="4" t="s">
         <v>208</v>
       </c>
       <c r="E96" s="0" t="str">
@@ -2807,7 +2750,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="56.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>209</v>
       </c>
@@ -2861,7 +2804,7 @@
       </c>
       <c r="F99" s="0" t="n">
         <f aca="false">IF(NOT(E99=""),COUNTIF(B:B,E99),"")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2913,26 +2856,18 @@
         <v/>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>222</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E103" s="0" t="str">
-        <f aca="false">IF(NOT(B103=B102),B103,"")</f>
-        <v/>
-      </c>
-      <c r="F103" s="0" t="str">
-        <f aca="false">IF(NOT(E103=""),COUNTIF(B:B,E103),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>224</v>
       </c>
@@ -2943,7 +2878,7 @@
         <v>225</v>
       </c>
       <c r="E104" s="0" t="str">
-        <f aca="false">IF(NOT(B104=B103),B104,"")</f>
+        <f aca="false">IF(NOT(B104=B102),B104,"")</f>
         <v/>
       </c>
       <c r="F104" s="0" t="str">
@@ -2951,14 +2886,14 @@
         <v/>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>226</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="4" t="s">
         <v>227</v>
       </c>
       <c r="E105" s="0" t="str">
@@ -2970,7 +2905,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>228</v>
       </c>
@@ -2989,7 +2924,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>230</v>
       </c>
@@ -3027,14 +2962,14 @@
         <v/>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>234</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="1" t="s">
         <v>235</v>
       </c>
       <c r="E109" s="0" t="str">
@@ -3046,50 +2981,50 @@
         <v/>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>236</v>
       </c>
       <c r="B110" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="E110" s="0" t="str">
         <f aca="false">IF(NOT(B110=B109),B110,"")</f>
-        <v>Warrior</v>
-      </c>
-      <c r="F110" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F110" s="0" t="str">
         <f aca="false">IF(NOT(E110=""),COUNTIF(B:B,E110),"")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B111" s="0" t="s">
         <v>239</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>237</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>240</v>
       </c>
       <c r="E111" s="0" t="str">
         <f aca="false">IF(NOT(B111=B110),B111,"")</f>
-        <v/>
-      </c>
-      <c r="F111" s="0" t="str">
+        <v>Warrior</v>
+      </c>
+      <c r="F111" s="0" t="n">
         <f aca="false">IF(NOT(E111=""),COUNTIF(B:B,E111),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>241</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>242</v>
@@ -3103,12 +3038,12 @@
         <v/>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>243</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>244</v>
@@ -3122,48 +3057,48 @@
         <v/>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>245</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E114" s="0" t="str">
+        <f aca="false">IF(NOT(B114=B113),B114,"")</f>
+        <v/>
+      </c>
+      <c r="F114" s="0" t="str">
+        <f aca="false">IF(NOT(E114=""),COUNTIF(B:B,E114),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>247</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="D115" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E115" s="0" t="str">
-        <f aca="false">IF(NOT(B115=B113),B115,"")</f>
-        <v/>
-      </c>
-      <c r="F115" s="0" t="str">
-        <f aca="false">IF(NOT(E115=""),COUNTIF(B:B,E115),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>249</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>250</v>
       </c>
       <c r="E116" s="0" t="str">
-        <f aca="false">IF(NOT(B116=B115),B116,"")</f>
+        <f aca="false">IF(NOT(B116=B114),B116,"")</f>
         <v/>
       </c>
       <c r="F116" s="0" t="str">
@@ -3171,14 +3106,14 @@
         <v/>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>251</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="D117" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>252</v>
       </c>
       <c r="E117" s="0" t="str">
@@ -3190,12 +3125,12 @@
         <v/>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>253</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>254</v>
@@ -3209,12 +3144,12 @@
         <v/>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>255</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>256</v>
@@ -3233,7 +3168,7 @@
         <v>257</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>258</v>
@@ -3247,14 +3182,14 @@
         <v/>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>259</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="D121" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>260</v>
       </c>
       <c r="E121" s="0" t="str">
@@ -3266,10 +3201,19 @@
         <v/>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E122" s="0" t="n">
+    <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E122" s="0" t="str">
         <f aca="false">IF(NOT(B122=B121),B122,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="F122" s="0" t="str">
         <f aca="false">IF(NOT(E122=""),COUNTIF(B:B,E122),"")</f>
@@ -3277,13 +3221,13 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E123" s="0" t="str">
+      <c r="E123" s="0" t="n">
         <f aca="false">IF(NOT(B123=B122),B123,"")</f>
-        <v/>
-      </c>
-      <c r="F123" s="0" t="str">
+        <v>0</v>
+      </c>
+      <c r="F123" s="0" t="n">
         <f aca="false">IF(NOT(E123=""),COUNTIF(B:B,E123),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3296,8 +3240,18 @@
         <v/>
       </c>
     </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E125" s="0" t="str">
+        <f aca="false">IF(NOT(B125=B124),B125,"")</f>
+        <v/>
+      </c>
+      <c r="F125" s="0" t="str">
+        <f aca="false">IF(NOT(E125=""),COUNTIF(B:B,E125),"")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D121"/>
+  <autoFilter ref="A1:D122"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CoreRulebook/Data/Feats/Feats.xlsx
+++ b/CoreRulebook/Data/Feats/Feats.xlsx
@@ -11,10 +11,10 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$122</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$D$110</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$D$98</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$D$95</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$124</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$D$112</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$D$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$D$97</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="267">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -418,13 +418,13 @@
     <t xml:space="preserve">Like the Wind</t>
   </si>
   <si>
-    <t xml:space="preserve">Perform a DV 6 \imp{Fitness (Glide)} check. For every success, you can run, leap or parkour 2m across a body of water, a gaping chasm, or up a vertical surface. This uses your entire \imp{Movement} for the round. </t>
+    <t xml:space="preserve">Perform a DV 6 \imp{Fitness (Glide)} check. For every success, you can run, leap or parkour 2m across a body of water, a gaping chasm, or up a vertical surface. This uses an entire \imp{Movement} action. </t>
   </si>
   <si>
     <t xml:space="preserve">Open Mind</t>
   </si>
   <si>
-    <t xml:space="preserve">The way that things have always been done is not always the only (or even the best) way. A number of times per day equal to your \imp{Wisdom} rating, you may use a completely different skill, tool or ingredient for a given task. You may substitute almost any \imp{Ability} for a check, use any \imp{Tool} to complete a task, or use a random \imp{Ingredient} in a potion, confident that alternative methods can get the job done. </t>
+    <t xml:space="preserve">The way that things have always been done is not always the only (or even the best) way. A number of times per day equal to your \imp{Wisdom} rating, you may use a completely different skill, tool or ingredient for a given task. You may substitute almost any \imp{Ability} for a check, use any \imp{Tool} to complete a task, or use a random \imp{Ingredient} in a potion.</t>
   </si>
   <si>
     <t xml:space="preserve">Out of Body Experience</t>
@@ -436,37 +436,43 @@
     <t xml:space="preserve">Piercing Insight</t>
   </si>
   <si>
-    <t xml:space="preserve">You have the ability to see through people’s facade to the person beneath. When you gain at least one success on a \imp{Insight} check against a person, you learn enough hidden information about them that all further checks against them have a DV 1 lower than normal. </t>
+    <t xml:space="preserve">When you gain at least one success on a \imp{Insight} check against a person, you learn enough hidden information about them that all further checks against them have a DV 1 lower than normal. </t>
   </si>
   <si>
     <t xml:space="preserve">Self Improvement</t>
   </si>
   <si>
-    <t xml:space="preserve">Whenever you cast a spell with a range of \imp{Self}, gain one additional auto-success. In addition, a number of times per day equal to your \imp{Self} rating, when you cast a spell with a range of \imp{Self} which would impact your combat ability, you may immediately take a melee attack on a foe in range. </t>
+    <t xml:space="preserve">Whenever you cast a spell with a range of \imp{Self}, gain one additional auto-success. In addition, a number of times per day equal to your \imp{Ego} rating, when you cast a spell with a range of \imp{Self} which would impact your combat ability, you may immediately take a melee attack on a foe in range. </t>
   </si>
   <si>
     <t xml:space="preserve">Silent Step</t>
   </si>
   <si>
-    <t xml:space="preserve">If you know the \imp{Teleport} spell, you may cast it as a silent, wandless action using your \imp{movement}, rather than a \imp{major action}. You may appear in an unnocupied space that you can see within a distance equal to 5$\times$ the power of the spell (in metres). You can do this a number of times per day equal to your \imp{Glide} ability. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stillness of Mind and Body</t>
+    <t xml:space="preserve">If you know the \imp{Apparate} spell, you may cast it as a silent, wandless action using your \imp{movement}, rather than a \imp{major action}. You can do this a number of times per day equal to your \imp{Glide} ability. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meditative Purge</t>
   </si>
   <si>
     <t xml:space="preserve">You may expend a \imp{Fortitude} point as an instantaneous action to enter a meditative state, ending all ongoing status effects on your body: \imp{Poisons} are purged, \imp{Fear} is banished, and \imp{Paralysis} wears off. This does not effect status effects imposed by physical phenomena (i.e. you cannot untie ropes giving the \imp{Trapped} status), and you must be conscious to use this ability.</t>
   </si>
   <si>
+    <t xml:space="preserve">One Of A Kind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You’re a bit weird – but that’s OK. It lets you connect with other weirdos, outcasts, reprobates and other people lying a bit away from the average. When making a \imp{Social} check with such an entity, use your \imp{Kindness} rating in addition to whichever \imp{ability} you were already using – if using \imp{Kindness} already, double the rating for this check. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Wise Teacher</t>
   </si>
   <si>
-    <t xml:space="preserve">You are always on the lookout to help others. As a minor action, you take a second to talk to and inspire your ally: donating your \imp{Widsom} pool to another character within 2m. They may add this pool to any check they make next turn cycle. You may use this action multiple times per cycle, but each character can only benefit from the effect once. </t>
+    <t xml:space="preserve">As a \imp{minor action}, you take a second to talk to and inspire an ally within 2m: donating your \imp{Widsom} pool to them. They may add this pool to any check they make next turn cycle. You may use this action multiple times per cycle, but each character can only benefit from the effect once. </t>
   </si>
   <si>
     <t xml:space="preserve">Metamorphmagus</t>
   </si>
   <si>
-    <t xml:space="preserve">You have imbued some magic deep into your body, and are able to alter your appearance at will. A number of times per day equal to your \imp{Self} ability you can alter your hair, the shape of your face, the colour of your eyes – and even change your height and weight to a degree. This ability is not precise enough to truly mimic a real person, and after an hour you begin to shift back to your normal form. </t>
+    <t xml:space="preserve">You have imbued some magic deep into your body, and are able to alter your appearance at will. A number of times per day equal to your \imp{Ego} ability you can alter your hair, the shape of your face, the colour of your eyes – and even change your height and weight to a degree. This ability is not precise enough to truly mimic a real person, and after an hour you begin to shift back to your normal form. </t>
   </si>
   <si>
     <t xml:space="preserve">Cover Identity</t>
@@ -532,10 +538,16 @@
     <t xml:space="preserve">Whenever you attack a target from a position where they cannot see you, or if they are distracted or \imp{incapacitated} in some way, the target is considered \imp{suscpetible} to the attack. </t>
   </si>
   <si>
-    <t xml:space="preserve">Unobtrusive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You don’t stand out in a crowd, and can make yourself, if not invisible, just socially {\it absent}. People don’t necessarily remember your face or your name (if they remember you at all), as you make very little impression on people – until you are stealing their wallet, or knifing them in the back, that is. All checks made by enemies to notice you in a crowd, or remember details about you have a DV 3 higher than normal. </t>
+    <t xml:space="preserve">Alternative Profession</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may choose any other \imp{Feat} from the list of another \imp{Archetype}. If the chosen \imp{Feat} keys off an ability you do not have, instead use the \imp{Savvy} ability. In addition, you may pass yourself off to others as an authentic member of your chosen \imp{Archetype}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smuggler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may designate one small-ish item on your person (or a larger item within a room) as being hidden from view – it cannot be found or unwillingly removed from your person except through extreme measures. In addition, you must pay only half as much to bribe someone (\galleon{1} bribes become free). </t>
   </si>
   <si>
     <t xml:space="preserve">Beacon of Life</t>
@@ -581,8 +593,7 @@
     <t xml:space="preserve">Plague Doctor</t>
   </si>
   <si>
-    <t xml:space="preserve">As a \imp{Major Action}, you release a virulent pathogen around you, infecting all those within 5m of your current position (you may expend a \imp{Fortitude} point to exclude any number of allies). You may choose the effect of the pathogen (i.e. \imp{Blinded}, \imp{Confused}, \imp{Poisoned}, \imp{Enraged}, \imp{Exhausted} or \imp{Immobilised}), which has a \imp{power} equal to 3 + your \imp{Pathology} rating. Targets make a check to \imp{Resist} at the onset of this effect, and then again at the end of every subsequent cycle. 
-You can use this ability a number of times equal to your \imp{Pathology} rating before requiring a \imp{Long Rest}. </t>
+    <t xml:space="preserve">As a \imp{Major Action}, you release a virulent pathogen around you, infecting all those within 5m of your current position (you may expend a \imp{Fortitude} point to exclude any number of allies). You may choose the effect of the pathogen (i.e. \imp{Blinded}, \imp{Confused}, \imp{Poisoned}, \imp{Enraged}, \imp{Exhausted} or \imp{Immobilised}), which has a \imp{power} equal to 3 + your \imp{Pathology} rating. Targets \imp{resist} this effect at the end of every \imp{Cycle}. You can use this ability a number of times equal to your \imp{Pathology} rating before requiring a \imp{Long Rest}. </t>
   </si>
   <si>
     <t xml:space="preserve">Preventative Treatment</t>
@@ -600,7 +611,7 @@
     <t xml:space="preserve">Stabilising Presence</t>
   </si>
   <si>
-    <t xml:space="preserve">When a target within 10m falls into the \imp{Critical Condition} status, you may instead place them into \imp{Critical But Stable}, gaining a level of \imp{Exhaustion} each time you do so. </t>
+    <t xml:space="preserve">When a target within 10m falls into the \imp{Critical Condition} status, you may instead place them into a \imp{Critical But Stable} condition as an instantaneous action. Each time you do so, perform a DV 9 \imp{Vitality (First Aid)} check: on a failure, you take a level of \imp{Exhaustion}.</t>
   </si>
   <si>
     <t xml:space="preserve">Warden</t>
@@ -949,13 +960,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D120" activeCellId="0" sqref="D120"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C61" activeCellId="0" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.14"/>
@@ -2000,7 +2011,7 @@
       </c>
       <c r="F55" s="0" t="n">
         <f aca="false">IF(NOT(E55=""),COUNTIF(B:B,E55),"")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2041,7 +2052,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>128</v>
       </c>
@@ -2098,7 +2109,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="46.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>134</v>
       </c>
@@ -2117,7 +2128,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>136</v>
       </c>
@@ -2165,16 +2176,8 @@
       <c r="D64" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E64" s="0" t="str">
-        <f aca="false">IF(NOT(B64=B63),B64,"")</f>
-        <v/>
-      </c>
-      <c r="F64" s="0" t="str">
-        <f aca="false">IF(NOT(E64=""),COUNTIF(B:B,E64),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="65" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>142</v>
       </c>
@@ -2184,43 +2187,43 @@
       <c r="D65" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E65" s="0" t="str">
+        <f aca="false">IF(NOT(B65=B63),B65,"")</f>
+        <v/>
+      </c>
+      <c r="F65" s="0" t="str">
+        <f aca="false">IF(NOT(E65=""),COUNTIF(B:B,E65),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B66" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E66" s="0" t="str">
-        <f aca="false">IF(NOT(B66=B64),B66,"")</f>
-        <v>Outlaw</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <f aca="false">IF(NOT(E66=""),COUNTIF(B:B,E66),"")</f>
-        <v>11</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="0" t="s">
         <v>147</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>145</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E67" s="0" t="str">
-        <f aca="false">IF(NOT(B67=B66),B67,"")</f>
-        <v/>
-      </c>
-      <c r="F67" s="0" t="str">
+        <f aca="false">IF(NOT(B67=B65),B67,"")</f>
+        <v>Outlaw</v>
+      </c>
+      <c r="F67" s="0" t="n">
         <f aca="false">IF(NOT(E67=""),COUNTIF(B:B,E67),"")</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2228,7 +2231,7 @@
         <v>149</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>150</v>
@@ -2247,10 +2250,18 @@
         <v>151</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>152</v>
+      </c>
+      <c r="E69" s="0" t="str">
+        <f aca="false">IF(NOT(B69=B68),B69,"")</f>
+        <v/>
+      </c>
+      <c r="F69" s="0" t="str">
+        <f aca="false">IF(NOT(E69=""),COUNTIF(B:B,E69),"")</f>
+        <v/>
       </c>
     </row>
     <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2258,32 +2269,24 @@
         <v>153</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E70" s="0" t="str">
-        <f aca="false">IF(NOT(B70=B68),B70,"")</f>
-        <v/>
-      </c>
-      <c r="F70" s="0" t="str">
-        <f aca="false">IF(NOT(E70=""),COUNTIF(B:B,E70),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>155</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="D71" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>156</v>
       </c>
       <c r="E71" s="0" t="str">
-        <f aca="false">IF(NOT(B71=B70),B71,"")</f>
+        <f aca="false">IF(NOT(B71=B69),B71,"")</f>
         <v/>
       </c>
       <c r="F71" s="0" t="str">
@@ -2291,14 +2294,14 @@
         <v/>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>158</v>
       </c>
       <c r="E72" s="0" t="str">
@@ -2310,14 +2313,14 @@
         <v/>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>159</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="D73" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>160</v>
       </c>
       <c r="E73" s="0" t="str">
@@ -2329,14 +2332,14 @@
         <v/>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>161</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="D74" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>162</v>
       </c>
       <c r="E74" s="0" t="str">
@@ -2348,14 +2351,14 @@
         <v/>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="D75" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E75" s="0" t="str">
@@ -2367,14 +2370,14 @@
         <v/>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>165</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="D76" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>166</v>
       </c>
       <c r="E76" s="0" t="str">
@@ -2386,86 +2389,70 @@
         <v/>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>167</v>
       </c>
       <c r="B77" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D77" s="1" t="s">
+    </row>
+    <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="E77" s="0" t="str">
-        <f aca="false">IF(NOT(B77=B76),B77,"")</f>
-        <v>Responder</v>
-      </c>
-      <c r="F77" s="0" t="n">
-        <f aca="false">IF(NOT(E77=""),COUNTIF(B:B,E77),"")</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="B78" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B78" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="D78" s="1" t="s">
+    </row>
+    <row r="79" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="B79" s="0" t="s">
         <v>172</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>168</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E79" s="0" t="str">
         <f aca="false">IF(NOT(B79=B77),B79,"")</f>
-        <v/>
-      </c>
-      <c r="F79" s="0" t="str">
+        <v>Responder</v>
+      </c>
+      <c r="F79" s="0" t="n">
         <f aca="false">IF(NOT(E79=""),COUNTIF(B:B,E79),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>174</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E80" s="0" t="str">
-        <f aca="false">IF(NOT(B80=B79),B80,"")</f>
-        <v/>
-      </c>
-      <c r="F80" s="0" t="str">
-        <f aca="false">IF(NOT(E80=""),COUNTIF(B:B,E80),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="81" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>176</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E81" s="0" t="str">
-        <f aca="false">IF(NOT(B81=B80),B81,"")</f>
+        <f aca="false">IF(NOT(B81=B79),B81,"")</f>
         <v/>
       </c>
       <c r="F81" s="0" t="str">
@@ -2473,12 +2460,12 @@
         <v/>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>178</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>179</v>
@@ -2492,12 +2479,12 @@
         <v/>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>180</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>181</v>
@@ -2516,7 +2503,7 @@
         <v>182</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>183</v>
@@ -2530,12 +2517,12 @@
         <v/>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>184</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>185</v>
@@ -2549,12 +2536,12 @@
         <v/>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>186</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>187</v>
@@ -2568,12 +2555,12 @@
         <v/>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>188</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>189</v>
@@ -2587,86 +2574,86 @@
         <v/>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>190</v>
       </c>
       <c r="B88" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="E88" s="0" t="str">
         <f aca="false">IF(NOT(B88=B87),B88,"")</f>
+        <v/>
+      </c>
+      <c r="F88" s="0" t="str">
+        <f aca="false">IF(NOT(E88=""),COUNTIF(B:B,E88),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E89" s="0" t="str">
+        <f aca="false">IF(NOT(B89=B88),B89,"")</f>
+        <v/>
+      </c>
+      <c r="F89" s="0" t="str">
+        <f aca="false">IF(NOT(E89=""),COUNTIF(B:B,E89),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E90" s="0" t="str">
+        <f aca="false">IF(NOT(B90=B89),B90,"")</f>
         <v>Scholar</v>
       </c>
-      <c r="F88" s="0" t="n">
-        <f aca="false">IF(NOT(E88=""),COUNTIF(B:B,E88),"")</f>
+      <c r="F90" s="0" t="n">
+        <f aca="false">IF(NOT(E90=""),COUNTIF(B:B,E90),"")</f>
         <v>11</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E90" s="0" t="str">
-        <f aca="false">IF(NOT(B90=B88),B90,"")</f>
-        <v/>
-      </c>
-      <c r="F90" s="0" t="str">
-        <f aca="false">IF(NOT(E90=""),COUNTIF(B:B,E90),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>197</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="D91" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E91" s="0" t="str">
-        <f aca="false">IF(NOT(B91=B90),B91,"")</f>
-        <v/>
-      </c>
-      <c r="F91" s="0" t="str">
-        <f aca="false">IF(NOT(E91=""),COUNTIF(B:B,E91),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>199</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>200</v>
       </c>
       <c r="E92" s="0" t="str">
-        <f aca="false">IF(NOT(B92=B91),B92,"")</f>
+        <f aca="false">IF(NOT(B92=B90),B92,"")</f>
         <v/>
       </c>
       <c r="F92" s="0" t="str">
@@ -2674,14 +2661,14 @@
         <v/>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>201</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="D93" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>202</v>
       </c>
       <c r="E93" s="0" t="str">
@@ -2693,12 +2680,12 @@
         <v/>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>203</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>204</v>
@@ -2717,7 +2704,7 @@
         <v>205</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>206</v>
@@ -2731,14 +2718,14 @@
         <v/>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>207</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="D96" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E96" s="0" t="str">
@@ -2750,12 +2737,12 @@
         <v/>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>209</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>210</v>
@@ -2769,14 +2756,14 @@
         <v/>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>211</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="D98" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>212</v>
       </c>
       <c r="E98" s="0" t="str">
@@ -2788,34 +2775,34 @@
         <v/>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="56.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>213</v>
       </c>
       <c r="B99" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E99" s="0" t="str">
         <f aca="false">IF(NOT(B99=B98),B99,"")</f>
-        <v>Sophisticate</v>
-      </c>
-      <c r="F99" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F99" s="0" t="str">
         <f aca="false">IF(NOT(E99=""),COUNTIF(B:B,E99),"")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="E100" s="0" t="str">
         <f aca="false">IF(NOT(B100=B99),B100,"")</f>
@@ -2826,15 +2813,23 @@
         <v/>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B101" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>219</v>
+      </c>
+      <c r="E101" s="0" t="str">
+        <f aca="false">IF(NOT(B101=B100),B101,"")</f>
+        <v>Sophisticate</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <f aca="false">IF(NOT(E101=""),COUNTIF(B:B,E101),"")</f>
+        <v>12</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2842,13 +2837,13 @@
         <v>220</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E102" s="0" t="str">
-        <f aca="false">IF(NOT(B102=B100),B102,"")</f>
+        <f aca="false">IF(NOT(B102=B101),B102,"")</f>
         <v/>
       </c>
       <c r="F102" s="0" t="str">
@@ -2861,20 +2856,20 @@
         <v>222</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>224</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="D104" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E104" s="0" t="str">
@@ -2886,37 +2881,29 @@
         <v/>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>226</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="D105" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E105" s="0" t="str">
-        <f aca="false">IF(NOT(B105=B104),B105,"")</f>
-        <v/>
-      </c>
-      <c r="F105" s="0" t="str">
-        <f aca="false">IF(NOT(E105=""),COUNTIF(B:B,E105),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>228</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="D106" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>229</v>
       </c>
       <c r="E106" s="0" t="str">
-        <f aca="false">IF(NOT(B106=B105),B106,"")</f>
+        <f aca="false">IF(NOT(B106=B104),B106,"")</f>
         <v/>
       </c>
       <c r="F106" s="0" t="str">
@@ -2924,14 +2911,14 @@
         <v/>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>230</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="D107" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>231</v>
       </c>
       <c r="E107" s="0" t="str">
@@ -2948,7 +2935,7 @@
         <v>232</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>233</v>
@@ -2962,12 +2949,12 @@
         <v/>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>234</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>235</v>
@@ -2981,14 +2968,14 @@
         <v/>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>236</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="D110" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E110" s="0" t="str">
@@ -3000,34 +2987,34 @@
         <v/>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>238</v>
       </c>
       <c r="B111" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="E111" s="0" t="str">
         <f aca="false">IF(NOT(B111=B110),B111,"")</f>
-        <v>Warrior</v>
-      </c>
-      <c r="F111" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F111" s="0" t="str">
         <f aca="false">IF(NOT(E111=""),COUNTIF(B:B,E111),"")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="E112" s="0" t="str">
         <f aca="false">IF(NOT(B112=B111),B112,"")</f>
@@ -3040,29 +3027,29 @@
     </row>
     <row r="113" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B113" s="0" t="s">
         <v>243</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>239</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>244</v>
       </c>
       <c r="E113" s="0" t="str">
         <f aca="false">IF(NOT(B113=B112),B113,"")</f>
-        <v/>
-      </c>
-      <c r="F113" s="0" t="str">
+        <v>Warrior</v>
+      </c>
+      <c r="F113" s="0" t="n">
         <f aca="false">IF(NOT(E113=""),COUNTIF(B:B,E113),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>245</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>246</v>
@@ -3081,24 +3068,32 @@
         <v>247</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E115" s="0" t="str">
+        <f aca="false">IF(NOT(B115=B114),B115,"")</f>
+        <v/>
+      </c>
+      <c r="F115" s="0" t="str">
+        <f aca="false">IF(NOT(E115=""),COUNTIF(B:B,E115),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>249</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="D116" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>250</v>
       </c>
       <c r="E116" s="0" t="str">
-        <f aca="false">IF(NOT(B116=B114),B116,"")</f>
+        <f aca="false">IF(NOT(B116=B115),B116,"")</f>
         <v/>
       </c>
       <c r="F116" s="0" t="str">
@@ -3106,37 +3101,29 @@
         <v/>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>251</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="D117" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E117" s="0" t="str">
-        <f aca="false">IF(NOT(B117=B116),B117,"")</f>
-        <v/>
-      </c>
-      <c r="F117" s="0" t="str">
-        <f aca="false">IF(NOT(E117=""),COUNTIF(B:B,E117),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>253</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="D118" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>254</v>
       </c>
       <c r="E118" s="0" t="str">
-        <f aca="false">IF(NOT(B118=B117),B118,"")</f>
+        <f aca="false">IF(NOT(B118=B116),B118,"")</f>
         <v/>
       </c>
       <c r="F118" s="0" t="str">
@@ -3144,14 +3131,14 @@
         <v/>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>255</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="D119" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="0" t="str">
@@ -3168,7 +3155,7 @@
         <v>257</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>258</v>
@@ -3182,12 +3169,12 @@
         <v/>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>259</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>260</v>
@@ -3201,14 +3188,14 @@
         <v/>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>261</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="D122" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>262</v>
       </c>
       <c r="E122" s="0" t="str">
@@ -3220,17 +3207,35 @@
         <v/>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E123" s="0" t="n">
+    <row r="123" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E123" s="0" t="str">
         <f aca="false">IF(NOT(B123=B122),B123,"")</f>
-        <v>0</v>
-      </c>
-      <c r="F123" s="0" t="n">
+        <v/>
+      </c>
+      <c r="F123" s="0" t="str">
         <f aca="false">IF(NOT(E123=""),COUNTIF(B:B,E123),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v/>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="E124" s="0" t="str">
         <f aca="false">IF(NOT(B124=B123),B124,"")</f>
         <v/>
@@ -3241,17 +3246,37 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E125" s="0" t="str">
+      <c r="E125" s="0" t="n">
         <f aca="false">IF(NOT(B125=B124),B125,"")</f>
-        <v/>
-      </c>
-      <c r="F125" s="0" t="str">
+        <v>0</v>
+      </c>
+      <c r="F125" s="0" t="n">
         <f aca="false">IF(NOT(E125=""),COUNTIF(B:B,E125),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E126" s="0" t="str">
+        <f aca="false">IF(NOT(B126=B125),B126,"")</f>
+        <v/>
+      </c>
+      <c r="F126" s="0" t="str">
+        <f aca="false">IF(NOT(E126=""),COUNTIF(B:B,E126),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E127" s="0" t="str">
+        <f aca="false">IF(NOT(B127=B126),B127,"")</f>
+        <v/>
+      </c>
+      <c r="F127" s="0" t="str">
+        <f aca="false">IF(NOT(E127=""),COUNTIF(B:B,E127),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D122"/>
+  <autoFilter ref="A1:D124"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CoreRulebook/Data/Feats/Feats.xlsx
+++ b/CoreRulebook/Data/Feats/Feats.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$124</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$122</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$D$112</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$D$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$D$97</definedName>
@@ -50,7 +50,7 @@
   </si>
   <si>
     <t xml:space="preserve">As an exceptionally powerful Thaumaturge, you have learned to shift your shape into that of an animal. By expending a \imp{Fortitude} point, you may instantly assume the physical attributes of your `spirit animal’. This animal is (usually) the same as your \imp{Patronus} and can only be changed if your undergo a profound change on a spiritual level. Whilst in this form, you retain your mental state, but all your physical statistics and abilities are replaced by those of the form you take. 
-You may choose to revert back to your human form at any time, and you do so automatically if you are reduced to a \imp{Critical Condition} whilst in bestial form. </t>
+You may choose to revert back to your human form at any time, and you do so automatically if you are reduced to a \imp{Critical Condition} whilst in bestial form – upon transforming back you \imp{stabilise}, but do not recover any health you might have lost. </t>
   </si>
   <si>
     <t xml:space="preserve">Armour Piercing</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">Instinctive Defence</t>
   </si>
   <si>
-    <t xml:space="preserve">Whilst you have a \imp{wand} equipped and are able to cast spells, you gain a +1 bonus to all \imp{base defence bonuses}.</t>
+    <t xml:space="preserve">Whilst you have a \imp{wand} equipped and are able to cast spells, you gain a +2 bonus to all \imp{base defence bonuses}.</t>
   </si>
   <si>
     <t xml:space="preserve">Jack-of-all-Trades</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">Light Sleeper</t>
   </si>
   <si>
-    <t xml:space="preserve">You need much less sleep than others, and can go from asleep to awake in a blink of an eye. You gain the benefits of a \imp{Long Rest} after only 4 hours, and may ignore the effects of \imp{Level One Exhaustion}. Any \imp{Alertness} checks called for whilst asleep have the DV reduced by 3.  </t>
+    <t xml:space="preserve">You need much less sleep than others, and can go from asleep to awake in a blink of an eye. You gain the benefits of a \imp{Long Rest} after only 4 hours, and the effects of \imp{Exhaustion} are always one level less severe. Any \imp{Alertness} checks called for whilst asleep have the DV reduced by 3.  </t>
   </si>
   <si>
     <t xml:space="preserve">Loyal Companion</t>
@@ -113,7 +113,43 @@
     <t xml:space="preserve">Kinship (\twoCape)</t>
   </si>
   <si>
-    <t xml:space="preserve">You have an animal ally which is eternally loyal and devoted to you, and can carry out simple tasks: a `familiar’. This familiar is a well trained pet and will follow simple orders, though they cannot communicate back. You maintain a weak psychic link allowing you to know their current physical and emotional condition. The most common animals are owls, ravens, cats, rats and toads, though you may ask your GM for a different choice. </t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You have an animal ally which is eternally loyal and devoted to you, and can carry out simple tasks: a `\imp{familiar}’. This familiar is a well trained pet and will follow simple orders, though they cannot communicate back. In addition, your bond provides you with the following bonus:
+\begin{rndtable}{l l}
+\key{Animal} &amp; \key{Effect} \\
+\animal{Cat}{You can expend a \imp{Fortitude} point to get one auto-success on all \imp{stealth} checks for 1 minute}
+\animal{Ferret}{+1 to your \imp{Base Dodge Bonus}}
+\animal{Owl}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{You can see far further than a normal human, and can see clearly in dim light}
+\animal{Rat}{Get +1 to your \imp{Base Endure Bonus} }
+\animal{Raven}{You can mimic the voice of a person you are familiar with}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\animal{Toad}{You are \imp{Resistant} to \imp{Poison} damage}
+\animal{Tortoise}{+1 to your \imp{Base Block Bonus} }
+\end{rndtable}
+Pets have a single health diamond, and fall into the \imp{Critical Condition} status like a normal character. If your pet dies or is permanently lost, you may bond with a new creature, changing your bonus to match. </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Martial Arts</t>
@@ -128,7 +164,7 @@
     <t xml:space="preserve">Moving Target</t>
   </si>
   <si>
-    <t xml:space="preserve">On any turn during which you move more than half your movement (without doubling back), your \imp{quickdodge} checks do not incur \imp{Drain}.</t>
+    <t xml:space="preserve">On any turn during which you move more than half your movement, your \imp{quickdodge} checks do not incur \imp{Drain} and you gain +2 to your \imp{Base Dodge Bonus}. </t>
   </si>
   <si>
     <t xml:space="preserve">Numbed to Pain</t>
@@ -137,7 +173,7 @@
     <t xml:space="preserve">Vitality (\threeCape)</t>
   </si>
   <si>
-    <t xml:space="preserve">When you expend a \imp{Fortitude} point to ignore the negative effects of \imp{Harm}, the effect lasts for one hour, rather than just the next round. </t>
+    <t xml:space="preserve">When you expend a \imp{Fortitude} point to ignore the negative effects of \imp{Harm}, the effect lasts for one hour, rather than just the next round. During this time, effects which would cause immobilising pain can be ignored. </t>
   </si>
   <si>
     <t xml:space="preserve">Parry Master</t>
@@ -167,13 +203,14 @@
     <t xml:space="preserve">Second Chances</t>
   </si>
   <si>
-    <t xml:space="preserve">Once per day, you may re-roll any number of dice on a single check, but must keep the new result. </t>
+    <t xml:space="preserve">You may re-roll any number of dice on a single check, but must keep the new result. You cannot use this ability again until you suffer a \imp{Catastrophic Failure}, or take a \imp{Long Rest}.</t>
   </si>
   <si>
     <t xml:space="preserve">Signature Spell</t>
   </si>
   <si>
-    <t xml:space="preserve">You have a spell which is considered your `signature move’, chosen when you take this feat. When casting this spell, \imp{catastrophes} are counted as normal failures. You may change your `signature spell’ only with GM consent that your old choice no longer represents your character’s go-to move. </t>
+    <t xml:space="preserve">You have a spell which is considered your `signature move’, chosen when you take this feat. When casting this spell, any rolled \imp{catastrophes} are counted as normal failures, and not deducted from the number of successes rolled. 
+You may change your `signature spell’ with GM consent that your old choice no longer represents your character’s go-to move. </t>
   </si>
   <si>
     <t xml:space="preserve">Silent Casting</t>
@@ -771,7 +808,7 @@
     <t xml:space="preserve">Warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">When making an attack against a small group of people, you can truly throw yourself into the attack, expending two \imp{Fortitude} points to take them all on at once. As a \imp{Major Action}, take a single attack against a number of beings (up to twice your \imp{Rage} score) within range. </t>
+    <t xml:space="preserve">When making an attack against a small group of people, you can truly throw yourself into the attack, expending a \imp{Fortitude} point to take them all on at once. As a \imp{Major Action}, take a single attack against a number of beings (up your \imp{Rage} score) within range. </t>
   </si>
   <si>
     <t xml:space="preserve">Blind Rage</t>
@@ -783,31 +820,19 @@
     <t xml:space="preserve">Chivalrous Defence</t>
   </si>
   <si>
-    <t xml:space="preserve">At any point prior to or during your action in the turn cycle, you may donate up to two dice to a creature within 2m of you that you can see. This creature may use this additional dice on any \imp{Resist} actions they take this turn. You take a dice penalty on any attacks or skill checks (but not your own \imp{resists}) you make this turn equal to the number of dice donated. </t>
+    <t xml:space="preserve">At any point prior to or during your action in the turn cycle, you may donate up to two dice to a creature within 2m of you that you can see. This creature may use this additional dice on any \imp{Resist} actions they take until the end of the combat cycle. You take a dice penalty on any attacks or skill checks (but not your own \imp{resists}) you make this turn equal to the number of dice donated. </t>
   </si>
   <si>
     <t xml:space="preserve">Duelist</t>
   </si>
   <si>
-    <t xml:space="preserve">When fighting against a single foe, you gain one auto-success on all attack rolls and Resist actions. </t>
+    <t xml:space="preserve">When fighting against a single foe, you gain one auto-success on all attack rolls and Resist actions. You cannot be \imp{Surprised} by a single attacker. </t>
   </si>
   <si>
     <t xml:space="preserve">Know Your Enemy</t>
   </si>
   <si>
-    <t xml:space="preserve">Upon seeing a person, you can size them up and see what they’re capable of. You may learn their preferred {\it modus operandi} – their favoured weapons or spells, any notable weaknesses, if they prefer manipulation to fighting, and any other information the GM feels is relevant. You may use this ability a number of times per day equal to your \imp{Insight} rating. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Furious Spellcaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A number of times per day equal to your \imp{Rage} rating, you may elect to use a \imp{Rage} check, rather than the associated \imp{Affinity} to perform a spellcasting check. The maximum spell level is still determined by your \imp{Affinity}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holistic Tactics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whenever a \imp{Tactics} check is successful in determining the tactics of a foe, you may use this knowledge to infer any Resistances, Immunities or Susceptabilities the target has.</t>
+    <t xml:space="preserve">Upon seeing a person, you can size them up and see what they’re capable of. You may learn their preferred {\it modus operandi} – their favoured weapons or spells, any notable weaknesses, if they prefer manipulation to fighting, and any other information the GM feels is relevant. You may use this ability a number of times per day equal to your \imp{Tactics} rating. </t>
   </si>
   <si>
     <t xml:space="preserve">Calculated Strikes</t>
@@ -825,19 +850,31 @@
     <t xml:space="preserve">Never Give In</t>
   </si>
   <si>
-    <t xml:space="preserve">As a minor action, you take a moment to clear your head, suppress the pain in your limbs, or readjust your armour. Reduce the level of \imp{Drain} in a defence of your choice to 1. You can do this a number of times per day equal to your \imp{Vitality} rating. </t>
+    <t xml:space="preserve">As a minor action, you take a moment to clear your head and readjust your armour. Reduce the level of \imp{Drain} in all defense statistics to 0. You must complete a \imp{Long} rest before using this ability again. </t>
   </si>
   <si>
     <t xml:space="preserve">Proud Leader</t>
   </si>
   <si>
-    <t xml:space="preserve">Whenever you use a \imp{Command} action to issue an instruction or provide guidance, if that action is a success, you regain a \imp{Fortitude} point. You may do this a number of times per day equal to your \imp{Command} rating. </t>
+    <t xml:space="preserve">Whenever you use a \imp{Minor Action} to \imp{Command} - to issue an instruction or provide guidance - if that action is a success, you regain a \imp{Fortitude} point. You may do this a number of times per day equal to your \imp{Command} rating. </t>
   </si>
   <si>
     <t xml:space="preserve">Student of War</t>
   </si>
   <si>
-    <t xml:space="preserve">If you study, read up on and otherwise prepare for a target before engaging them in combat, the DV of all attacks you make against them is reduced by 1. If you use a \imp{Command} action this turn, then this bonus is shared amongst all allies within 20m of you until the end of the next \imp{turn cycle}.</t>
+    <t xml:space="preserve">If you study, read up on and otherwise prepare for a target before engaging them in combat, the DV of all combat actions made against them is reduced by 1. A \imp{Command} \imp{MInor action} grants this bonus to all allies within 20m of you until the end of the next \imp{turn cycle}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Command the Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever your group performs a \imp{Reflex} roll to initiate combat, you may increase the value of one roll by an amount equal to your \imp{Tactics} rating. If the target is not \imp{surprised}, they may immediately make a full movement action before the first combat cycle begins. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mighty Deeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your stories of valour and heroism enrapture all those who hear them. By spending around 10 minutes telling these tales, you can distract huge numbers of people, or you can focus on an individual, rendering them \imp{Charmed} by you. </t>
   </si>
 </sst>
 </file>
@@ -847,7 +884,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -868,6 +905,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -935,18 +977,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -956,17 +998,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C61" activeCellId="0" sqref="C61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D125" activeCellId="0" sqref="D125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.14"/>
@@ -988,7 +1030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="113.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1165,7 +1207,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="226.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>25</v>
       </c>
@@ -1228,7 +1270,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>33</v>
       </c>
@@ -1313,7 +1355,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>44</v>
       </c>
@@ -1332,7 +1374,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>46</v>
       </c>
@@ -3025,7 +3067,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>242</v>
       </c>
@@ -3063,7 +3105,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>247</v>
       </c>
@@ -3111,19 +3153,27 @@
       <c r="D117" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E117" s="0" t="str">
+        <f aca="false">IF(NOT(B117=B116),B117,"")</f>
+        <v/>
+      </c>
+      <c r="F117" s="0" t="str">
+        <f aca="false">IF(NOT(E117=""),COUNTIF(B:B,E117),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>253</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="1" t="s">
         <v>254</v>
       </c>
       <c r="E118" s="0" t="str">
-        <f aca="false">IF(NOT(B118=B116),B118,"")</f>
+        <f aca="false">IF(NOT(B118=B117),B118,"")</f>
         <v/>
       </c>
       <c r="F118" s="0" t="str">
@@ -3131,14 +3181,14 @@
         <v/>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>255</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="1" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="0" t="str">
@@ -3169,7 +3219,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>259</v>
       </c>
@@ -3188,14 +3238,14 @@
         <v/>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>261</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="4" t="s">
         <v>262</v>
       </c>
       <c r="E122" s="0" t="str">
@@ -3226,14 +3276,14 @@
         <v/>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>265</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="D124" s="1" t="s">
         <v>266</v>
       </c>
       <c r="E124" s="0" t="str">
@@ -3250,33 +3300,13 @@
         <f aca="false">IF(NOT(B125=B124),B125,"")</f>
         <v>0</v>
       </c>
-      <c r="F125" s="0" t="n">
+      <c r="F125" s="0" t="str">
         <f aca="false">IF(NOT(E125=""),COUNTIF(B:B,E125),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="0" t="str">
-        <f aca="false">IF(NOT(B126=B125),B126,"")</f>
-        <v/>
-      </c>
-      <c r="F126" s="0" t="str">
-        <f aca="false">IF(NOT(E126=""),COUNTIF(B:B,E126),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="0" t="str">
-        <f aca="false">IF(NOT(B127=B126),B127,"")</f>
-        <v/>
-      </c>
-      <c r="F127" s="0" t="str">
-        <f aca="false">IF(NOT(E127=""),COUNTIF(B:B,E127),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D124"/>
+  <autoFilter ref="A1:D122"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
